--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A16214E-B328-44CB-8D4C-D3FF09E34AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3338E43-D392-4EFE-B285-E34F02C7AC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{ACFCFA59-8CB2-4D91-8E2C-A9EA8BBE058C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
   <si>
     <t>Norma Ledo Parra</t>
   </si>
@@ -333,40 +333,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -381,10 +370,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -393,28 +412,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF64C4F-3977-4AA3-AC4F-C06C18EA847F}">
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,1267 +755,1793 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
     </row>
     <row r="24" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="1">
         <v>14</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <v>16</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
     </row>
     <row r="30" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
     </row>
     <row r="31" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
     </row>
     <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4" t="s">
+      <c r="A38" s="1"/>
+      <c r="B38" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3" t="s">
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3" t="s">
+      <c r="A39" s="1"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="5" t="s">
+      <c r="A40" s="1"/>
+      <c r="B40" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6" t="s">
+      <c r="C40" s="19"/>
+      <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="K40" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="1">
         <v>26</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
     </row>
     <row r="42" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="1">
         <v>27</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
     </row>
     <row r="43" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
     </row>
     <row r="44" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
     </row>
     <row r="45" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
     </row>
     <row r="46" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
     </row>
     <row r="47" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
     </row>
     <row r="48" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
     </row>
     <row r="49" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="1">
         <v>34</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
     </row>
     <row r="50" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50" s="1">
         <v>35</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
     </row>
     <row r="51" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51" s="1">
         <v>36</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
     </row>
     <row r="52" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52" s="1">
         <v>37</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="4" t="s">
+      <c r="A55" s="1"/>
+      <c r="B55" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3" t="s">
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3" t="s">
+      <c r="A56" s="1"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="5" t="s">
+      <c r="A57" s="1"/>
+      <c r="B57" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6" t="s">
+      <c r="C57" s="19"/>
+      <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="H57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="I57" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J57" s="6" t="s">
+      <c r="J57" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K57" s="6" t="s">
+      <c r="K57" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="A58" s="1">
         <v>26</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
     </row>
     <row r="59" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="A59" s="1">
         <v>27</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
     </row>
     <row r="60" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
     </row>
     <row r="61" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
     </row>
     <row r="62" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
     </row>
     <row r="63" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+      <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
     </row>
     <row r="64" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+      <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
     </row>
     <row r="65" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+      <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
     </row>
     <row r="66" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="A66" s="1">
         <v>34</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
     </row>
     <row r="67" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+      <c r="A67" s="1">
         <v>35</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
     </row>
     <row r="68" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="A68" s="1">
         <v>36</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
     </row>
     <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="30"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
-    </row>
-    <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+    </row>
+    <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="19"/>
+      <c r="D74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>26</v>
+      </c>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>27</v>
+      </c>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>28</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>29</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>30</v>
+      </c>
+      <c r="B79" s="12"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>31</v>
+      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>32</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>33</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>34</v>
+      </c>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>35</v>
+      </c>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>36</v>
+      </c>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="20"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="19"/>
+      <c r="D91" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>26</v>
+      </c>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>27</v>
+      </c>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>28</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>29</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>30</v>
+      </c>
+      <c r="B96" s="12"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>31</v>
+      </c>
+      <c r="B97" s="12"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>32</v>
+      </c>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>33</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>34</v>
+      </c>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>35</v>
+      </c>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>36</v>
+      </c>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="101">
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="A87:K87"/>
+    <mergeCell ref="A88:K88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="A53:K53"/>
     <mergeCell ref="A54:K54"/>
@@ -2017,26 +2549,23 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
     <mergeCell ref="B38:F38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B41:C41"/>
@@ -2044,20 +2573,29 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A70:K70"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
@@ -2065,10 +2603,25 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3338E43-D392-4EFE-B285-E34F02C7AC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AFCD32-8919-4E4C-8B2B-92A25B36D86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{ACFCFA59-8CB2-4D91-8E2C-A9EA8BBE058C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
   <si>
     <t>Norma Ledo Parra</t>
   </si>
@@ -85,63 +85,12 @@
     <t>Cruz Gonzales Bianey</t>
   </si>
   <si>
-    <t>Flores Cardenas Nestor Alfonso</t>
-  </si>
-  <si>
-    <t>Garcia Mendez Benito</t>
-  </si>
-  <si>
-    <t>Gonzales Martinez Maria Esperanza</t>
-  </si>
-  <si>
-    <t>Hernandez Garzon Irma</t>
-  </si>
-  <si>
-    <t>Hernandez Mora Osiris</t>
-  </si>
-  <si>
-    <t>Hernandez Romero Miguel Angel</t>
-  </si>
-  <si>
-    <t>Ledo Chavez Juana Elvia</t>
-  </si>
-  <si>
-    <t>Lopez Montes Julio</t>
-  </si>
-  <si>
-    <t>Lopez Rueda Tomas</t>
-  </si>
-  <si>
-    <t>Moreno Morales Miguel Angel</t>
-  </si>
-  <si>
     <t>Nieto Carrera Juan</t>
   </si>
   <si>
-    <t>Pacheco Abrego Jose Jesus</t>
-  </si>
-  <si>
-    <t>Palma Martinez Omar</t>
-  </si>
-  <si>
-    <t>Ramirez Tello Humberta</t>
-  </si>
-  <si>
-    <t>Rodriguez Ramirez Jose Alberto</t>
-  </si>
-  <si>
-    <t>Romero Lozada Ana Maria Yolanda</t>
-  </si>
-  <si>
     <t>Roque Antonio Abram</t>
   </si>
   <si>
-    <t>Sanchez Solano Oscar</t>
-  </si>
-  <si>
-    <t>Ramirez Alonso Brandom Julian</t>
-  </si>
-  <si>
     <t>Soriano Reyes Adriana</t>
   </si>
   <si>
@@ -151,76 +100,160 @@
     <t>Aguilar Diaz Juan Guillermo</t>
   </si>
   <si>
-    <t>Aguilar Dias Porfirio Arturo</t>
-  </si>
-  <si>
     <t>Aguilar Tecuapetla Arturo</t>
   </si>
   <si>
-    <t>Aquino Morales Maria de Jesus</t>
-  </si>
-  <si>
-    <t>Armeta Hernandez Francisco</t>
-  </si>
-  <si>
-    <t>Baez Ramirez Pablo</t>
-  </si>
-  <si>
-    <t>Del Rollo Rivera Jose Luis</t>
-  </si>
-  <si>
-    <t>Garcia Perez Leticia</t>
-  </si>
-  <si>
-    <t>Gonzales Lopez José Daniel</t>
-  </si>
-  <si>
-    <t>Hernandez Alcántara Cristobal</t>
-  </si>
-  <si>
-    <t>Martinez Alfonso Beatriz Adriana</t>
-  </si>
-  <si>
-    <t>Martinez Alonso Erika</t>
-  </si>
-  <si>
-    <t>Ramoz Ramirez Gonzalo</t>
-  </si>
-  <si>
     <t>Lista de personal Obrador para rol de comidas Capoteros</t>
   </si>
   <si>
-    <t>Baez Hernandez Edgar</t>
-  </si>
-  <si>
-    <t>Jimenez Martinez Bernardo</t>
-  </si>
-  <si>
-    <t>Lopez Montes Francisco Javier</t>
-  </si>
-  <si>
-    <t>Lopez Montes Jaime</t>
-  </si>
-  <si>
-    <t>Martinez Alfonso Jorge Enrique</t>
-  </si>
-  <si>
-    <t>Martinez Garcia Oscar Javier</t>
-  </si>
-  <si>
-    <t>Martinez Garcia Salvador</t>
-  </si>
-  <si>
-    <t>Martinez Paz Enrique</t>
-  </si>
-  <si>
-    <t>Sanchez Xahue Angel Andres</t>
-  </si>
-  <si>
-    <t>Sanchez Xahue Leopoldo</t>
-  </si>
-  <si>
     <t>Varela Morales Yuliana</t>
+  </si>
+  <si>
+    <t>Lunes 15</t>
+  </si>
+  <si>
+    <t>Martes 16</t>
+  </si>
+  <si>
+    <t>Miércoles 17</t>
+  </si>
+  <si>
+    <t>Jueves 18</t>
+  </si>
+  <si>
+    <t>Viernes 19</t>
+  </si>
+  <si>
+    <t>Sábado 20</t>
+  </si>
+  <si>
+    <t>Domingo 21</t>
+  </si>
+  <si>
+    <t>Del 15 de Noviembre al 21 de Noviembre 2021</t>
+  </si>
+  <si>
+    <t>Lista de Asistencia Semanal nuevo Ingreso</t>
+  </si>
+  <si>
+    <t>Aguilar Días Porfirio Arturo</t>
+  </si>
+  <si>
+    <t>Aquino Morales María de Jesús</t>
+  </si>
+  <si>
+    <t>Armenta Hernández Francisco</t>
+  </si>
+  <si>
+    <t>Báez Ramírez Pablo</t>
+  </si>
+  <si>
+    <t>Del Rollo Rivera José Luis</t>
+  </si>
+  <si>
+    <t>Flores Cárdenas Néstor Alfonso</t>
+  </si>
+  <si>
+    <t>García Méndez Benito</t>
+  </si>
+  <si>
+    <t>García Pérez Leticia</t>
+  </si>
+  <si>
+    <t>Gonzales López José Daniel</t>
+  </si>
+  <si>
+    <t>Gonzales Martínez María Esperanza</t>
+  </si>
+  <si>
+    <t>Hernández Alcántara Cristóbal</t>
+  </si>
+  <si>
+    <t>Hernández Garzón Irma</t>
+  </si>
+  <si>
+    <t>Hernández Mora Osiris</t>
+  </si>
+  <si>
+    <t>Hernández Romero Miguel Ángel</t>
+  </si>
+  <si>
+    <t>Ledo Chávez Juana Elvia</t>
+  </si>
+  <si>
+    <t>López Montes Julio</t>
+  </si>
+  <si>
+    <t>López Rueda Tomas</t>
+  </si>
+  <si>
+    <t>Martínez Alfonso Beatriz Adriana</t>
+  </si>
+  <si>
+    <t>Martínez Alonso Erika</t>
+  </si>
+  <si>
+    <t>Moreno Morales Miguel Ángel</t>
+  </si>
+  <si>
+    <t>Pacheco Abrego José Jesús</t>
+  </si>
+  <si>
+    <t>Palma Martínez Omar</t>
+  </si>
+  <si>
+    <t>Ramírez Alonso Brandon Julián</t>
+  </si>
+  <si>
+    <t>Ramírez Tello Humberta</t>
+  </si>
+  <si>
+    <t>Ramos Ramírez Gonzalo</t>
+  </si>
+  <si>
+    <t>Rodríguez Ramírez José Alberto</t>
+  </si>
+  <si>
+    <t>Romero Lozada Ana María Yolanda</t>
+  </si>
+  <si>
+    <t>Sánchez Solano Oscar</t>
+  </si>
+  <si>
+    <t>Báez Hernández Edgar</t>
+  </si>
+  <si>
+    <t>Jiménez Martínez Bernardo</t>
+  </si>
+  <si>
+    <t>López Montes Francisco Javier</t>
+  </si>
+  <si>
+    <t>López Montes Jaime</t>
+  </si>
+  <si>
+    <t>Martínez Alfonso Jorge Enrique</t>
+  </si>
+  <si>
+    <t>Martínez García Oscar Javier</t>
+  </si>
+  <si>
+    <t>Martínez García Salvador</t>
+  </si>
+  <si>
+    <t>Martínez Paz Enrique</t>
+  </si>
+  <si>
+    <t>Sánchez Xahue Ángel Andrés</t>
+  </si>
+  <si>
+    <t>Sánchez Xahue Leopoldo</t>
+  </si>
+  <si>
+    <t>SEMANA 47</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -230,7 +263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +291,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -333,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -358,6 +398,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -370,8 +416,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -382,7 +428,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -394,31 +464,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -742,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF64C4F-3977-4AA3-AC4F-C06C18EA847F}">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:K102"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,48 +797,49 @@
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="4" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -803,8 +850,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -818,10 +865,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -851,10 +898,10 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="16"/>
+      <c r="B6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -868,10 +915,10 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="16"/>
+      <c r="B7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="13"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -885,10 +932,10 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -902,10 +949,10 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="16"/>
+      <c r="B9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="13"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -919,10 +966,10 @@
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="16"/>
+      <c r="B10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="13"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -936,10 +983,10 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="16"/>
+      <c r="B11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="13"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -953,10 +1000,10 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -970,10 +1017,10 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="16"/>
+      <c r="B13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="13"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -987,10 +1034,10 @@
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1004,10 +1051,10 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="16"/>
+      <c r="B15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="13"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1021,10 +1068,10 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="16"/>
+      <c r="B16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="13"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1038,10 +1085,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="22"/>
+      <c r="B17" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="32"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1052,44 +1099,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1100,8 +1147,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1115,10 +1162,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1148,10 +1195,10 @@
       <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="16"/>
+      <c r="B23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="13"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1167,10 +1214,10 @@
       <c r="A24" s="1">
         <v>14</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="16"/>
+      <c r="B24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="13"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1186,10 +1233,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="23"/>
+      <c r="B25" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="33"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1205,10 +1252,10 @@
       <c r="A26" s="1">
         <v>16</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="13"/>
+      <c r="B26" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="15"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1224,10 +1271,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="13"/>
+      <c r="B27" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="15"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1243,10 +1290,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="31"/>
+      <c r="B28" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="26"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1262,10 +1309,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="31"/>
+      <c r="B29" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="26"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1281,10 +1328,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="13"/>
+      <c r="B30" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="15"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1300,10 +1347,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="13"/>
+      <c r="B31" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="15"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1319,10 +1366,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="27"/>
+      <c r="B32" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="28"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1338,10 +1385,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="29"/>
+      <c r="B33" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="30"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1357,10 +1404,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="25"/>
+      <c r="B34" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="24"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1376,10 +1423,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="25"/>
+      <c r="B35" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="24"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1392,44 +1439,44 @@
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1440,8 +1487,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1455,10 +1502,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="19"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1488,10 +1535,10 @@
       <c r="A41" s="1">
         <v>26</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="16"/>
+      <c r="B41" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="13"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1507,10 +1554,10 @@
       <c r="A42" s="1">
         <v>27</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="16"/>
+      <c r="B42" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="13"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1526,10 +1573,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="15"/>
+      <c r="B43" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="17"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1545,10 +1592,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="15"/>
+      <c r="B44" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="17"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1564,10 +1611,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="13"/>
+      <c r="B45" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="15"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1583,10 +1630,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="13"/>
+      <c r="B46" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="15"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1602,10 +1649,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="13"/>
+      <c r="B47" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="15"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1621,10 +1668,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="15"/>
+      <c r="B48" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="17"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1640,10 +1687,10 @@
       <c r="A49" s="1">
         <v>34</v>
       </c>
-      <c r="B49" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="16"/>
+      <c r="B49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="13"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1659,10 +1706,10 @@
       <c r="A50" s="1">
         <v>35</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="16"/>
+      <c r="B50" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="13"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -1678,10 +1725,10 @@
       <c r="A51" s="1">
         <v>36</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="16"/>
+      <c r="B51" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="13"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -1697,10 +1744,10 @@
       <c r="A52" s="1">
         <v>37</v>
       </c>
-      <c r="B52" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="16"/>
+      <c r="B52" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="13"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -1711,44 +1758,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
+      <c r="A54" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -1759,8 +1806,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -1774,10 +1821,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="19"/>
+      <c r="C57" s="21"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -1807,10 +1854,10 @@
       <c r="A58" s="1">
         <v>26</v>
       </c>
-      <c r="B58" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="16"/>
+      <c r="B58" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="13"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -1824,10 +1871,10 @@
       <c r="A59" s="1">
         <v>27</v>
       </c>
-      <c r="B59" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="16"/>
+      <c r="B59" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="13"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -1841,10 +1888,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="15"/>
+      <c r="B60" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="17"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1858,10 +1905,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="15"/>
+      <c r="B61" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="17"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -1875,10 +1922,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" s="13"/>
+      <c r="B62" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="15"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -1892,10 +1939,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="13"/>
+      <c r="B63" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="15"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -1909,10 +1956,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" s="13"/>
+      <c r="B64" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="15"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -1926,10 +1973,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="15"/>
+      <c r="B65" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="17"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -1943,10 +1990,10 @@
       <c r="A66" s="1">
         <v>34</v>
       </c>
-      <c r="B66" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="16"/>
+      <c r="B66" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="13"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -1960,10 +2007,10 @@
       <c r="A67" s="1">
         <v>35</v>
       </c>
-      <c r="B67" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" s="16"/>
+      <c r="B67" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="13"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -1977,10 +2024,10 @@
       <c r="A68" s="1">
         <v>36</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68" s="16"/>
+      <c r="B68" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="13"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -1992,8 +2039,8 @@
     </row>
     <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -2004,104 +2051,98 @@
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
+      <c r="A71" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
+      <c r="B72" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
     <row r="74" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="19"/>
+      <c r="B74" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="34"/>
       <c r="D74" s="3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>26</v>
-      </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
+      <c r="A75" s="1"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -2112,11 +2153,9 @@
       <c r="K75" s="1"/>
     </row>
     <row r="76" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>27</v>
-      </c>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
+      <c r="A76" s="1"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -2127,11 +2166,9 @@
       <c r="K76" s="1"/>
     </row>
     <row r="77" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>28</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="15"/>
+      <c r="A77" s="1"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="17"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -2142,11 +2179,9 @@
       <c r="K77" s="1"/>
     </row>
     <row r="78" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>29</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="15"/>
+      <c r="A78" s="1"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="17"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -2157,11 +2192,9 @@
       <c r="K78" s="1"/>
     </row>
     <row r="79" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>30</v>
-      </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
+      <c r="A79" s="1"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="15"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -2172,11 +2205,9 @@
       <c r="K79" s="1"/>
     </row>
     <row r="80" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>31</v>
-      </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
+      <c r="A80" s="1"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="15"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -2187,11 +2218,9 @@
       <c r="K80" s="1"/>
     </row>
     <row r="81" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>32</v>
-      </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
+      <c r="A81" s="1"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -2202,11 +2231,9 @@
       <c r="K81" s="1"/>
     </row>
     <row r="82" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>33</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
+      <c r="A82" s="1"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="17"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -2217,11 +2244,9 @@
       <c r="K82" s="1"/>
     </row>
     <row r="83" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>34</v>
-      </c>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
+      <c r="A83" s="1"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -2232,11 +2257,9 @@
       <c r="K83" s="1"/>
     </row>
     <row r="84" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>35</v>
-      </c>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
+      <c r="A84" s="1"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -2247,11 +2270,9 @@
       <c r="K84" s="1"/>
     </row>
     <row r="85" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>36</v>
-      </c>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
+      <c r="A85" s="1"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -2262,44 +2283,44 @@
       <c r="K85" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="s">
+      <c r="A87" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="20"/>
-      <c r="K87" s="20"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
+      <c r="A88" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
         <v>3</v>
@@ -2310,8 +2331,8 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2325,30 +2346,30 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="19" t="s">
+      <c r="B91" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="19"/>
-      <c r="D91" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I91" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J91" s="11" t="s">
-        <v>10</v>
+      <c r="C91" s="21"/>
+      <c r="D91" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J91" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="K91" s="11" t="s">
         <v>14</v>
@@ -2358,8 +2379,8 @@
       <c r="A92" s="1">
         <v>26</v>
       </c>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2373,8 +2394,8 @@
       <c r="A93" s="1">
         <v>27</v>
       </c>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2388,8 +2409,8 @@
       <c r="A94" s="1">
         <v>28</v>
       </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="15"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="17"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2403,8 +2424,8 @@
       <c r="A95" s="1">
         <v>29</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="15"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="17"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2418,8 +2439,8 @@
       <c r="A96" s="1">
         <v>30</v>
       </c>
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="15"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2433,8 +2454,8 @@
       <c r="A97" s="1">
         <v>31</v>
       </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="15"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2448,8 +2469,8 @@
       <c r="A98" s="1">
         <v>32</v>
       </c>
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="15"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2463,8 +2484,8 @@
       <c r="A99" s="1">
         <v>33</v>
       </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="15"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="17"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2478,8 +2499,8 @@
       <c r="A100" s="1">
         <v>34</v>
       </c>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -2493,8 +2514,8 @@
       <c r="A101" s="1">
         <v>35</v>
       </c>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -2508,8 +2529,8 @@
       <c r="A102" s="1">
         <v>36</v>
       </c>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -2521,76 +2542,7 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="A87:K87"/>
-    <mergeCell ref="A88:K88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B85:C85"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:F3"/>
@@ -2607,6 +2559,65 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A87:K87"/>
+    <mergeCell ref="A88:K88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
     <mergeCell ref="A71:K71"/>
     <mergeCell ref="B72:F72"/>
     <mergeCell ref="B73:C73"/>
@@ -2621,9 +2632,19 @@
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.53" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AFCD32-8919-4E4C-8B2B-92A25B36D86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7281DA73-3167-44A5-86AB-10837E3CF76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{ACFCFA59-8CB2-4D91-8E2C-A9EA8BBE058C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
   <si>
     <t>Norma Ledo Parra</t>
   </si>
@@ -250,10 +250,31 @@
     <t>Sánchez Xahue Leopoldo</t>
   </si>
   <si>
-    <t>SEMANA 47</t>
-  </si>
-  <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>SEMANA 48</t>
+  </si>
+  <si>
+    <t>Lunes 22</t>
+  </si>
+  <si>
+    <t>Martes 23</t>
+  </si>
+  <si>
+    <t>Miércoles 24</t>
+  </si>
+  <si>
+    <t>Jueves 25</t>
+  </si>
+  <si>
+    <t>Viernes 26</t>
+  </si>
+  <si>
+    <t>Sábado 27</t>
+  </si>
+  <si>
+    <t>Domingo 28</t>
   </si>
 </sst>
 </file>
@@ -404,39 +425,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -455,13 +482,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -788,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF64C4F-3977-4AA3-AC4F-C06C18EA847F}">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:K79"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,49 +818,50 @@
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="4" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -850,8 +872,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -865,10 +887,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1085,10 +1107,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="32"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1099,44 +1121,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1147,8 +1169,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1162,10 +1184,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1233,10 +1255,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="33"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1255,7 +1277,7 @@
       <c r="B26" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1271,10 +1293,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="15"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1290,10 +1312,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="26"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1309,10 +1331,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="26"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1328,10 +1350,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="15"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1347,10 +1369,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="15"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1366,10 +1388,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="28"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1385,10 +1407,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="30"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1404,10 +1426,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="24"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1423,10 +1445,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="24"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1439,44 +1461,44 @@
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1487,8 +1509,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1502,10 +1524,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="21"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1573,10 +1595,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1592,10 +1614,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="17"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1611,10 +1633,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="15"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1630,10 +1652,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="15"/>
+      <c r="C46" s="21"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1649,10 +1671,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="15"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1668,10 +1690,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1758,44 +1780,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -1806,8 +1828,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -1821,10 +1843,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="21"/>
+      <c r="C57" s="17"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -1888,10 +1910,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="17"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1905,10 +1927,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="17"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -1922,10 +1944,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="15"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -1939,10 +1961,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="15"/>
+      <c r="C63" s="21"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -1956,10 +1978,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="15"/>
+      <c r="C64" s="21"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -1973,10 +1995,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="17"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2039,8 +2061,8 @@
     </row>
     <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -2051,44 +2073,44 @@
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -2097,8 +2119,8 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -2111,32 +2133,32 @@
     <row r="74" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C74" s="34"/>
       <c r="D74" s="3" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2167,8 +2189,8 @@
     </row>
     <row r="77" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="17"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="25"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -2180,8 +2202,8 @@
     </row>
     <row r="78" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="17"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -2193,8 +2215,8 @@
     </row>
     <row r="79" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="21"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -2206,8 +2228,8 @@
     </row>
     <row r="80" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="21"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -2219,8 +2241,8 @@
     </row>
     <row r="81" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="21"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -2232,8 +2254,8 @@
     </row>
     <row r="82" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="17"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -2283,44 +2305,44 @@
       <c r="K85" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
         <v>3</v>
@@ -2331,8 +2353,8 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2346,10 +2368,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="21" t="s">
+      <c r="B91" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="21"/>
+      <c r="C91" s="17"/>
       <c r="D91" s="12" t="s">
         <v>25</v>
       </c>
@@ -2409,8 +2431,8 @@
       <c r="A94" s="1">
         <v>28</v>
       </c>
-      <c r="B94" s="16"/>
-      <c r="C94" s="17"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="25"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2424,8 +2446,8 @@
       <c r="A95" s="1">
         <v>29</v>
       </c>
-      <c r="B95" s="16"/>
-      <c r="C95" s="17"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="25"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2439,8 +2461,8 @@
       <c r="A96" s="1">
         <v>30</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="15"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="21"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2454,8 +2476,8 @@
       <c r="A97" s="1">
         <v>31</v>
       </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="15"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="21"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2469,8 +2491,8 @@
       <c r="A98" s="1">
         <v>32</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="15"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="21"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2484,8 +2506,8 @@
       <c r="A99" s="1">
         <v>33</v>
       </c>
-      <c r="B99" s="16"/>
-      <c r="C99" s="17"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="25"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2542,6 +2564,83 @@
     </row>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="A87:K87"/>
+    <mergeCell ref="A88:K88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -2566,85 +2665,8 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A18:K18"/>
     <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="A87:K87"/>
-    <mergeCell ref="A88:K88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="A71:K71"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.53" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.59" bottom="0.91" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7281DA73-3167-44A5-86AB-10837E3CF76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFC5C73-2D92-4C10-9E1D-433712EDD864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{ACFCFA59-8CB2-4D91-8E2C-A9EA8BBE058C}"/>
   </bookViews>
@@ -321,7 +321,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +337,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF909090"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -425,6 +431,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,6 +455,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -446,46 +491,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,6 +505,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF909090"/>
       <color rgb="FFADADAD"/>
     </mruColors>
   </colors>
@@ -809,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF64C4F-3977-4AA3-AC4F-C06C18EA847F}">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,44 +834,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -872,8 +882,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -887,10 +897,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1107,10 +1117,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1121,44 +1131,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1169,8 +1179,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1184,10 +1194,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1255,10 +1265,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1277,7 +1287,7 @@
       <c r="B26" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1293,10 +1303,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1312,10 +1322,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="28"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1331,10 +1341,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="28"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1350,10 +1360,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="21"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1369,10 +1379,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="21"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1388,10 +1398,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="30"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1407,10 +1417,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="32"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1426,10 +1436,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="23"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1445,10 +1455,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="23"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1461,44 +1471,44 @@
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1509,8 +1519,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1524,10 +1534,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="17"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1595,10 +1605,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="25"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1614,10 +1624,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="25"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1633,10 +1643,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="21"/>
+      <c r="C45" s="15"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1652,10 +1662,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="21"/>
+      <c r="C46" s="15"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1671,10 +1681,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="21"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1690,10 +1700,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="25"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1780,44 +1790,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -1828,8 +1838,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -1843,10 +1853,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="17"/>
+      <c r="C57" s="21"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -1910,10 +1920,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="25"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1927,10 +1937,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="25"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -1944,10 +1954,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="21"/>
+      <c r="C62" s="15"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -1961,10 +1971,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="21"/>
+      <c r="C63" s="15"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -1978,10 +1988,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="21"/>
+      <c r="C64" s="15"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -1995,10 +2005,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="25"/>
+      <c r="C65" s="17"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2061,8 +2071,8 @@
     </row>
     <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -2073,44 +2083,44 @@
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -2119,8 +2129,8 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -2132,10 +2142,10 @@
     </row>
     <row r="74" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="34"/>
+      <c r="C74" s="35"/>
       <c r="D74" s="3" t="s">
         <v>74</v>
       </c>
@@ -2189,8 +2199,8 @@
     </row>
     <row r="77" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="25"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="17"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -2202,8 +2212,8 @@
     </row>
     <row r="78" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="17"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -2215,8 +2225,8 @@
     </row>
     <row r="79" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="21"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="15"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -2228,8 +2238,8 @@
     </row>
     <row r="80" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="21"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="15"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -2241,8 +2251,8 @@
     </row>
     <row r="81" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="21"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -2254,8 +2264,8 @@
     </row>
     <row r="82" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="17"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -2305,44 +2315,44 @@
       <c r="K85" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
         <v>3</v>
@@ -2353,8 +2363,8 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2368,10 +2378,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="17" t="s">
+      <c r="B91" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="17"/>
+      <c r="C91" s="21"/>
       <c r="D91" s="12" t="s">
         <v>25</v>
       </c>
@@ -2431,8 +2441,8 @@
       <c r="A94" s="1">
         <v>28</v>
       </c>
-      <c r="B94" s="24"/>
-      <c r="C94" s="25"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="17"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2446,8 +2456,8 @@
       <c r="A95" s="1">
         <v>29</v>
       </c>
-      <c r="B95" s="24"/>
-      <c r="C95" s="25"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="17"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2461,8 +2471,8 @@
       <c r="A96" s="1">
         <v>30</v>
       </c>
-      <c r="B96" s="26"/>
-      <c r="C96" s="21"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="15"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2476,8 +2486,8 @@
       <c r="A97" s="1">
         <v>31</v>
       </c>
-      <c r="B97" s="26"/>
-      <c r="C97" s="21"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="15"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2491,8 +2501,8 @@
       <c r="A98" s="1">
         <v>32</v>
       </c>
-      <c r="B98" s="26"/>
-      <c r="C98" s="21"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="15"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2506,8 +2516,8 @@
       <c r="A99" s="1">
         <v>33</v>
       </c>
-      <c r="B99" s="24"/>
-      <c r="C99" s="25"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="17"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2564,17 +2574,72 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A70:K70"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
     <mergeCell ref="A87:K87"/>
     <mergeCell ref="A88:K88"/>
     <mergeCell ref="B89:F89"/>
@@ -2599,72 +2664,17 @@
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A70:K70"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.59" bottom="0.91" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFC5C73-2D92-4C10-9E1D-433712EDD864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60FBB6A-3408-4E49-BD1E-701435AD408F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{ACFCFA59-8CB2-4D91-8E2C-A9EA8BBE058C}"/>
   </bookViews>
@@ -253,28 +253,28 @@
     <t>Total</t>
   </si>
   <si>
-    <t>SEMANA 48</t>
-  </si>
-  <si>
-    <t>Lunes 22</t>
-  </si>
-  <si>
-    <t>Martes 23</t>
-  </si>
-  <si>
-    <t>Miércoles 24</t>
-  </si>
-  <si>
-    <t>Jueves 25</t>
-  </si>
-  <si>
-    <t>Viernes 26</t>
-  </si>
-  <si>
-    <t>Sábado 27</t>
-  </si>
-  <si>
-    <t>Domingo 28</t>
+    <t>SEMANA 50</t>
+  </si>
+  <si>
+    <t>Lunes 06</t>
+  </si>
+  <si>
+    <t>Martes 07</t>
+  </si>
+  <si>
+    <t>Miércoles 08</t>
+  </si>
+  <si>
+    <t>Jueves 09</t>
+  </si>
+  <si>
+    <t>Viernes 10</t>
+  </si>
+  <si>
+    <t>Sábado 11</t>
+  </si>
+  <si>
+    <t>Domingo 12</t>
   </si>
 </sst>
 </file>
@@ -431,68 +431,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -819,59 +819,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF64C4F-3977-4AA3-AC4F-C06C18EA847F}">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:K85"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="8" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -882,8 +882,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -897,10 +897,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1117,10 +1117,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="32"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1131,44 +1131,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1179,8 +1179,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1194,10 +1194,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1265,10 +1265,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="33"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1287,7 +1287,7 @@
       <c r="B26" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1303,10 +1303,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="15"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1322,10 +1322,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="30"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1341,10 +1341,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="30"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1360,10 +1360,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="15"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1379,10 +1379,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="15"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1398,10 +1398,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="24"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1417,10 +1417,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="26"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1436,10 +1436,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="28"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1455,10 +1455,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="28"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1471,44 +1471,44 @@
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1519,8 +1519,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="21"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1605,10 +1605,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1624,10 +1624,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="17"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1643,10 +1643,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="15"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1662,10 +1662,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="15"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1681,10 +1681,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="15"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1700,10 +1700,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="26"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1790,44 +1790,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -1838,8 +1838,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="21"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -1920,10 +1920,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="17"/>
+      <c r="C60" s="26"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1937,10 +1937,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="17"/>
+      <c r="C61" s="26"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -1954,10 +1954,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="15"/>
+      <c r="C62" s="22"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -1971,10 +1971,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="15"/>
+      <c r="C63" s="22"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -1988,10 +1988,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="15"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2005,10 +2005,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="17"/>
+      <c r="C65" s="26"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2071,8 +2071,8 @@
     </row>
     <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -2083,44 +2083,44 @@
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="34" t="s">
+      <c r="A70" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -2129,8 +2129,8 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -2199,8 +2199,8 @@
     </row>
     <row r="77" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="17"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="26"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -2212,8 +2212,8 @@
     </row>
     <row r="78" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="17"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="26"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -2225,8 +2225,8 @@
     </row>
     <row r="79" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="22"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -2238,8 +2238,8 @@
     </row>
     <row r="80" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="22"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -2251,8 +2251,8 @@
     </row>
     <row r="81" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="22"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -2264,8 +2264,8 @@
     </row>
     <row r="82" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="17"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="26"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -2315,44 +2315,44 @@
       <c r="K85" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
         <v>3</v>
@@ -2363,8 +2363,8 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="21" t="s">
+      <c r="B91" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="21"/>
+      <c r="C91" s="18"/>
       <c r="D91" s="12" t="s">
         <v>25</v>
       </c>
@@ -2441,8 +2441,8 @@
       <c r="A94" s="1">
         <v>28</v>
       </c>
-      <c r="B94" s="16"/>
-      <c r="C94" s="17"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="26"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2456,8 +2456,8 @@
       <c r="A95" s="1">
         <v>29</v>
       </c>
-      <c r="B95" s="16"/>
-      <c r="C95" s="17"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="26"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2471,8 +2471,8 @@
       <c r="A96" s="1">
         <v>30</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="15"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="22"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2486,8 +2486,8 @@
       <c r="A97" s="1">
         <v>31</v>
       </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="15"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="22"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2501,8 +2501,8 @@
       <c r="A98" s="1">
         <v>32</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="15"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="22"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2516,8 +2516,8 @@
       <c r="A99" s="1">
         <v>33</v>
       </c>
-      <c r="B99" s="16"/>
-      <c r="C99" s="17"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="26"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2574,6 +2574,83 @@
     </row>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="A87:K87"/>
+    <mergeCell ref="A88:K88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -2598,85 +2675,8 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A18:K18"/>
     <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="A87:K87"/>
-    <mergeCell ref="A88:K88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="A71:K71"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.59" bottom="0.91" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="5.43" bottom="0.91" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60FBB6A-3408-4E49-BD1E-701435AD408F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38223D4-6960-45CC-AC7A-10415D325C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{ACFCFA59-8CB2-4D91-8E2C-A9EA8BBE058C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
   <si>
     <t>Norma Ledo Parra</t>
   </si>
@@ -253,28 +253,31 @@
     <t>Total</t>
   </si>
   <si>
-    <t>SEMANA 50</t>
-  </si>
-  <si>
-    <t>Lunes 06</t>
-  </si>
-  <si>
-    <t>Martes 07</t>
-  </si>
-  <si>
-    <t>Miércoles 08</t>
-  </si>
-  <si>
-    <t>Jueves 09</t>
-  </si>
-  <si>
-    <t>Viernes 10</t>
-  </si>
-  <si>
-    <t>Sábado 11</t>
-  </si>
-  <si>
-    <t>Domingo 12</t>
+    <t>SEMANA 51</t>
+  </si>
+  <si>
+    <t>Lunes 13</t>
+  </si>
+  <si>
+    <t>Martes 14</t>
+  </si>
+  <si>
+    <t>Miércoles 15</t>
+  </si>
+  <si>
+    <t>Jueves 16</t>
+  </si>
+  <si>
+    <t>Viernes 17</t>
+  </si>
+  <si>
+    <t>Sábado 18</t>
+  </si>
+  <si>
+    <t>Domingo 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro Sandoval Caicero </t>
   </si>
 </sst>
 </file>
@@ -284,7 +287,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +322,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -400,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -431,6 +442,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -440,12 +463,42 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -455,46 +508,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -819,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF64C4F-3977-4AA3-AC4F-C06C18EA847F}">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:K78"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,44 +848,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -882,8 +896,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -897,10 +911,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1117,10 +1131,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1131,44 +1145,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1179,8 +1193,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1194,10 +1208,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1265,10 +1279,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1287,7 +1301,7 @@
       <c r="B26" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="22"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1303,10 +1317,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="22"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1322,10 +1336,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="29"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1341,10 +1355,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="29"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1360,10 +1374,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="22"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1379,10 +1393,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="22"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1398,10 +1412,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="31"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1417,10 +1431,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="33"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1436,10 +1450,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="24"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1455,10 +1469,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="24"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1471,44 +1485,44 @@
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1519,8 +1533,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1534,10 +1548,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="18"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1605,10 +1619,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="26"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1624,10 +1638,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="26"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1643,10 +1657,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="22"/>
+      <c r="C45" s="15"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1662,10 +1676,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="22"/>
+      <c r="C46" s="15"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1681,10 +1695,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="22"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1700,10 +1714,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="26"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1790,44 +1804,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -1838,8 +1852,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -1853,10 +1867,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="18"/>
+      <c r="C57" s="21"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -1920,10 +1934,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="26"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1937,10 +1951,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="26"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -1954,10 +1968,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="22"/>
+      <c r="C62" s="15"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -1971,10 +1985,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="22"/>
+      <c r="C63" s="15"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -1988,10 +2002,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="22"/>
+      <c r="C64" s="15"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2005,10 +2019,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="26"/>
+      <c r="C65" s="17"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2071,8 +2085,8 @@
     </row>
     <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -2083,44 +2097,44 @@
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -2129,8 +2143,8 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -2142,10 +2156,10 @@
     </row>
     <row r="74" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="35"/>
+      <c r="C74" s="23"/>
       <c r="D74" s="3" t="s">
         <v>74</v>
       </c>
@@ -2171,10 +2185,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
+      <c r="B75" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="36"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -2184,7 +2200,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -2197,10 +2213,10 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="26"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="17"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -2210,10 +2226,10 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="26"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="17"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -2223,10 +2239,10 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="22"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="15"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -2236,10 +2252,10 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="22"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="15"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -2249,10 +2265,10 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="22"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -2262,10 +2278,10 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="26"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="17"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -2275,7 +2291,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -2288,7 +2304,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
@@ -2301,7 +2317,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -2315,44 +2331,44 @@
       <c r="K85" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
         <v>3</v>
@@ -2363,8 +2379,8 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2378,10 +2394,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="18"/>
+      <c r="C91" s="21"/>
       <c r="D91" s="12" t="s">
         <v>25</v>
       </c>
@@ -2441,8 +2457,8 @@
       <c r="A94" s="1">
         <v>28</v>
       </c>
-      <c r="B94" s="25"/>
-      <c r="C94" s="26"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="17"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2456,8 +2472,8 @@
       <c r="A95" s="1">
         <v>29</v>
       </c>
-      <c r="B95" s="25"/>
-      <c r="C95" s="26"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="17"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2471,8 +2487,8 @@
       <c r="A96" s="1">
         <v>30</v>
       </c>
-      <c r="B96" s="27"/>
-      <c r="C96" s="22"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="15"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2486,8 +2502,8 @@
       <c r="A97" s="1">
         <v>31</v>
       </c>
-      <c r="B97" s="27"/>
-      <c r="C97" s="22"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="15"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2501,8 +2517,8 @@
       <c r="A98" s="1">
         <v>32</v>
       </c>
-      <c r="B98" s="27"/>
-      <c r="C98" s="22"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="15"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2516,8 +2532,8 @@
       <c r="A99" s="1">
         <v>33</v>
       </c>
-      <c r="B99" s="25"/>
-      <c r="C99" s="26"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="17"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2574,17 +2590,72 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A70:K70"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
     <mergeCell ref="A87:K87"/>
     <mergeCell ref="A88:K88"/>
     <mergeCell ref="B89:F89"/>
@@ -2609,74 +2680,19 @@
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A70:K70"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="5.43" bottom="0.91" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.32" bottom="0.18" header="0.3" footer="0.26"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\El Jaidroso\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38223D4-6960-45CC-AC7A-10415D325C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{ACFCFA59-8CB2-4D91-8E2C-A9EA8BBE058C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -130,9 +129,6 @@
     <t>Domingo 21</t>
   </si>
   <si>
-    <t>Del 15 de Noviembre al 21 de Noviembre 2021</t>
-  </si>
-  <si>
     <t>Lista de Asistencia Semanal nuevo Ingreso</t>
   </si>
   <si>
@@ -253,37 +249,40 @@
     <t>Total</t>
   </si>
   <si>
-    <t>SEMANA 51</t>
-  </si>
-  <si>
-    <t>Lunes 13</t>
-  </si>
-  <si>
-    <t>Martes 14</t>
-  </si>
-  <si>
-    <t>Miércoles 15</t>
-  </si>
-  <si>
-    <t>Jueves 16</t>
-  </si>
-  <si>
-    <t>Viernes 17</t>
-  </si>
-  <si>
-    <t>Sábado 18</t>
-  </si>
-  <si>
-    <t>Domingo 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro Sandoval Caicero </t>
+    <t>SEMANA 07</t>
+  </si>
+  <si>
+    <t>Lunes 14</t>
+  </si>
+  <si>
+    <t>Martes 15</t>
+  </si>
+  <si>
+    <t>Miércoles 16</t>
+  </si>
+  <si>
+    <t>Jueves 17</t>
+  </si>
+  <si>
+    <t>Viernes 18</t>
+  </si>
+  <si>
+    <t>Sábado 19</t>
+  </si>
+  <si>
+    <t>Domingo 20</t>
+  </si>
+  <si>
+    <t>Del 14 de Gebrero 2022 de Febrero al 20 de Febrero 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hernández machorro Jovanny </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -358,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -407,11 +406,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -442,29 +452,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -472,43 +518,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -532,6 +545,119 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Multiplicar 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2390775" y="27203400"/>
+          <a:ext cx="542925" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Multiplicar 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="27203400"/>
+          <a:ext cx="542925" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -830,62 +956,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF64C4F-3977-4AA3-AC4F-C06C18EA847F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -896,8 +1026,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -911,10 +1041,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -962,7 +1092,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="1"/>
@@ -1013,7 +1143,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="1"/>
@@ -1030,7 +1160,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="1"/>
@@ -1064,7 +1194,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="1"/>
@@ -1098,7 +1228,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="1"/>
@@ -1115,7 +1245,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="1"/>
@@ -1131,10 +1261,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="34"/>
+      <c r="B17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="20"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1145,44 +1275,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1193,8 +1323,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1208,10 +1338,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1242,7 +1372,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="1"/>
@@ -1261,7 +1391,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="1"/>
@@ -1279,10 +1409,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="35"/>
+      <c r="B25" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="21"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1299,9 +1429,9 @@
         <v>16</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="15"/>
+        <v>43</v>
+      </c>
+      <c r="C26" s="22"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1317,10 +1447,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="15"/>
+      <c r="B27" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="22"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1336,10 +1466,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="31"/>
+      <c r="B28" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="29"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1355,10 +1485,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="31"/>
+      <c r="B29" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="29"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1374,10 +1504,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="15"/>
+      <c r="B30" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="22"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1393,10 +1523,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="15"/>
+      <c r="B31" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="22"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1412,10 +1542,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="25"/>
+      <c r="B32" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="31"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1431,10 +1561,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="27"/>
+      <c r="B33" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="33"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1450,10 +1580,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="29"/>
+      <c r="B34" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="24"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1469,10 +1599,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="29"/>
+      <c r="B35" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="24"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1485,44 +1615,44 @@
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1533,8 +1663,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1548,10 +1678,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="21"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1601,7 +1731,7 @@
         <v>27</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="1"/>
@@ -1619,10 +1749,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="17"/>
+      <c r="B43" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="26"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1638,10 +1768,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="17"/>
+      <c r="B44" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="26"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1657,10 +1787,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="15"/>
+      <c r="B45" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="22"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1676,10 +1806,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="15"/>
+      <c r="B46" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="22"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1695,10 +1825,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="15"/>
+      <c r="B47" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="22"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1714,10 +1844,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="17"/>
+      <c r="B48" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="26"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1753,7 +1883,7 @@
         <v>35</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="1"/>
@@ -1804,44 +1934,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -1852,8 +1982,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -1867,10 +1997,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="21"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -1901,7 +2031,7 @@
         <v>26</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="1"/>
@@ -1918,7 +2048,7 @@
         <v>27</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="1"/>
@@ -1934,10 +2064,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="17"/>
+      <c r="B60" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="26"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1951,10 +2081,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="17"/>
+      <c r="B61" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="26"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -1968,10 +2098,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="15"/>
+      <c r="B62" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="22"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -1985,10 +2115,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" s="15"/>
+      <c r="B63" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="22"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2002,10 +2132,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="15"/>
+      <c r="B64" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="22"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2015,14 +2145,14 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" s="17"/>
+      <c r="B65" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="26"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2032,12 +2162,12 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>34</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="1"/>
@@ -2049,12 +2179,12 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>35</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="1"/>
@@ -2066,7 +2196,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>36</v>
       </c>
@@ -2083,10 +2213,10 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -2096,55 +2226,55 @@
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="32" t="s">
+    <row r="70" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="32"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
+      <c r="B72" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -2154,38 +2284,39 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="35"/>
+      <c r="D74" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="23"/>
-      <c r="D74" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="G74" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="H74" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="I74" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="J74" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J74" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="K74" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="L74" s="37"/>
+    </row>
+    <row r="75" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="36" t="s">
         <v>81</v>
@@ -2200,7 +2331,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -2212,11 +2343,12 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L76" s="37"/>
+    </row>
+    <row r="77" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="17"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="26"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -2225,11 +2357,12 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L77" s="37"/>
+    </row>
+    <row r="78" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="17"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="26"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -2239,10 +2372,10 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="22"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -2252,10 +2385,10 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="22"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -2267,8 +2400,8 @@
     </row>
     <row r="81" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="22"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -2280,8 +2413,8 @@
     </row>
     <row r="82" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="17"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="26"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -2331,44 +2464,44 @@
       <c r="K85" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
         <v>3</v>
@@ -2379,8 +2512,8 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2394,10 +2527,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="21" t="s">
+      <c r="B91" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="21"/>
+      <c r="C91" s="18"/>
       <c r="D91" s="12" t="s">
         <v>25</v>
       </c>
@@ -2457,8 +2590,8 @@
       <c r="A94" s="1">
         <v>28</v>
       </c>
-      <c r="B94" s="16"/>
-      <c r="C94" s="17"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="26"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2472,8 +2605,8 @@
       <c r="A95" s="1">
         <v>29</v>
       </c>
-      <c r="B95" s="16"/>
-      <c r="C95" s="17"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="26"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2487,8 +2620,8 @@
       <c r="A96" s="1">
         <v>30</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="15"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="22"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2502,8 +2635,8 @@
       <c r="A97" s="1">
         <v>31</v>
       </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="15"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="22"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2517,8 +2650,8 @@
       <c r="A98" s="1">
         <v>32</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="15"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="22"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2532,8 +2665,8 @@
       <c r="A99" s="1">
         <v>33</v>
       </c>
-      <c r="B99" s="16"/>
-      <c r="C99" s="17"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="26"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2590,6 +2723,83 @@
     </row>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="A87:K87"/>
+    <mergeCell ref="A88:K88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -2614,85 +2824,9 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A18:K18"/>
     <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="A87:K87"/>
-    <mergeCell ref="A88:K88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="A71:K71"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.32" bottom="0.18" header="0.3" footer="0.26"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="83">
   <si>
     <t>Norma Ledo Parra</t>
   </si>
@@ -249,34 +249,37 @@
     <t>Total</t>
   </si>
   <si>
-    <t>SEMANA 07</t>
-  </si>
-  <si>
-    <t>Lunes 14</t>
-  </si>
-  <si>
-    <t>Martes 15</t>
-  </si>
-  <si>
-    <t>Miércoles 16</t>
-  </si>
-  <si>
-    <t>Jueves 17</t>
-  </si>
-  <si>
-    <t>Viernes 18</t>
-  </si>
-  <si>
-    <t>Sábado 19</t>
-  </si>
-  <si>
-    <t>Domingo 20</t>
-  </si>
-  <si>
-    <t>Del 14 de Gebrero 2022 de Febrero al 20 de Febrero 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hernández machorro Jovanny </t>
+    <t>SEMANA 08</t>
+  </si>
+  <si>
+    <t>Del 21 de Febrero 2022 de Febrero al 27 de Febrero 2022</t>
+  </si>
+  <si>
+    <t>Sanchez Mondragon</t>
+  </si>
+  <si>
+    <t>De la Luz Roque Wilber</t>
+  </si>
+  <si>
+    <t>Lunes 21</t>
+  </si>
+  <si>
+    <t>Martes 22</t>
+  </si>
+  <si>
+    <t>Miércoles 23</t>
+  </si>
+  <si>
+    <t>Jueves 24</t>
+  </si>
+  <si>
+    <t>Viernes 25</t>
+  </si>
+  <si>
+    <t>Sábado 26</t>
+  </si>
+  <si>
+    <t>Domingo 27</t>
   </si>
 </sst>
 </file>
@@ -449,6 +452,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -519,9 +525,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,24 +555,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
+      <xdr:colOff>704850</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
+      <xdr:rowOff>485775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Multiplicar 1"/>
+        <xdr:cNvPr id="5" name="Multiplicar 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2390775" y="27203400"/>
+          <a:off x="2619375" y="27212925"/>
           <a:ext cx="542925" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -606,24 +609,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
+      <xdr:rowOff>485775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Multiplicar 2"/>
+        <xdr:cNvPr id="6" name="Multiplicar 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3181350" y="27203400"/>
+          <a:off x="3362325" y="27212925"/>
           <a:ext cx="542925" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -959,7 +962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A70" sqref="A70:K78"/>
     </sheetView>
   </sheetViews>
@@ -967,7 +970,7 @@
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
@@ -978,44 +981,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -1026,8 +1029,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1041,10 +1044,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1074,10 +1077,10 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1091,10 +1094,10 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1108,10 +1111,10 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1125,10 +1128,10 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1142,10 +1145,10 @@
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1159,10 +1162,10 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1176,10 +1179,10 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1193,10 +1196,10 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1210,10 +1213,10 @@
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1227,10 +1230,10 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1244,10 +1247,10 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1261,10 +1264,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1275,44 +1278,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1323,8 +1326,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1338,10 +1341,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1371,10 +1374,10 @@
       <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1390,10 +1393,10 @@
       <c r="A24" s="1">
         <v>14</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1409,10 +1412,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1428,10 +1431,10 @@
       <c r="A26" s="1">
         <v>16</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="22"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1447,10 +1450,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="22"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1466,10 +1469,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="29"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1485,10 +1488,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="29"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1504,10 +1507,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="22"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1523,10 +1526,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="22"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1542,10 +1545,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="31"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1561,10 +1564,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="33"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1580,10 +1583,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="24"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1599,10 +1602,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="24"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1615,44 +1618,44 @@
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1663,8 +1666,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1678,10 +1681,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="18"/>
+      <c r="C40" s="19"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1711,10 +1714,10 @@
       <c r="A41" s="1">
         <v>26</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="13"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1730,10 +1733,10 @@
       <c r="A42" s="1">
         <v>27</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="13"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1749,10 +1752,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="26"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1768,10 +1771,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="26"/>
+      <c r="C44" s="27"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1787,10 +1790,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="22"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1806,10 +1809,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="22"/>
+      <c r="C46" s="23"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1825,10 +1828,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="22"/>
+      <c r="C47" s="23"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1844,10 +1847,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="26"/>
+      <c r="C48" s="27"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1863,10 +1866,10 @@
       <c r="A49" s="1">
         <v>34</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="13"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1882,10 +1885,10 @@
       <c r="A50" s="1">
         <v>35</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="13"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -1901,10 +1904,10 @@
       <c r="A51" s="1">
         <v>36</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="13"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -1920,10 +1923,10 @@
       <c r="A52" s="1">
         <v>37</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="13"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -1934,44 +1937,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -1982,8 +1985,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -1997,10 +2000,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2030,10 +2033,10 @@
       <c r="A58" s="1">
         <v>26</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="13"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2047,10 +2050,10 @@
       <c r="A59" s="1">
         <v>27</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="13"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2064,10 +2067,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="26"/>
+      <c r="C60" s="27"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2081,10 +2084,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="26"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2098,10 +2101,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="22"/>
+      <c r="C62" s="23"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2115,10 +2118,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="22"/>
+      <c r="C63" s="23"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2132,10 +2135,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="22"/>
+      <c r="C64" s="23"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2149,10 +2152,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="26"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2166,10 +2169,10 @@
       <c r="A66" s="1">
         <v>34</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="13"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -2183,10 +2186,10 @@
       <c r="A67" s="1">
         <v>35</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="13"/>
+      <c r="C67" s="14"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -2200,10 +2203,10 @@
       <c r="A68" s="1">
         <v>36</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="13"/>
+      <c r="C68" s="14"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -2215,8 +2218,8 @@
     </row>
     <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -2227,44 +2230,44 @@
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
+      <c r="B72" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -2273,8 +2276,8 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -2286,42 +2289,42 @@
     </row>
     <row r="74" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="35"/>
+      <c r="C74" s="36"/>
       <c r="D74" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L74" s="37"/>
+      <c r="L74" s="13"/>
     </row>
     <row r="75" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75" s="36"/>
+      <c r="B75" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="37"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -2333,8 +2336,10 @@
     </row>
     <row r="76" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
+      <c r="B76" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="37"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -2343,12 +2348,12 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
-      <c r="L76" s="37"/>
+      <c r="L76" s="13"/>
     </row>
     <row r="77" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="26"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -2357,12 +2362,12 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
-      <c r="L77" s="37"/>
+      <c r="L77" s="13"/>
     </row>
     <row r="78" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="26"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -2374,8 +2379,8 @@
     </row>
     <row r="79" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="22"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -2387,8 +2392,8 @@
     </row>
     <row r="80" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="22"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -2400,8 +2405,8 @@
     </row>
     <row r="81" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="22"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -2413,8 +2418,8 @@
     </row>
     <row r="82" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="26"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -2426,8 +2431,8 @@
     </row>
     <row r="83" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -2439,8 +2444,8 @@
     </row>
     <row r="84" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -2452,8 +2457,8 @@
     </row>
     <row r="85" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -2464,44 +2469,44 @@
       <c r="K85" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
         <v>3</v>
@@ -2512,8 +2517,8 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2527,10 +2532,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="18"/>
+      <c r="C91" s="19"/>
       <c r="D91" s="12" t="s">
         <v>25</v>
       </c>
@@ -2560,8 +2565,8 @@
       <c r="A92" s="1">
         <v>26</v>
       </c>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2575,8 +2580,8 @@
       <c r="A93" s="1">
         <v>27</v>
       </c>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2590,8 +2595,8 @@
       <c r="A94" s="1">
         <v>28</v>
       </c>
-      <c r="B94" s="25"/>
-      <c r="C94" s="26"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="27"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2605,8 +2610,8 @@
       <c r="A95" s="1">
         <v>29</v>
       </c>
-      <c r="B95" s="25"/>
-      <c r="C95" s="26"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="27"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2620,8 +2625,8 @@
       <c r="A96" s="1">
         <v>30</v>
       </c>
-      <c r="B96" s="27"/>
-      <c r="C96" s="22"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="23"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2635,8 +2640,8 @@
       <c r="A97" s="1">
         <v>31</v>
       </c>
-      <c r="B97" s="27"/>
-      <c r="C97" s="22"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="23"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2650,8 +2655,8 @@
       <c r="A98" s="1">
         <v>32</v>
       </c>
-      <c r="B98" s="27"/>
-      <c r="C98" s="22"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="23"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2665,8 +2670,8 @@
       <c r="A99" s="1">
         <v>33</v>
       </c>
-      <c r="B99" s="25"/>
-      <c r="C99" s="26"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="27"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2680,8 +2685,8 @@
       <c r="A100" s="1">
         <v>34</v>
       </c>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -2695,8 +2700,8 @@
       <c r="A101" s="1">
         <v>35</v>
       </c>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -2710,8 +2715,8 @@
       <c r="A102" s="1">
         <v>36</v>
       </c>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
   <si>
     <t>Norma Ledo Parra</t>
   </si>
@@ -252,34 +252,31 @@
     <t>SEMANA 08</t>
   </si>
   <si>
-    <t>Del 21 de Febrero 2022 de Febrero al 27 de Febrero 2022</t>
-  </si>
-  <si>
     <t>Sanchez Mondragon</t>
   </si>
   <si>
-    <t>De la Luz Roque Wilber</t>
-  </si>
-  <si>
-    <t>Lunes 21</t>
-  </si>
-  <si>
-    <t>Martes 22</t>
-  </si>
-  <si>
-    <t>Miércoles 23</t>
-  </si>
-  <si>
-    <t>Jueves 24</t>
-  </si>
-  <si>
-    <t>Viernes 25</t>
-  </si>
-  <si>
-    <t>Sábado 26</t>
-  </si>
-  <si>
-    <t>Domingo 27</t>
+    <t>Lunes 14</t>
+  </si>
+  <si>
+    <t>Martes 15</t>
+  </si>
+  <si>
+    <t>Miércoles 16</t>
+  </si>
+  <si>
+    <t>Jueves 17</t>
+  </si>
+  <si>
+    <t>Viernes 18</t>
+  </si>
+  <si>
+    <t>Sábado 19</t>
+  </si>
+  <si>
+    <t>Domingo 20</t>
+  </si>
+  <si>
+    <t>Del 14 de Marzo 2022 de Febrero al 20 de Marzo 2022</t>
   </si>
 </sst>
 </file>
@@ -458,6 +455,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,12 +476,45 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,51 +522,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -548,119 +545,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>485775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Multiplicar 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2619375" y="27212925"/>
-          <a:ext cx="542925" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>485775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Multiplicar 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3362325" y="27212925"/>
-          <a:ext cx="542925" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -962,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:K78"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75:C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,44 +865,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -1029,8 +913,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1044,10 +928,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1264,10 +1148,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1278,44 +1162,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1326,8 +1210,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1341,10 +1225,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1412,10 +1296,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1434,7 +1318,7 @@
       <c r="B26" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="23"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1450,10 +1334,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1469,10 +1353,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="30"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1488,10 +1372,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="30"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1507,10 +1391,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1526,10 +1410,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1545,10 +1429,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="32"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1564,10 +1448,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="34"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1583,10 +1467,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="25"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1602,10 +1486,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="25"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1618,44 +1502,44 @@
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1666,8 +1550,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1681,10 +1565,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="19"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1752,10 +1636,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="27"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1771,10 +1655,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="27"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1790,10 +1674,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="23"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1809,10 +1693,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="23"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1828,10 +1712,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="23"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1847,10 +1731,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="27"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1937,44 +1821,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -1985,8 +1869,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2000,10 +1884,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="19"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2067,10 +1951,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="27"/>
+      <c r="C60" s="18"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2084,10 +1968,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="27"/>
+      <c r="C61" s="18"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2101,10 +1985,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="23"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2118,10 +2002,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="23"/>
+      <c r="C63" s="16"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2135,10 +2019,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="23"/>
+      <c r="C64" s="16"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2152,10 +2036,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="27"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2218,8 +2102,8 @@
     </row>
     <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -2230,44 +2114,44 @@
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
+      <c r="B72" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -2276,8 +2160,8 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -2289,30 +2173,30 @@
     </row>
     <row r="74" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="36"/>
+      <c r="C74" s="24"/>
       <c r="D74" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="G74" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="H74" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="I74" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="J74" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>71</v>
@@ -2321,10 +2205,10 @@
     </row>
     <row r="75" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" s="37"/>
+      <c r="B75" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="25"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -2336,10 +2220,8 @@
     </row>
     <row r="76" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C76" s="37"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -2352,8 +2234,8 @@
     </row>
     <row r="77" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="37"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -2366,8 +2248,8 @@
     </row>
     <row r="78" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="37"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -2379,8 +2261,8 @@
     </row>
     <row r="79" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="37"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -2392,8 +2274,8 @@
     </row>
     <row r="80" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -2405,8 +2287,8 @@
     </row>
     <row r="81" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="37"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -2418,8 +2300,8 @@
     </row>
     <row r="82" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="37"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -2431,8 +2313,8 @@
     </row>
     <row r="83" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="37"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -2469,44 +2351,44 @@
       <c r="K85" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="17" t="s">
+      <c r="B89" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
         <v>3</v>
@@ -2517,8 +2399,8 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2532,10 +2414,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="19" t="s">
+      <c r="B91" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="19"/>
+      <c r="C91" s="22"/>
       <c r="D91" s="12" t="s">
         <v>25</v>
       </c>
@@ -2595,8 +2477,8 @@
       <c r="A94" s="1">
         <v>28</v>
       </c>
-      <c r="B94" s="26"/>
-      <c r="C94" s="27"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="18"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2610,8 +2492,8 @@
       <c r="A95" s="1">
         <v>29</v>
       </c>
-      <c r="B95" s="26"/>
-      <c r="C95" s="27"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="18"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2625,8 +2507,8 @@
       <c r="A96" s="1">
         <v>30</v>
       </c>
-      <c r="B96" s="28"/>
-      <c r="C96" s="23"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="16"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2640,8 +2522,8 @@
       <c r="A97" s="1">
         <v>31</v>
       </c>
-      <c r="B97" s="28"/>
-      <c r="C97" s="23"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="16"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2655,8 +2537,8 @@
       <c r="A98" s="1">
         <v>32</v>
       </c>
-      <c r="B98" s="28"/>
-      <c r="C98" s="23"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="16"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2670,8 +2552,8 @@
       <c r="A99" s="1">
         <v>33</v>
       </c>
-      <c r="B99" s="26"/>
-      <c r="C99" s="27"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="18"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2728,17 +2610,72 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A70:K70"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
     <mergeCell ref="A87:K87"/>
     <mergeCell ref="A88:K88"/>
     <mergeCell ref="B89:F89"/>
@@ -2763,75 +2700,19 @@
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A70:K70"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.32" bottom="0.18" header="0.3" footer="0.26"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -249,12 +249,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>SEMANA 08</t>
-  </si>
-  <si>
-    <t>Sanchez Mondragon</t>
-  </si>
-  <si>
     <t>Lunes 14</t>
   </si>
   <si>
@@ -277,6 +271,12 @@
   </si>
   <si>
     <t>Del 14 de Marzo 2022 de Febrero al 20 de Marzo 2022</t>
+  </si>
+  <si>
+    <t>SEMANA 11</t>
+  </si>
+  <si>
+    <t>Martínez Paz Salvador</t>
   </si>
 </sst>
 </file>
@@ -352,7 +352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF909090"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,9 +410,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -449,80 +447,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -846,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:C75"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,44 +863,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -913,8 +911,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -928,10 +926,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -961,10 +959,10 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -978,10 +976,10 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -995,10 +993,10 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1012,10 +1010,10 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1029,10 +1027,10 @@
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1046,10 +1044,10 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1063,10 +1061,10 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1080,10 +1078,10 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1097,10 +1095,10 @@
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1114,10 +1112,10 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1131,10 +1129,10 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1148,10 +1146,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1162,44 +1160,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1210,8 +1208,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1225,10 +1223,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1258,10 +1256,10 @@
       <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="14"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1277,10 +1275,10 @@
       <c r="A24" s="1">
         <v>14</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1296,10 +1294,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1315,10 +1313,10 @@
       <c r="A26" s="1">
         <v>16</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="16"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1334,10 +1332,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="16"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1353,10 +1351,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="33"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1372,10 +1370,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1391,10 +1389,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="16"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1410,10 +1408,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="16"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1429,10 +1427,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1448,10 +1446,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="29"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1467,10 +1465,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="31"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1486,10 +1484,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="31"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1502,44 +1500,44 @@
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1550,8 +1548,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1565,10 +1563,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="22"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1598,10 +1596,10 @@
       <c r="A41" s="1">
         <v>26</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="14"/>
+      <c r="C41" s="13"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1617,10 +1615,10 @@
       <c r="A42" s="1">
         <v>27</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="14"/>
+      <c r="C42" s="13"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1636,10 +1634,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="18"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1655,10 +1653,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="18"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1674,10 +1672,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="16"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1693,10 +1691,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="16"/>
+      <c r="C46" s="21"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1712,10 +1710,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="16"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1731,10 +1729,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="18"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1750,10 +1748,10 @@
       <c r="A49" s="1">
         <v>34</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="14"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1769,10 +1767,10 @@
       <c r="A50" s="1">
         <v>35</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="14"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -1788,10 +1786,10 @@
       <c r="A51" s="1">
         <v>36</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="14"/>
+      <c r="C51" s="13"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -1807,10 +1805,10 @@
       <c r="A52" s="1">
         <v>37</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="14"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -1821,44 +1819,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -1869,8 +1867,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -1884,10 +1882,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="22"/>
+      <c r="C57" s="17"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -1917,10 +1915,10 @@
       <c r="A58" s="1">
         <v>26</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="14"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -1934,10 +1932,10 @@
       <c r="A59" s="1">
         <v>27</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="14"/>
+      <c r="C59" s="13"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -1951,10 +1949,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="18"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1968,10 +1966,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="18"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -1985,10 +1983,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="16"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2002,10 +2000,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="16"/>
+      <c r="C63" s="21"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2019,10 +2017,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="16"/>
+      <c r="C64" s="21"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2032,14 +2030,14 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="18"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2049,14 +2047,14 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>34</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="14"/>
+      <c r="C66" s="13"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -2066,14 +2064,14 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>35</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="14"/>
+      <c r="C67" s="13"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -2083,14 +2081,14 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>36</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="14"/>
+      <c r="C68" s="13"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -2100,10 +2098,10 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -2113,55 +2111,55 @@
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="34" t="s">
+    <row r="70" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
+      <c r="B72" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -2171,44 +2169,45 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="24" t="s">
+      <c r="B74" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="36"/>
+      <c r="D74" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="24"/>
-      <c r="D74" s="3" t="s">
+      <c r="E74" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="G74" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="H74" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="I74" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="J74" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L74" s="13"/>
-    </row>
-    <row r="75" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L74" s="35"/>
+      <c r="M74" s="10"/>
+    </row>
+    <row r="75" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" s="25"/>
+      <c r="B75" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="34"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -2217,11 +2216,12 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
-    </row>
-    <row r="76" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M75" s="10"/>
+    </row>
+    <row r="76" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -2230,12 +2230,13 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
-      <c r="L76" s="13"/>
-    </row>
-    <row r="77" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L76" s="35"/>
+      <c r="M76" s="10"/>
+    </row>
+    <row r="77" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -2244,12 +2245,13 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
-      <c r="L77" s="13"/>
-    </row>
-    <row r="78" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L77" s="35"/>
+      <c r="M77" s="10"/>
+    </row>
+    <row r="78" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -2259,10 +2261,10 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -2272,10 +2274,10 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -2287,8 +2289,8 @@
     </row>
     <row r="81" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -2300,8 +2302,8 @@
     </row>
     <row r="82" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -2313,8 +2315,8 @@
     </row>
     <row r="83" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="34"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -2326,8 +2328,8 @@
     </row>
     <row r="84" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -2339,8 +2341,8 @@
     </row>
     <row r="85" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -2351,44 +2353,44 @@
       <c r="K85" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
+      <c r="A88" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="21" t="s">
+      <c r="B89" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
         <v>3</v>
@@ -2399,8 +2401,8 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2414,10 +2416,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="22" t="s">
+      <c r="B91" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="22"/>
+      <c r="C91" s="17"/>
       <c r="D91" s="12" t="s">
         <v>25</v>
       </c>
@@ -2447,8 +2449,8 @@
       <c r="A92" s="1">
         <v>26</v>
       </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2462,8 +2464,8 @@
       <c r="A93" s="1">
         <v>27</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2477,8 +2479,8 @@
       <c r="A94" s="1">
         <v>28</v>
       </c>
-      <c r="B94" s="17"/>
-      <c r="C94" s="18"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="25"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2492,8 +2494,8 @@
       <c r="A95" s="1">
         <v>29</v>
       </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="18"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="25"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2507,8 +2509,8 @@
       <c r="A96" s="1">
         <v>30</v>
       </c>
-      <c r="B96" s="15"/>
-      <c r="C96" s="16"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="21"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2522,8 +2524,8 @@
       <c r="A97" s="1">
         <v>31</v>
       </c>
-      <c r="B97" s="15"/>
-      <c r="C97" s="16"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="21"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2537,8 +2539,8 @@
       <c r="A98" s="1">
         <v>32</v>
       </c>
-      <c r="B98" s="15"/>
-      <c r="C98" s="16"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="21"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2552,8 +2554,8 @@
       <c r="A99" s="1">
         <v>33</v>
       </c>
-      <c r="B99" s="17"/>
-      <c r="C99" s="18"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="25"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2567,8 +2569,8 @@
       <c r="A100" s="1">
         <v>34</v>
       </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -2582,8 +2584,8 @@
       <c r="A101" s="1">
         <v>35</v>
       </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -2597,8 +2599,8 @@
       <c r="A102" s="1">
         <v>36</v>
       </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -2610,6 +2612,83 @@
     </row>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="A87:K87"/>
+    <mergeCell ref="A88:K88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -2634,85 +2713,8 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A18:K18"/>
     <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="A87:K87"/>
-    <mergeCell ref="A88:K88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="A71:K71"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.32" bottom="0.18" header="0.3" footer="0.26"/>
+  <pageMargins left="0.47" right="0.25" top="0.32" bottom="0.18" header="0.3" footer="0.26"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\El Jaidroso\Documents\GitHub\Cortes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hydra999\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F59CE9-4586-4AD2-98DA-5EE317B767E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,19 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
   <si>
     <t>Norma Ledo Parra</t>
   </si>
@@ -249,44 +243,38 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Lunes 14</t>
-  </si>
-  <si>
-    <t>Martes 15</t>
-  </si>
-  <si>
-    <t>Miércoles 16</t>
-  </si>
-  <si>
-    <t>Jueves 17</t>
-  </si>
-  <si>
-    <t>Viernes 18</t>
-  </si>
-  <si>
-    <t>Sábado 19</t>
-  </si>
-  <si>
-    <t>Domingo 20</t>
-  </si>
-  <si>
-    <t>Del 14 de Marzo 2022 de Febrero al 20 de Marzo 2022</t>
-  </si>
-  <si>
-    <t>SEMANA 11</t>
-  </si>
-  <si>
-    <t>Martínez Paz Salvador</t>
+    <t>Vallejo Cruz Norma Josefina</t>
+  </si>
+  <si>
+    <t>Lunes 25</t>
+  </si>
+  <si>
+    <t>Martes 26</t>
+  </si>
+  <si>
+    <t>Miércoles 27</t>
+  </si>
+  <si>
+    <t>Jueves 28</t>
+  </si>
+  <si>
+    <t>Viernes 29</t>
+  </si>
+  <si>
+    <t>Del 25 de Abril 2022  al 01 de Mayo 2022</t>
+  </si>
+  <si>
+    <t>SEMANA 17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +313,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -419,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -447,9 +443,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,6 +473,42 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -471,56 +518,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,11 +840,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:K78"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,44 +862,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -911,8 +910,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -926,10 +925,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -959,10 +958,10 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -976,10 +975,10 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -993,10 +992,10 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1010,10 +1009,10 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1027,10 +1026,10 @@
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1044,10 +1043,10 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1061,10 +1060,10 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1078,10 +1077,10 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1095,10 +1094,10 @@
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1112,10 +1111,10 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1129,10 +1128,10 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1146,10 +1145,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1160,44 +1159,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1208,8 +1207,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1223,10 +1222,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1256,10 +1255,10 @@
       <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1275,10 +1274,10 @@
       <c r="A24" s="1">
         <v>14</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1294,10 +1293,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1313,10 +1312,10 @@
       <c r="A26" s="1">
         <v>16</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1332,10 +1331,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1351,10 +1350,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="28"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1370,10 +1369,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="28"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1389,10 +1388,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="21"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1408,10 +1407,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="21"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1427,10 +1426,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="30"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1446,10 +1445,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="32"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1465,10 +1464,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="23"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1484,10 +1483,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="23"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1500,44 +1499,44 @@
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1548,8 +1547,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1563,10 +1562,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="17"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1596,10 +1595,10 @@
       <c r="A41" s="1">
         <v>26</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="13"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1615,10 +1614,10 @@
       <c r="A42" s="1">
         <v>27</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="13"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1634,10 +1633,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="25"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1653,10 +1652,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="25"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1672,10 +1671,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="21"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1691,10 +1690,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="21"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1710,10 +1709,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="21"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1729,10 +1728,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="25"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1748,10 +1747,10 @@
       <c r="A49" s="1">
         <v>34</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="13"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1767,10 +1766,10 @@
       <c r="A50" s="1">
         <v>35</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="13"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -1786,10 +1785,10 @@
       <c r="A51" s="1">
         <v>36</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="13"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -1805,10 +1804,10 @@
       <c r="A52" s="1">
         <v>37</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="13"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -1819,44 +1818,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -1867,8 +1866,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -1882,10 +1881,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="17"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -1915,10 +1914,10 @@
       <c r="A58" s="1">
         <v>26</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="13"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -1932,10 +1931,10 @@
       <c r="A59" s="1">
         <v>27</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="13"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -1949,10 +1948,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="25"/>
+      <c r="C60" s="18"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1966,10 +1965,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="25"/>
+      <c r="C61" s="18"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -1983,10 +1982,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="21"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2000,10 +1999,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="21"/>
+      <c r="C63" s="16"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2017,10 +2016,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="21"/>
+      <c r="C64" s="16"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2034,10 +2033,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="25"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2051,10 +2050,10 @@
       <c r="A66" s="1">
         <v>34</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="13"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -2068,10 +2067,10 @@
       <c r="A67" s="1">
         <v>35</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="13"/>
+      <c r="C67" s="14"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -2085,10 +2084,10 @@
       <c r="A68" s="1">
         <v>36</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="13"/>
+      <c r="C68" s="14"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -2100,8 +2099,8 @@
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -2112,44 +2111,44 @@
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="37"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="37" t="s">
+      <c r="A71" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="37"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
+      <c r="B72" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -2158,8 +2157,8 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -2171,43 +2170,43 @@
     </row>
     <row r="74" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74" s="36"/>
+      <c r="B74" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="25"/>
       <c r="D74" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L74" s="35"/>
+      <c r="L74" s="13"/>
       <c r="M74" s="10"/>
     </row>
-    <row r="75" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75" s="34"/>
+      <c r="B75" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="38"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -2218,10 +2217,10 @@
       <c r="K75" s="1"/>
       <c r="M75" s="10"/>
     </row>
-    <row r="76" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -2230,13 +2229,13 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
-      <c r="L76" s="35"/>
+      <c r="L76" s="13"/>
       <c r="M76" s="10"/>
     </row>
-    <row r="77" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -2245,13 +2244,13 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
-      <c r="L77" s="35"/>
+      <c r="L77" s="13"/>
       <c r="M77" s="10"/>
     </row>
-    <row r="78" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -2263,8 +2262,8 @@
     </row>
     <row r="79" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -2276,8 +2275,8 @@
     </row>
     <row r="80" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -2289,8 +2288,8 @@
     </row>
     <row r="81" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -2302,8 +2301,8 @@
     </row>
     <row r="82" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -2315,8 +2314,8 @@
     </row>
     <row r="83" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="34"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -2328,8 +2327,8 @@
     </row>
     <row r="84" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -2341,8 +2340,8 @@
     </row>
     <row r="85" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -2353,44 +2352,44 @@
       <c r="K85" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
         <v>3</v>
@@ -2401,8 +2400,8 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2416,10 +2415,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="17" t="s">
+      <c r="B91" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="17"/>
+      <c r="C91" s="22"/>
       <c r="D91" s="12" t="s">
         <v>25</v>
       </c>
@@ -2449,8 +2448,8 @@
       <c r="A92" s="1">
         <v>26</v>
       </c>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2464,8 +2463,8 @@
       <c r="A93" s="1">
         <v>27</v>
       </c>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2479,8 +2478,8 @@
       <c r="A94" s="1">
         <v>28</v>
       </c>
-      <c r="B94" s="24"/>
-      <c r="C94" s="25"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="18"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2494,8 +2493,8 @@
       <c r="A95" s="1">
         <v>29</v>
       </c>
-      <c r="B95" s="24"/>
-      <c r="C95" s="25"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="18"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2509,8 +2508,8 @@
       <c r="A96" s="1">
         <v>30</v>
       </c>
-      <c r="B96" s="26"/>
-      <c r="C96" s="21"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="16"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2524,8 +2523,8 @@
       <c r="A97" s="1">
         <v>31</v>
       </c>
-      <c r="B97" s="26"/>
-      <c r="C97" s="21"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="16"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2539,8 +2538,8 @@
       <c r="A98" s="1">
         <v>32</v>
       </c>
-      <c r="B98" s="26"/>
-      <c r="C98" s="21"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="16"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2554,8 +2553,8 @@
       <c r="A99" s="1">
         <v>33</v>
       </c>
-      <c r="B99" s="24"/>
-      <c r="C99" s="25"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="18"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2569,8 +2568,8 @@
       <c r="A100" s="1">
         <v>34</v>
       </c>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -2584,8 +2583,8 @@
       <c r="A101" s="1">
         <v>35</v>
       </c>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -2599,8 +2598,8 @@
       <c r="A102" s="1">
         <v>36</v>
       </c>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -2612,17 +2611,72 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A70:K70"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
     <mergeCell ref="A87:K87"/>
     <mergeCell ref="A88:K88"/>
     <mergeCell ref="B89:F89"/>
@@ -2647,72 +2701,17 @@
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A70:K70"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
   </mergeCells>
   <pageMargins left="0.47" right="0.25" top="0.32" bottom="0.18" header="0.3" footer="0.26"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hydra999\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F59CE9-4586-4AD2-98DA-5EE317B767E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DA28EF-82B6-4D49-854F-929A5FCE5E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
   <si>
     <t>Norma Ledo Parra</t>
   </si>
@@ -243,9 +243,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Vallejo Cruz Norma Josefina</t>
-  </si>
-  <si>
     <t>Lunes 25</t>
   </si>
   <si>
@@ -265,6 +262,12 @@
   </si>
   <si>
     <t>SEMANA 17</t>
+  </si>
+  <si>
+    <t>Alberto Ismael Rivera Herrera</t>
+  </si>
+  <si>
+    <t>Jonathan Casquera Torres</t>
   </si>
 </sst>
 </file>
@@ -449,76 +452,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -843,15 +846,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:K77"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75:K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
@@ -862,44 +865,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -910,8 +913,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -925,10 +928,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1145,10 +1148,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1159,44 +1162,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1207,8 +1210,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1222,10 +1225,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1293,10 +1296,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1315,7 +1318,7 @@
       <c r="B26" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="16"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1331,10 +1334,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="16"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1350,10 +1353,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="34"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1369,10 +1372,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1388,10 +1391,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="16"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1407,10 +1410,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="16"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1426,10 +1429,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="28"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1445,10 +1448,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="30"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1464,10 +1467,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="32"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1483,10 +1486,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="32"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1499,44 +1502,44 @@
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1547,8 +1550,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1562,10 +1565,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="22"/>
+      <c r="C40" s="19"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1633,10 +1636,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="18"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1652,10 +1655,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="18"/>
+      <c r="C44" s="27"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1671,10 +1674,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="16"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1690,10 +1693,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="16"/>
+      <c r="C46" s="23"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1709,10 +1712,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="16"/>
+      <c r="C47" s="23"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1728,10 +1731,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="18"/>
+      <c r="C48" s="27"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1818,44 +1821,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -1866,8 +1869,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -1881,10 +1884,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="22"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -1948,10 +1951,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="18"/>
+      <c r="C60" s="27"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1965,10 +1968,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="18"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -1982,10 +1985,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="16"/>
+      <c r="C62" s="23"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -1999,10 +2002,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="16"/>
+      <c r="C63" s="23"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2016,10 +2019,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="16"/>
+      <c r="C64" s="23"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2033,10 +2036,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="18"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2099,8 +2102,8 @@
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -2111,44 +2114,44 @@
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
+      <c r="B72" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -2157,8 +2160,8 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -2170,24 +2173,24 @@
     </row>
     <row r="74" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74" s="25"/>
+      <c r="B74" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="36"/>
       <c r="D74" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="G74" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="H74" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>30</v>
@@ -2201,12 +2204,12 @@
       <c r="L74" s="13"/>
       <c r="M74" s="10"/>
     </row>
-    <row r="75" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="38"/>
+      <c r="B75" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="37"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -2217,10 +2220,12 @@
       <c r="K75" s="1"/>
       <c r="M75" s="10"/>
     </row>
-    <row r="76" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
+      <c r="B76" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="37"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -2234,8 +2239,8 @@
     </row>
     <row r="77" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -2249,8 +2254,8 @@
     </row>
     <row r="78" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -2262,8 +2267,8 @@
     </row>
     <row r="79" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -2275,8 +2280,8 @@
     </row>
     <row r="80" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -2288,8 +2293,8 @@
     </row>
     <row r="81" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -2301,8 +2306,8 @@
     </row>
     <row r="82" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -2314,8 +2319,8 @@
     </row>
     <row r="83" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="38"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -2352,44 +2357,44 @@
       <c r="K85" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
+      <c r="A88" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="21" t="s">
+      <c r="B89" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
         <v>3</v>
@@ -2400,8 +2405,8 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2415,10 +2420,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="22" t="s">
+      <c r="B91" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="22"/>
+      <c r="C91" s="19"/>
       <c r="D91" s="12" t="s">
         <v>25</v>
       </c>
@@ -2478,8 +2483,8 @@
       <c r="A94" s="1">
         <v>28</v>
       </c>
-      <c r="B94" s="17"/>
-      <c r="C94" s="18"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="27"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2493,8 +2498,8 @@
       <c r="A95" s="1">
         <v>29</v>
       </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="18"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="27"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2508,8 +2513,8 @@
       <c r="A96" s="1">
         <v>30</v>
       </c>
-      <c r="B96" s="15"/>
-      <c r="C96" s="16"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="23"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2523,8 +2528,8 @@
       <c r="A97" s="1">
         <v>31</v>
       </c>
-      <c r="B97" s="15"/>
-      <c r="C97" s="16"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="23"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2538,8 +2543,8 @@
       <c r="A98" s="1">
         <v>32</v>
       </c>
-      <c r="B98" s="15"/>
-      <c r="C98" s="16"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="23"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2553,8 +2558,8 @@
       <c r="A99" s="1">
         <v>33</v>
       </c>
-      <c r="B99" s="17"/>
-      <c r="C99" s="18"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="27"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2611,6 +2616,83 @@
     </row>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="A87:K87"/>
+    <mergeCell ref="A88:K88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -2635,85 +2717,8 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A18:K18"/>
     <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="A87:K87"/>
-    <mergeCell ref="A88:K88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="A71:K71"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
   </mergeCells>
-  <pageMargins left="0.47" right="0.25" top="0.32" bottom="0.18" header="0.3" footer="0.26"/>
+  <pageMargins left="0.47" right="0.25" top="4.1500000000000004" bottom="0.18" header="0.3" footer="0.26"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hydra999\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DA28EF-82B6-4D49-854F-929A5FCE5E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC88D0D-2951-464B-B7B8-E1071855FB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,13 +261,13 @@
     <t>Del 25 de Abril 2022  al 01 de Mayo 2022</t>
   </si>
   <si>
-    <t>SEMANA 17</t>
-  </si>
-  <si>
-    <t>Alberto Ismael Rivera Herrera</t>
-  </si>
-  <si>
     <t>Jonathan Casquera Torres</t>
+  </si>
+  <si>
+    <t>SEMANA 20</t>
+  </si>
+  <si>
+    <t>Gasparino Alvarado Sarahí</t>
   </si>
 </sst>
 </file>
@@ -452,6 +452,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -461,10 +473,46 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -474,54 +522,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:K76"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N77" sqref="N77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,44 +865,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -913,8 +913,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -928,10 +928,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1148,10 +1148,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1162,44 +1162,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1210,8 +1210,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1225,10 +1225,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1296,10 +1296,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1318,7 +1318,7 @@
       <c r="B26" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="23"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1334,10 +1334,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1353,10 +1353,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="30"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1372,10 +1372,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="30"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1391,10 +1391,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1410,10 +1410,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1429,10 +1429,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="32"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1448,10 +1448,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="34"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1467,10 +1467,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="25"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1486,10 +1486,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="25"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1502,44 +1502,44 @@
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1550,8 +1550,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1565,10 +1565,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="19"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1636,10 +1636,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="27"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1655,10 +1655,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="27"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1674,10 +1674,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="23"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1693,10 +1693,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="23"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1712,10 +1712,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="23"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1731,10 +1731,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="27"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1821,44 +1821,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -1869,8 +1869,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -1884,10 +1884,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="19"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -1951,10 +1951,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="27"/>
+      <c r="C60" s="18"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1968,10 +1968,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="27"/>
+      <c r="C61" s="18"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -1985,10 +1985,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="23"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2002,10 +2002,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="23"/>
+      <c r="C63" s="16"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2019,10 +2019,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="23"/>
+      <c r="C64" s="16"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2036,10 +2036,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="27"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2102,8 +2102,8 @@
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -2114,44 +2114,44 @@
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -2160,8 +2160,8 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -2173,10 +2173,10 @@
     </row>
     <row r="74" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C74" s="36"/>
+      <c r="B74" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="25"/>
       <c r="D74" s="3" t="s">
         <v>72</v>
       </c>
@@ -2206,10 +2206,10 @@
     </row>
     <row r="75" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" s="37"/>
+      <c r="B75" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="26"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -2222,10 +2222,10 @@
     </row>
     <row r="76" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C76" s="37"/>
+      <c r="B76" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="26"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -2239,8 +2239,8 @@
     </row>
     <row r="77" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="38"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -2254,8 +2254,8 @@
     </row>
     <row r="78" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="38"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -2267,8 +2267,8 @@
     </row>
     <row r="79" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="38"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -2280,8 +2280,8 @@
     </row>
     <row r="80" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -2293,8 +2293,8 @@
     </row>
     <row r="81" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="38"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -2306,8 +2306,8 @@
     </row>
     <row r="82" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="38"/>
-      <c r="C82" s="38"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -2319,8 +2319,8 @@
     </row>
     <row r="83" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="38"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -2357,44 +2357,44 @@
       <c r="K85" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="17" t="s">
+      <c r="B89" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
         <v>3</v>
@@ -2405,8 +2405,8 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2420,10 +2420,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="19" t="s">
+      <c r="B91" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="19"/>
+      <c r="C91" s="22"/>
       <c r="D91" s="12" t="s">
         <v>25</v>
       </c>
@@ -2483,8 +2483,8 @@
       <c r="A94" s="1">
         <v>28</v>
       </c>
-      <c r="B94" s="26"/>
-      <c r="C94" s="27"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="18"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2498,8 +2498,8 @@
       <c r="A95" s="1">
         <v>29</v>
       </c>
-      <c r="B95" s="26"/>
-      <c r="C95" s="27"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="18"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2513,8 +2513,8 @@
       <c r="A96" s="1">
         <v>30</v>
       </c>
-      <c r="B96" s="28"/>
-      <c r="C96" s="23"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="16"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2528,8 +2528,8 @@
       <c r="A97" s="1">
         <v>31</v>
       </c>
-      <c r="B97" s="28"/>
-      <c r="C97" s="23"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="16"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2543,8 +2543,8 @@
       <c r="A98" s="1">
         <v>32</v>
       </c>
-      <c r="B98" s="28"/>
-      <c r="C98" s="23"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="16"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2558,8 +2558,8 @@
       <c r="A99" s="1">
         <v>33</v>
       </c>
-      <c r="B99" s="26"/>
-      <c r="C99" s="27"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="18"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2616,17 +2616,72 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A70:K70"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
     <mergeCell ref="A87:K87"/>
     <mergeCell ref="A88:K88"/>
     <mergeCell ref="B89:F89"/>
@@ -2651,74 +2706,19 @@
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A70:K70"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
   </mergeCells>
-  <pageMargins left="0.47" right="0.25" top="4.1500000000000004" bottom="0.18" header="0.3" footer="0.26"/>
+  <pageMargins left="0.47" right="0.25" top="6.94" bottom="0.18" header="0.3" footer="0.26"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hydra999\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC88D0D-2951-464B-B7B8-E1071855FB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
   <si>
     <t>Norma Ledo Parra</t>
   </si>
@@ -243,41 +243,28 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Lunes 25</t>
-  </si>
-  <si>
-    <t>Martes 26</t>
-  </si>
-  <si>
-    <t>Miércoles 27</t>
-  </si>
-  <si>
-    <t>Jueves 28</t>
-  </si>
-  <si>
-    <t>Viernes 29</t>
-  </si>
-  <si>
-    <t>Del 25 de Abril 2022  al 01 de Mayo 2022</t>
-  </si>
-  <si>
-    <t>Jonathan Casquera Torres</t>
-  </si>
-  <si>
-    <t>SEMANA 20</t>
-  </si>
-  <si>
-    <t>Gasparino Alvarado Sarahí</t>
+    <t>SEMANA 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marín Beltrán Rubén Darío </t>
+  </si>
+  <si>
+    <t>Del</t>
+  </si>
+  <si>
+    <t>al</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="dddd\ mm"/>
+    <numFmt numFmtId="166" formatCode="dddd\ dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +316,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -356,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -414,11 +409,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -449,6 +481,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,6 +526,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -523,6 +564,26 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,11 +904,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N77" sqref="N77"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,48 +922,48 @@
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -913,8 +974,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -928,10 +989,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -961,10 +1022,10 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -978,10 +1039,10 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -995,10 +1056,10 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1012,10 +1073,10 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1029,10 +1090,10 @@
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1046,10 +1107,10 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1063,10 +1124,10 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1080,10 +1141,10 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1097,10 +1158,10 @@
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1114,10 +1175,10 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1131,10 +1192,10 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1148,10 +1209,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1162,44 +1223,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1210,8 +1271,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1225,10 +1286,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1258,10 +1319,10 @@
       <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="14"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1277,10 +1338,10 @@
       <c r="A24" s="1">
         <v>14</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1296,10 +1357,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="38"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1315,10 +1376,10 @@
       <c r="A26" s="1">
         <v>16</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="16"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1334,10 +1395,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="16"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1353,10 +1414,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="35"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1372,10 +1433,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="35"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1391,10 +1452,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="16"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1410,10 +1471,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="16"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1429,10 +1490,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="29"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1448,10 +1509,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="31"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1467,10 +1528,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="33"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1486,10 +1547,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="33"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1502,44 +1563,44 @@
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1550,8 +1611,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1565,10 +1626,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="22"/>
+      <c r="C40" s="24"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1598,10 +1659,10 @@
       <c r="A41" s="1">
         <v>26</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="14"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1617,10 +1678,10 @@
       <c r="A42" s="1">
         <v>27</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="14"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1636,10 +1697,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="18"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1655,10 +1716,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="18"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1674,10 +1735,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="16"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1693,10 +1754,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="16"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1712,10 +1773,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="16"/>
+      <c r="C47" s="18"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1731,10 +1792,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="18"/>
+      <c r="C48" s="20"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1750,10 +1811,10 @@
       <c r="A49" s="1">
         <v>34</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="14"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1769,10 +1830,10 @@
       <c r="A50" s="1">
         <v>35</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="14"/>
+      <c r="C50" s="16"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -1788,10 +1849,10 @@
       <c r="A51" s="1">
         <v>36</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="14"/>
+      <c r="C51" s="16"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -1807,10 +1868,10 @@
       <c r="A52" s="1">
         <v>37</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="14"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -1821,44 +1882,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -1869,8 +1930,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -1884,10 +1945,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="22"/>
+      <c r="C57" s="24"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -1917,10 +1978,10 @@
       <c r="A58" s="1">
         <v>26</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="14"/>
+      <c r="C58" s="16"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -1934,10 +1995,10 @@
       <c r="A59" s="1">
         <v>27</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="14"/>
+      <c r="C59" s="16"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -1951,10 +2012,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="18"/>
+      <c r="C60" s="20"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1968,10 +2029,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="18"/>
+      <c r="C61" s="20"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -1985,10 +2046,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="16"/>
+      <c r="C62" s="18"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2002,10 +2063,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="16"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2019,10 +2080,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="16"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2036,10 +2097,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="18"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2053,10 +2114,10 @@
       <c r="A66" s="1">
         <v>34</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="14"/>
+      <c r="C66" s="16"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -2070,10 +2131,10 @@
       <c r="A67" s="1">
         <v>35</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="14"/>
+      <c r="C67" s="16"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -2087,10 +2148,10 @@
       <c r="A68" s="1">
         <v>36</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="14"/>
+      <c r="C68" s="16"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -2102,8 +2163,8 @@
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -2114,45 +2175,51 @@
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="1"/>
+      <c r="B72" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="47">
+        <v>44753</v>
+      </c>
+      <c r="D72" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72" s="42">
+        <v>44759</v>
+      </c>
+      <c r="F72" s="42"/>
+      <c r="G72" s="43"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -2160,9 +2227,9 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="1"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="48"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -2173,30 +2240,30 @@
     </row>
     <row r="74" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="3" t="s">
+      <c r="B74" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>31</v>
+      <c r="C74" s="27"/>
+      <c r="D74" s="15">
+        <v>44753</v>
+      </c>
+      <c r="E74" s="15">
+        <v>44754</v>
+      </c>
+      <c r="F74" s="15">
+        <v>44755</v>
+      </c>
+      <c r="G74" s="15">
+        <v>44756</v>
+      </c>
+      <c r="H74" s="15">
+        <v>44757</v>
+      </c>
+      <c r="I74" s="15">
+        <v>44758</v>
+      </c>
+      <c r="J74" s="15">
+        <v>44759</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>71</v>
@@ -2206,11 +2273,11 @@
     </row>
     <row r="75" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C75" s="26"/>
-      <c r="D75" s="1"/>
+      <c r="B75" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="28"/>
+      <c r="D75" s="14"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -2222,10 +2289,8 @@
     </row>
     <row r="76" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C76" s="26"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -2239,8 +2304,8 @@
     </row>
     <row r="77" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -2254,8 +2319,8 @@
     </row>
     <row r="78" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -2267,8 +2332,8 @@
     </row>
     <row r="79" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -2280,8 +2345,8 @@
     </row>
     <row r="80" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -2293,8 +2358,8 @@
     </row>
     <row r="81" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -2306,8 +2371,8 @@
     </row>
     <row r="82" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -2319,8 +2384,8 @@
     </row>
     <row r="83" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -2332,8 +2397,8 @@
     </row>
     <row r="84" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -2345,8 +2410,8 @@
     </row>
     <row r="85" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -2357,44 +2422,44 @@
       <c r="K85" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
+      <c r="A88" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="21" t="s">
+      <c r="B89" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
         <v>3</v>
@@ -2405,8 +2470,8 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2420,10 +2485,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="22" t="s">
+      <c r="B91" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="22"/>
+      <c r="C91" s="24"/>
       <c r="D91" s="12" t="s">
         <v>25</v>
       </c>
@@ -2453,8 +2518,8 @@
       <c r="A92" s="1">
         <v>26</v>
       </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2468,8 +2533,8 @@
       <c r="A93" s="1">
         <v>27</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2483,8 +2548,8 @@
       <c r="A94" s="1">
         <v>28</v>
       </c>
-      <c r="B94" s="17"/>
-      <c r="C94" s="18"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="20"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2498,8 +2563,8 @@
       <c r="A95" s="1">
         <v>29</v>
       </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="18"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="20"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2513,8 +2578,8 @@
       <c r="A96" s="1">
         <v>30</v>
       </c>
-      <c r="B96" s="15"/>
-      <c r="C96" s="16"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="18"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2528,8 +2593,8 @@
       <c r="A97" s="1">
         <v>31</v>
       </c>
-      <c r="B97" s="15"/>
-      <c r="C97" s="16"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="18"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2543,8 +2608,8 @@
       <c r="A98" s="1">
         <v>32</v>
       </c>
-      <c r="B98" s="15"/>
-      <c r="C98" s="16"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="18"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2558,8 +2623,8 @@
       <c r="A99" s="1">
         <v>33</v>
       </c>
-      <c r="B99" s="17"/>
-      <c r="C99" s="18"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="20"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2573,8 +2638,8 @@
       <c r="A100" s="1">
         <v>34</v>
       </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -2588,8 +2653,8 @@
       <c r="A101" s="1">
         <v>35</v>
       </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -2603,8 +2668,8 @@
       <c r="A102" s="1">
         <v>36</v>
       </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -2616,6 +2681,7 @@
     </row>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="E72:G72"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -2693,7 +2759,6 @@
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="A71:K71"/>
-    <mergeCell ref="B72:F72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B75:C75"/>
@@ -2718,7 +2783,19 @@
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="B96:C96"/>
   </mergeCells>
-  <pageMargins left="0.47" right="0.25" top="6.94" bottom="0.18" header="0.3" footer="0.26"/>
+  <pageMargins left="0.47" right="0.25" top="0.3" bottom="0.18" header="0.3" footer="0.26"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -246,13 +246,13 @@
     <t>SEMANA 28</t>
   </si>
   <si>
-    <t xml:space="preserve">Marín Beltrán Rubén Darío </t>
-  </si>
-  <si>
     <t>Del</t>
   </si>
   <si>
     <t>al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juárez García Arturo </t>
   </si>
 </sst>
 </file>
@@ -487,96 +487,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -584,6 +494,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,7 +908,7 @@
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:K77"/>
+      <selection activeCell="B75" sqref="B75:K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,44 +926,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -974,8 +974,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -989,10 +989,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1022,10 +1022,10 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1039,10 +1039,10 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1056,10 +1056,10 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1073,10 +1073,10 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1090,10 +1090,10 @@
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1107,10 +1107,10 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1124,10 +1124,10 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1141,10 +1141,10 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1158,10 +1158,10 @@
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1175,10 +1175,10 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1192,10 +1192,10 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1209,10 +1209,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1223,44 +1223,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1271,8 +1271,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1286,10 +1286,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="24"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1319,10 +1319,10 @@
       <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="16"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1338,10 +1338,10 @@
       <c r="A24" s="1">
         <v>14</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="16"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1357,10 +1357,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1376,10 +1376,10 @@
       <c r="A26" s="1">
         <v>16</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="18"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1395,10 +1395,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="18"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1452,10 +1452,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="18"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1471,10 +1471,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="18"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1490,10 +1490,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="32"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1509,10 +1509,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="34"/>
+      <c r="C33" s="42"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1528,10 +1528,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="36"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1547,10 +1547,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="36"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1563,44 +1563,44 @@
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1611,8 +1611,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1626,10 +1626,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="24"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1659,10 +1659,10 @@
       <c r="A41" s="1">
         <v>26</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="16"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1678,10 +1678,10 @@
       <c r="A42" s="1">
         <v>27</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="16"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1697,10 +1697,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="20"/>
+      <c r="C43" s="35"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1716,10 +1716,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="20"/>
+      <c r="C44" s="35"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1735,10 +1735,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="18"/>
+      <c r="C45" s="31"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1754,10 +1754,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="18"/>
+      <c r="C46" s="31"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1773,10 +1773,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="18"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1792,10 +1792,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="20"/>
+      <c r="C48" s="35"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1811,10 +1811,10 @@
       <c r="A49" s="1">
         <v>34</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="16"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1830,10 +1830,10 @@
       <c r="A50" s="1">
         <v>35</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="16"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -1849,10 +1849,10 @@
       <c r="A51" s="1">
         <v>36</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="16"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -1868,10 +1868,10 @@
       <c r="A52" s="1">
         <v>37</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="16"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -1882,44 +1882,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -1930,8 +1930,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -1945,10 +1945,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="24"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -1978,10 +1978,10 @@
       <c r="A58" s="1">
         <v>26</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="16"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -1995,10 +1995,10 @@
       <c r="A59" s="1">
         <v>27</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="16"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2012,10 +2012,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="20"/>
+      <c r="C60" s="35"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2029,10 +2029,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="20"/>
+      <c r="C61" s="35"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2046,10 +2046,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="18"/>
+      <c r="C62" s="31"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2063,10 +2063,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="18"/>
+      <c r="C63" s="31"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2080,10 +2080,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="18"/>
+      <c r="C64" s="31"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2097,10 +2097,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="20"/>
+      <c r="C65" s="35"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2114,10 +2114,10 @@
       <c r="A66" s="1">
         <v>34</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="16"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -2131,10 +2131,10 @@
       <c r="A67" s="1">
         <v>35</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="16"/>
+      <c r="C67" s="22"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -2148,10 +2148,10 @@
       <c r="A68" s="1">
         <v>36</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="16"/>
+      <c r="C68" s="22"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -2163,8 +2163,8 @@
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -2206,20 +2206,20 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="46" t="s">
+      <c r="B72" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="17">
+        <v>44753</v>
+      </c>
+      <c r="D72" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="47">
-        <v>44753</v>
-      </c>
-      <c r="D72" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="E72" s="42">
+      <c r="E72" s="20">
         <v>44759</v>
       </c>
-      <c r="F72" s="42"/>
-      <c r="G72" s="43"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="21"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -2228,8 +2228,8 @@
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="45"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="48"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="18"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -2240,10 +2240,10 @@
     </row>
     <row r="74" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="27" t="s">
+      <c r="B74" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="27"/>
+      <c r="C74" s="46"/>
       <c r="D74" s="15">
         <v>44753</v>
       </c>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="75" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" s="28"/>
+      <c r="B75" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" s="47"/>
       <c r="D75" s="14"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -2289,8 +2289,8 @@
     </row>
     <row r="76" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="48"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -2304,8 +2304,8 @@
     </row>
     <row r="77" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="49"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -2319,8 +2319,8 @@
     </row>
     <row r="78" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="49"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -2332,8 +2332,8 @@
     </row>
     <row r="79" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="49"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -2345,8 +2345,8 @@
     </row>
     <row r="80" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="30"/>
-      <c r="C80" s="30"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="49"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -2358,8 +2358,8 @@
     </row>
     <row r="81" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="30"/>
-      <c r="C81" s="30"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="49"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -2371,8 +2371,8 @@
     </row>
     <row r="82" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="49"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -2384,8 +2384,8 @@
     </row>
     <row r="83" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="49"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -2397,8 +2397,8 @@
     </row>
     <row r="84" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -2410,8 +2410,8 @@
     </row>
     <row r="85" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -2422,44 +2422,44 @@
       <c r="K85" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="21" t="s">
+      <c r="A87" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="23"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="22"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="22"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="23" t="s">
+      <c r="B89" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
         <v>3</v>
@@ -2470,8 +2470,8 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2485,10 +2485,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="24" t="s">
+      <c r="B91" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="24"/>
+      <c r="C91" s="27"/>
       <c r="D91" s="12" t="s">
         <v>25</v>
       </c>
@@ -2518,8 +2518,8 @@
       <c r="A92" s="1">
         <v>26</v>
       </c>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2533,8 +2533,8 @@
       <c r="A93" s="1">
         <v>27</v>
       </c>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2548,8 +2548,8 @@
       <c r="A94" s="1">
         <v>28</v>
       </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="20"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="35"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2563,8 +2563,8 @@
       <c r="A95" s="1">
         <v>29</v>
       </c>
-      <c r="B95" s="19"/>
-      <c r="C95" s="20"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="35"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2578,8 +2578,8 @@
       <c r="A96" s="1">
         <v>30</v>
       </c>
-      <c r="B96" s="17"/>
-      <c r="C96" s="18"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="31"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2593,8 +2593,8 @@
       <c r="A97" s="1">
         <v>31</v>
       </c>
-      <c r="B97" s="17"/>
-      <c r="C97" s="18"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="31"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2608,8 +2608,8 @@
       <c r="A98" s="1">
         <v>32</v>
       </c>
-      <c r="B98" s="17"/>
-      <c r="C98" s="18"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="31"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2623,8 +2623,8 @@
       <c r="A99" s="1">
         <v>33</v>
       </c>
-      <c r="B99" s="19"/>
-      <c r="C99" s="20"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="35"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2638,8 +2638,8 @@
       <c r="A100" s="1">
         <v>34</v>
       </c>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -2653,8 +2653,8 @@
       <c r="A101" s="1">
         <v>35</v>
       </c>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -2668,8 +2668,8 @@
       <c r="A102" s="1">
         <v>36</v>
       </c>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -2681,6 +2681,83 @@
     </row>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="A87:K87"/>
+    <mergeCell ref="A88:K88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="E72:G72"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="A1:K1"/>
@@ -2705,85 +2782,8 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="A87:K87"/>
-    <mergeCell ref="A88:K88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="A71:K71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
   </mergeCells>
-  <pageMargins left="0.47" right="0.25" top="0.3" bottom="0.18" header="0.3" footer="0.26"/>
+  <pageMargins left="0.47" right="0.25" top="7.15" bottom="0.18" header="0.3" footer="0.26"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -252,7 +252,7 @@
     <t>al</t>
   </si>
   <si>
-    <t xml:space="preserve">Juárez García Arturo </t>
+    <t xml:space="preserve">Castillo Pérez Gerardo </t>
   </si>
 </sst>
 </file>
@@ -495,30 +495,87 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,63 +583,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:K75"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,44 +926,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -974,8 +974,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -989,10 +989,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1022,10 +1022,10 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1039,10 +1039,10 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1056,10 +1056,10 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1073,10 +1073,10 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1090,10 +1090,10 @@
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1107,10 +1107,10 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1124,10 +1124,10 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1141,10 +1141,10 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1158,10 +1158,10 @@
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1175,10 +1175,10 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1192,10 +1192,10 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1209,10 +1209,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="29"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1223,44 +1223,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1271,8 +1271,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1286,10 +1286,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1319,10 +1319,10 @@
       <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1338,10 +1338,10 @@
       <c r="A24" s="1">
         <v>14</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="22"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1357,10 +1357,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="30"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1376,10 +1376,10 @@
       <c r="A26" s="1">
         <v>16</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="31"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1395,10 +1395,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="31"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1452,10 +1452,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="31"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1471,10 +1471,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="31"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1528,10 +1528,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="33"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1547,10 +1547,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="33"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1563,44 +1563,44 @@
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1611,8 +1611,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1626,10 +1626,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="27"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1659,10 +1659,10 @@
       <c r="A41" s="1">
         <v>26</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="22"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1678,10 +1678,10 @@
       <c r="A42" s="1">
         <v>27</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="22"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1697,10 +1697,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="35"/>
+      <c r="C43" s="24"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1716,10 +1716,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="35"/>
+      <c r="C44" s="24"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1735,10 +1735,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="31"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1754,10 +1754,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="31"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1773,10 +1773,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="31"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1792,10 +1792,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="35"/>
+      <c r="C48" s="24"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1811,10 +1811,10 @@
       <c r="A49" s="1">
         <v>34</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="22"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1830,10 +1830,10 @@
       <c r="A50" s="1">
         <v>35</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="22"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -1849,10 +1849,10 @@
       <c r="A51" s="1">
         <v>36</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="22"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -1868,10 +1868,10 @@
       <c r="A52" s="1">
         <v>37</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="22"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -1882,44 +1882,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -1930,8 +1930,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -1945,10 +1945,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="27"/>
+      <c r="C57" s="28"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -1978,10 +1978,10 @@
       <c r="A58" s="1">
         <v>26</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="22"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -1995,10 +1995,10 @@
       <c r="A59" s="1">
         <v>27</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="22"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2012,10 +2012,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="35"/>
+      <c r="C60" s="24"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2029,10 +2029,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="35"/>
+      <c r="C61" s="24"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2046,10 +2046,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="31"/>
+      <c r="C62" s="22"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2063,10 +2063,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="31"/>
+      <c r="C63" s="22"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2080,10 +2080,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="31"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2097,10 +2097,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="35"/>
+      <c r="C65" s="24"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2114,10 +2114,10 @@
       <c r="A66" s="1">
         <v>34</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="22"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -2131,10 +2131,10 @@
       <c r="A67" s="1">
         <v>35</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="22"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -2148,10 +2148,10 @@
       <c r="A68" s="1">
         <v>36</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="22"/>
+      <c r="C68" s="20"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -2163,8 +2163,8 @@
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -2175,34 +2175,34 @@
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="44"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="26"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
@@ -2215,11 +2215,11 @@
       <c r="D72" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E72" s="20">
+      <c r="E72" s="45">
         <v>44759</v>
       </c>
-      <c r="F72" s="20"/>
-      <c r="G72" s="21"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="46"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -2227,8 +2227,8 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="24"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="26"/>
       <c r="D73" s="18"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -2240,10 +2240,10 @@
     </row>
     <row r="74" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="46" t="s">
+      <c r="B74" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="46"/>
+      <c r="C74" s="33"/>
       <c r="D74" s="15">
         <v>44753</v>
       </c>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="75" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="47" t="s">
+      <c r="B75" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="47"/>
+      <c r="C75" s="34"/>
       <c r="D75" s="14"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -2289,8 +2289,8 @@
     </row>
     <row r="76" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="48"/>
-      <c r="C76" s="48"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -2304,8 +2304,8 @@
     </row>
     <row r="77" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="49"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -2319,8 +2319,8 @@
     </row>
     <row r="78" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="49"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -2332,8 +2332,8 @@
     </row>
     <row r="79" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -2345,8 +2345,8 @@
     </row>
     <row r="80" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="49"/>
-      <c r="C80" s="49"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -2358,8 +2358,8 @@
     </row>
     <row r="81" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="49"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -2371,8 +2371,8 @@
     </row>
     <row r="82" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -2384,8 +2384,8 @@
     </row>
     <row r="83" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="49"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -2397,8 +2397,8 @@
     </row>
     <row r="84" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -2410,8 +2410,8 @@
     </row>
     <row r="85" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -2422,44 +2422,44 @@
       <c r="K85" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="23"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="24" t="s">
+      <c r="A88" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="24"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="26"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
         <v>3</v>
@@ -2470,8 +2470,8 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="24"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2485,10 +2485,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="27" t="s">
+      <c r="B91" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="27"/>
+      <c r="C91" s="28"/>
       <c r="D91" s="12" t="s">
         <v>25</v>
       </c>
@@ -2518,8 +2518,8 @@
       <c r="A92" s="1">
         <v>26</v>
       </c>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2533,8 +2533,8 @@
       <c r="A93" s="1">
         <v>27</v>
       </c>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2548,8 +2548,8 @@
       <c r="A94" s="1">
         <v>28</v>
       </c>
-      <c r="B94" s="34"/>
-      <c r="C94" s="35"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="24"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2563,8 +2563,8 @@
       <c r="A95" s="1">
         <v>29</v>
       </c>
-      <c r="B95" s="34"/>
-      <c r="C95" s="35"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="24"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2578,8 +2578,8 @@
       <c r="A96" s="1">
         <v>30</v>
       </c>
-      <c r="B96" s="36"/>
-      <c r="C96" s="31"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="22"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2593,8 +2593,8 @@
       <c r="A97" s="1">
         <v>31</v>
       </c>
-      <c r="B97" s="36"/>
-      <c r="C97" s="31"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="22"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2608,8 +2608,8 @@
       <c r="A98" s="1">
         <v>32</v>
       </c>
-      <c r="B98" s="36"/>
-      <c r="C98" s="31"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="22"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2623,8 +2623,8 @@
       <c r="A99" s="1">
         <v>33</v>
       </c>
-      <c r="B99" s="34"/>
-      <c r="C99" s="35"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="24"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2638,8 +2638,8 @@
       <c r="A100" s="1">
         <v>34</v>
       </c>
-      <c r="B100" s="22"/>
-      <c r="C100" s="22"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -2653,8 +2653,8 @@
       <c r="A101" s="1">
         <v>35</v>
       </c>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -2668,8 +2668,8 @@
       <c r="A102" s="1">
         <v>36</v>
       </c>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -2681,59 +2681,29 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="A87:K87"/>
-    <mergeCell ref="A88:K88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="A71:K71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A70:K70"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:K18"/>
     <mergeCell ref="A19:K19"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:C21"/>
@@ -2758,32 +2728,62 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="A36:K36"/>
     <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A87:K87"/>
+    <mergeCell ref="A88:K88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
     <mergeCell ref="E72:G72"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A70:K70"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
   </mergeCells>
-  <pageMargins left="0.47" right="0.25" top="7.15" bottom="0.18" header="0.3" footer="0.26"/>
+  <pageMargins left="0.47" right="0.25" top="2.6" bottom="0.18" header="0.27" footer="0.26"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="77">
   <si>
     <t>Norma Ledo Parra</t>
   </si>
@@ -252,7 +252,10 @@
     <t>al</t>
   </si>
   <si>
-    <t xml:space="preserve">Castillo Pérez Gerardo </t>
+    <t>Corona Potrero Isaac</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -264,7 +267,7 @@
     <numFmt numFmtId="165" formatCode="dddd\ mm"/>
     <numFmt numFmtId="166" formatCode="dddd\ dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +327,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -351,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -446,19 +456,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -481,12 +559,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -498,93 +570,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -907,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:K80"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75:K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,44 +1023,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -974,8 +1071,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -989,10 +1086,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1022,10 +1119,10 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1039,10 +1136,10 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1056,10 +1153,10 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1073,10 +1170,10 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1090,10 +1187,10 @@
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1107,10 +1204,10 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1124,10 +1221,10 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1141,10 +1238,10 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1158,10 +1255,10 @@
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1175,10 +1272,10 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1192,10 +1289,10 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1209,10 +1306,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="48"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1223,44 +1320,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1271,8 +1368,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1286,10 +1383,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1319,10 +1416,10 @@
       <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1331,17 +1428,17 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>14</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="20"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1350,17 +1447,17 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1369,17 +1466,17 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>16</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="22"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1388,17 +1485,17 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="22"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1407,17 +1504,17 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="38"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1426,17 +1523,17 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="38"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1445,17 +1542,17 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="22"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1464,17 +1561,17 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="22"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1483,17 +1580,17 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="40"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1502,17 +1599,17 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
     </row>
     <row r="33" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="42"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1521,17 +1618,17 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="44"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1540,17 +1637,17 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="44"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1559,48 +1656,48 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1611,8 +1708,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1626,10 +1723,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="28"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1659,10 +1756,10 @@
       <c r="A41" s="1">
         <v>26</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="20"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1671,17 +1768,17 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>27</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="20"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1690,17 +1787,17 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
     </row>
     <row r="43" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="24"/>
+      <c r="C43" s="30"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1709,17 +1806,17 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="24"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1728,17 +1825,17 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
     </row>
     <row r="45" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="22"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1747,17 +1844,17 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="22"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1766,17 +1863,17 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="22"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1785,17 +1882,17 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
     </row>
     <row r="48" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="24"/>
+      <c r="C48" s="30"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1804,17 +1901,17 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
     </row>
     <row r="49" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>34</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="20"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1823,17 +1920,17 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
     </row>
     <row r="50" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>35</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="20"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -1842,17 +1939,17 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
     </row>
     <row r="51" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>36</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="20"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -1861,17 +1958,17 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
     </row>
     <row r="52" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>37</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="20"/>
+      <c r="C52" s="17"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -1882,44 +1979,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -1930,8 +2027,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -1945,10 +2042,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="28"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -1978,10 +2075,10 @@
       <c r="A58" s="1">
         <v>26</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="20"/>
+      <c r="C58" s="17"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -1995,10 +2092,10 @@
       <c r="A59" s="1">
         <v>27</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="20"/>
+      <c r="C59" s="17"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2012,10 +2109,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="24"/>
+      <c r="C60" s="30"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2029,10 +2126,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="24"/>
+      <c r="C61" s="30"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2046,10 +2143,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="22"/>
+      <c r="C62" s="26"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2063,10 +2160,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="22"/>
+      <c r="C63" s="26"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2080,10 +2177,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="22"/>
+      <c r="C64" s="26"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2097,10 +2194,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="24"/>
+      <c r="C65" s="30"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2114,10 +2211,10 @@
       <c r="A66" s="1">
         <v>34</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="20"/>
+      <c r="C66" s="17"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -2131,10 +2228,10 @@
       <c r="A67" s="1">
         <v>35</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="20"/>
+      <c r="C67" s="17"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -2148,10 +2245,10 @@
       <c r="A68" s="1">
         <v>36</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="20"/>
+      <c r="C68" s="17"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -2162,64 +2259,64 @@
       <c r="K68" s="1"/>
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
+      <c r="A69" s="9"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
     </row>
     <row r="70" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="30"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="31"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="30"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="17">
+      <c r="C72" s="14">
         <v>44753</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D72" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E72" s="45">
+      <c r="E72" s="42">
         <v>44759</v>
       </c>
-      <c r="F72" s="45"/>
-      <c r="G72" s="46"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="43"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -2227,9 +2324,9 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="18"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="15"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -2238,89 +2335,95 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="33" t="s">
+    <row r="74" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="47"/>
+      <c r="B74" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="15">
+      <c r="C74" s="46"/>
+      <c r="D74" s="44">
         <v>44753</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="44">
         <v>44754</v>
       </c>
-      <c r="F74" s="15">
+      <c r="F74" s="44">
         <v>44755</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G74" s="44">
         <v>44756</v>
       </c>
-      <c r="H74" s="15">
+      <c r="H74" s="44">
         <v>44757</v>
       </c>
-      <c r="I74" s="15">
+      <c r="I74" s="44">
         <v>44758</v>
       </c>
-      <c r="J74" s="15">
+      <c r="J74" s="44">
         <v>44759</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="K74" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="L74" s="13"/>
-      <c r="M74" s="10"/>
-    </row>
-    <row r="75" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="34" t="s">
+      <c r="L74" s="12"/>
+      <c r="M74" s="9"/>
+    </row>
+    <row r="75" spans="1:13" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="50"/>
+      <c r="B75" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="34"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="M75" s="10"/>
-    </row>
-    <row r="76" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="10"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="F75" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="G75" s="52"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="52"/>
+      <c r="K75" s="50"/>
+      <c r="M75" s="9"/>
+    </row>
+    <row r="76" spans="1:13" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="50"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="57"/>
+      <c r="L76" s="53"/>
+      <c r="M76" s="9"/>
     </row>
     <row r="77" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="10"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="9"/>
     </row>
     <row r="78" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -2332,8 +2435,8 @@
     </row>
     <row r="79" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="36"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="41"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -2345,8 +2448,8 @@
     </row>
     <row r="80" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -2358,8 +2461,8 @@
     </row>
     <row r="81" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="41"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -2371,8 +2474,8 @@
     </row>
     <row r="82" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -2384,8 +2487,8 @@
     </row>
     <row r="83" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="36"/>
-      <c r="C83" s="36"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -2397,8 +2500,8 @@
     </row>
     <row r="84" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -2410,8 +2513,8 @@
     </row>
     <row r="85" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="20"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -2422,44 +2525,44 @@
       <c r="K85" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="25"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="26"/>
-      <c r="K88" s="26"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
         <v>3</v>
@@ -2470,8 +2573,8 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2485,32 +2588,32 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="28" t="s">
+      <c r="B91" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="28"/>
-      <c r="D91" s="12" t="s">
+      <c r="C91" s="22"/>
+      <c r="D91" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E91" s="12" t="s">
+      <c r="E91" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F91" s="12" t="s">
+      <c r="F91" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G91" s="12" t="s">
+      <c r="G91" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H91" s="12" t="s">
+      <c r="H91" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I91" s="12" t="s">
+      <c r="I91" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J91" s="12" t="s">
+      <c r="J91" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K91" s="11" t="s">
+      <c r="K91" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2518,8 +2621,8 @@
       <c r="A92" s="1">
         <v>26</v>
       </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2533,8 +2636,8 @@
       <c r="A93" s="1">
         <v>27</v>
       </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2548,8 +2651,8 @@
       <c r="A94" s="1">
         <v>28</v>
       </c>
-      <c r="B94" s="23"/>
-      <c r="C94" s="24"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="30"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2563,8 +2666,8 @@
       <c r="A95" s="1">
         <v>29</v>
       </c>
-      <c r="B95" s="23"/>
-      <c r="C95" s="24"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="30"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2578,8 +2681,8 @@
       <c r="A96" s="1">
         <v>30</v>
       </c>
-      <c r="B96" s="21"/>
-      <c r="C96" s="22"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="26"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2593,8 +2696,8 @@
       <c r="A97" s="1">
         <v>31</v>
       </c>
-      <c r="B97" s="21"/>
-      <c r="C97" s="22"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="26"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2608,8 +2711,8 @@
       <c r="A98" s="1">
         <v>32</v>
       </c>
-      <c r="B98" s="21"/>
-      <c r="C98" s="22"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="26"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2623,8 +2726,8 @@
       <c r="A99" s="1">
         <v>33</v>
       </c>
-      <c r="B99" s="23"/>
-      <c r="C99" s="24"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="30"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2638,8 +2741,8 @@
       <c r="A100" s="1">
         <v>34</v>
       </c>
-      <c r="B100" s="20"/>
-      <c r="C100" s="20"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -2653,8 +2756,8 @@
       <c r="A101" s="1">
         <v>35</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -2668,8 +2771,8 @@
       <c r="A102" s="1">
         <v>36</v>
       </c>
-      <c r="B102" s="20"/>
-      <c r="C102" s="20"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -2681,6 +2784,83 @@
     </row>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="A87:K87"/>
+    <mergeCell ref="A88:K88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -2705,85 +2885,8 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A18:K18"/>
     <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="A87:K87"/>
-    <mergeCell ref="A88:K88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="A71:K71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
   </mergeCells>
-  <pageMargins left="0.47" right="0.25" top="2.6" bottom="0.18" header="0.27" footer="0.26"/>
+  <pageMargins left="0.47" right="0.25" top="6.9" bottom="0.18" header="0.27" footer="0.26"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
   <si>
     <t>Norma Ledo Parra</t>
   </si>
@@ -243,16 +243,13 @@
     <t>Total</t>
   </si>
   <si>
-    <t>SEMANA 28</t>
-  </si>
-  <si>
-    <t>Del</t>
-  </si>
-  <si>
     <t>al</t>
   </si>
   <si>
-    <t>Corona Potrero Isaac</t>
+    <t>SEMANA 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casquera Torres Jonatan </t>
   </si>
   <si>
     <t>x</t>
@@ -267,7 +264,7 @@
     <numFmt numFmtId="165" formatCode="dddd\ mm"/>
     <numFmt numFmtId="166" formatCode="dddd\ dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,14 +303,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -531,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -559,129 +548,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1004,15 +989,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:K76"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75:C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
@@ -1023,44 +1008,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -1071,8 +1056,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1086,10 +1071,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1119,10 +1104,10 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1136,10 +1121,10 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1153,10 +1138,10 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1170,10 +1155,10 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1187,10 +1172,10 @@
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1204,10 +1189,10 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1221,10 +1206,10 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1238,10 +1223,10 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1255,10 +1240,10 @@
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1272,10 +1257,10 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1289,10 +1274,10 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1306,10 +1291,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1320,44 +1305,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1368,8 +1353,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1383,10 +1368,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1416,10 +1401,10 @@
       <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1435,10 +1420,10 @@
       <c r="A24" s="1">
         <v>14</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1454,10 +1439,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1473,10 +1458,10 @@
       <c r="A26" s="1">
         <v>16</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="26"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1492,10 +1477,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="26"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1511,10 +1496,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="33"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1530,10 +1515,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1549,10 +1534,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="26"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1568,10 +1553,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="26"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1587,10 +1572,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="35"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1606,10 +1591,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="37"/>
+      <c r="C33" s="48"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1625,10 +1610,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="28"/>
+      <c r="C34" s="50"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1644,10 +1629,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="28"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1660,44 +1645,44 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1708,8 +1693,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1723,10 +1708,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="22"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1756,10 +1741,10 @@
       <c r="A41" s="1">
         <v>26</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="17"/>
+      <c r="C41" s="23"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1775,10 +1760,10 @@
       <c r="A42" s="1">
         <v>27</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="23"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1794,10 +1779,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="30"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1813,10 +1798,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="30"/>
+      <c r="C44" s="27"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1832,10 +1817,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="26"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1851,10 +1836,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="26"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1870,10 +1855,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="26"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1889,10 +1874,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="30"/>
+      <c r="C48" s="27"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1908,10 +1893,10 @@
       <c r="A49" s="1">
         <v>34</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="17"/>
+      <c r="C49" s="23"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1927,10 +1912,10 @@
       <c r="A50" s="1">
         <v>35</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="17"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -1946,10 +1931,10 @@
       <c r="A51" s="1">
         <v>36</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="17"/>
+      <c r="C51" s="23"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -1965,10 +1950,10 @@
       <c r="A52" s="1">
         <v>37</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="17"/>
+      <c r="C52" s="23"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -1979,44 +1964,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -2027,8 +2012,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2042,10 +2027,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="22"/>
+      <c r="C57" s="31"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2075,10 +2060,10 @@
       <c r="A58" s="1">
         <v>26</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="17"/>
+      <c r="C58" s="23"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2092,10 +2077,10 @@
       <c r="A59" s="1">
         <v>27</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="17"/>
+      <c r="C59" s="23"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2109,10 +2094,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="30"/>
+      <c r="C60" s="27"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2126,10 +2111,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="30"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2143,10 +2128,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="26"/>
+      <c r="C62" s="25"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2160,10 +2145,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="26"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2177,10 +2162,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="26"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2194,10 +2179,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="30"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2211,10 +2196,10 @@
       <c r="A66" s="1">
         <v>34</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="17"/>
+      <c r="C66" s="23"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -2228,10 +2213,10 @@
       <c r="A67" s="1">
         <v>35</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="17"/>
+      <c r="C67" s="23"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -2245,10 +2230,10 @@
       <c r="A68" s="1">
         <v>36</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="17"/>
+      <c r="C68" s="23"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -2260,8 +2245,8 @@
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
@@ -2272,51 +2257,47 @@
       <c r="K69" s="9"/>
     </row>
     <row r="70" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="39"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="33"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="14">
-        <v>44753</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E72" s="42">
-        <v>44759</v>
-      </c>
-      <c r="F72" s="42"/>
-      <c r="G72" s="43"/>
+      <c r="B72" s="51">
+        <v>44844</v>
+      </c>
+      <c r="C72" s="52"/>
+      <c r="D72" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E72" s="41">
+        <v>44850</v>
+      </c>
+      <c r="F72" s="41"/>
+      <c r="G72" s="42"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -2324,9 +2305,9 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="15"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="13"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -2336,94 +2317,96 @@
       <c r="K73" s="1"/>
     </row>
     <row r="74" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="47"/>
-      <c r="B74" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="46"/>
-      <c r="D74" s="44">
-        <v>44753</v>
-      </c>
-      <c r="E74" s="44">
-        <v>44754</v>
-      </c>
-      <c r="F74" s="44">
-        <v>44755</v>
-      </c>
-      <c r="G74" s="44">
-        <v>44756</v>
-      </c>
-      <c r="H74" s="44">
-        <v>44757</v>
-      </c>
-      <c r="I74" s="44">
-        <v>44758</v>
-      </c>
-      <c r="J74" s="44">
-        <v>44759</v>
-      </c>
-      <c r="K74" s="45" t="s">
+      <c r="A74" s="17"/>
+      <c r="B74" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="36"/>
+      <c r="D74" s="15">
+        <v>44844</v>
+      </c>
+      <c r="E74" s="15">
+        <v>44845</v>
+      </c>
+      <c r="F74" s="15">
+        <v>44846</v>
+      </c>
+      <c r="G74" s="15">
+        <v>44847</v>
+      </c>
+      <c r="H74" s="15">
+        <v>44848</v>
+      </c>
+      <c r="I74" s="15">
+        <v>44849</v>
+      </c>
+      <c r="J74" s="15">
+        <v>44850</v>
+      </c>
+      <c r="K74" s="16" t="s">
         <v>71</v>
       </c>
       <c r="L74" s="12"/>
       <c r="M74" s="9"/>
     </row>
     <row r="75" spans="1:13" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="50"/>
-      <c r="B75" s="48" t="s">
+      <c r="A75" s="18"/>
+      <c r="B75" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="38"/>
+      <c r="D75" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="49"/>
-      <c r="D75" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="E75" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="F75" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="G75" s="52"/>
-      <c r="H75" s="52"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="52"/>
-      <c r="K75" s="50"/>
+      <c r="E75" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F75" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G75" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="18"/>
       <c r="M75" s="9"/>
     </row>
     <row r="76" spans="1:13" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="50"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="56"/>
-      <c r="D76" s="52"/>
-      <c r="E76" s="52"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="50"/>
-      <c r="J76" s="57"/>
-      <c r="K76" s="57"/>
-      <c r="L76" s="53"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="21"/>
       <c r="M76" s="9"/>
     </row>
     <row r="77" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
       <c r="L77" s="12"/>
       <c r="M77" s="9"/>
     </row>
     <row r="78" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="41"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -2435,8 +2418,8 @@
     </row>
     <row r="79" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="41"/>
-      <c r="C79" s="41"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="40"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -2448,8 +2431,8 @@
     </row>
     <row r="80" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="41"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -2461,8 +2444,8 @@
     </row>
     <row r="81" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="41"/>
-      <c r="C81" s="41"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="40"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -2474,8 +2457,8 @@
     </row>
     <row r="82" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="41"/>
-      <c r="C82" s="41"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="40"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -2487,8 +2470,8 @@
     </row>
     <row r="83" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -2500,8 +2483,8 @@
     </row>
     <row r="84" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -2513,8 +2496,8 @@
     </row>
     <row r="85" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -2525,44 +2508,44 @@
       <c r="K85" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="29"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
         <v>3</v>
@@ -2573,8 +2556,8 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2588,10 +2571,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="22" t="s">
+      <c r="B91" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="22"/>
+      <c r="C91" s="31"/>
       <c r="D91" s="11" t="s">
         <v>25</v>
       </c>
@@ -2621,8 +2604,8 @@
       <c r="A92" s="1">
         <v>26</v>
       </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2636,8 +2619,8 @@
       <c r="A93" s="1">
         <v>27</v>
       </c>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="23"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2651,8 +2634,8 @@
       <c r="A94" s="1">
         <v>28</v>
       </c>
-      <c r="B94" s="29"/>
-      <c r="C94" s="30"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="27"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2666,8 +2649,8 @@
       <c r="A95" s="1">
         <v>29</v>
       </c>
-      <c r="B95" s="29"/>
-      <c r="C95" s="30"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="27"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2681,8 +2664,8 @@
       <c r="A96" s="1">
         <v>30</v>
       </c>
-      <c r="B96" s="31"/>
-      <c r="C96" s="26"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="25"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2696,8 +2679,8 @@
       <c r="A97" s="1">
         <v>31</v>
       </c>
-      <c r="B97" s="31"/>
-      <c r="C97" s="26"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="25"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2711,8 +2694,8 @@
       <c r="A98" s="1">
         <v>32</v>
       </c>
-      <c r="B98" s="31"/>
-      <c r="C98" s="26"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="25"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2726,8 +2709,8 @@
       <c r="A99" s="1">
         <v>33</v>
       </c>
-      <c r="B99" s="29"/>
-      <c r="C99" s="30"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="27"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2741,8 +2724,8 @@
       <c r="A100" s="1">
         <v>34</v>
       </c>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -2756,8 +2739,8 @@
       <c r="A101" s="1">
         <v>35</v>
       </c>
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -2771,8 +2754,8 @@
       <c r="A102" s="1">
         <v>36</v>
       </c>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="23"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -2783,18 +2766,74 @@
       <c r="K102" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="101">
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
+  <mergeCells count="102">
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A70:K70"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
     <mergeCell ref="A87:K87"/>
     <mergeCell ref="A88:K88"/>
     <mergeCell ref="B89:F89"/>
@@ -2819,74 +2858,19 @@
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="B84:C84"/>
     <mergeCell ref="E72:G72"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A70:K70"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
   </mergeCells>
-  <pageMargins left="0.47" right="0.25" top="6.9" bottom="0.18" header="0.27" footer="0.26"/>
+  <pageMargins left="0.47" right="0.25" top="7.24" bottom="0.18" header="0.27" footer="8.2200000000000006"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
   <si>
     <t>Norma Ledo Parra</t>
   </si>
@@ -246,13 +246,22 @@
     <t>al</t>
   </si>
   <si>
-    <t>SEMANA 41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casquera Torres Jonatan </t>
+    <t>SEMANA 46</t>
+  </si>
+  <si>
+    <t>Juarez Garcia Lucia</t>
+  </si>
+  <si>
+    <t>Romano Velazco Jesus</t>
+  </si>
+  <si>
+    <t>Vargas Rosas Lizeth</t>
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -264,7 +273,7 @@
     <numFmt numFmtId="165" formatCode="dddd\ mm"/>
     <numFmt numFmtId="166" formatCode="dddd\ dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +332,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="50"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -350,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -516,11 +553,210 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -568,19 +804,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -592,15 +839,78 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -611,15 +921,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -628,44 +959,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -989,63 +1296,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:C75"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -1056,8 +1363,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1071,10 +1378,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1104,10 +1411,10 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1121,10 +1428,10 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1138,10 +1445,10 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1155,10 +1462,10 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1172,10 +1479,10 @@
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1189,10 +1496,10 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1206,10 +1513,10 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1223,10 +1530,10 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1240,10 +1547,10 @@
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1257,10 +1564,10 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1274,10 +1581,10 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1291,10 +1598,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1305,44 +1612,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1353,8 +1660,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1368,10 +1675,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="31"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1401,10 +1708,10 @@
       <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1420,10 +1727,10 @@
       <c r="A24" s="1">
         <v>14</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1439,10 +1746,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="55"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1458,10 +1765,10 @@
       <c r="A26" s="1">
         <v>16</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="25"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1477,10 +1784,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1496,10 +1803,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="44"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1515,10 +1822,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="44"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1534,10 +1841,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1553,10 +1860,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1572,10 +1879,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="46"/>
+      <c r="C32" s="59"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1591,10 +1898,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="48"/>
+      <c r="C33" s="61"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1610,10 +1917,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="50"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1629,10 +1936,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="50"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1645,44 +1952,44 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1693,8 +2000,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1708,10 +2015,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="31"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1741,10 +2048,10 @@
       <c r="A41" s="1">
         <v>26</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="23"/>
+      <c r="C41" s="45"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1760,10 +2067,10 @@
       <c r="A42" s="1">
         <v>27</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="23"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1779,10 +2086,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="27"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1798,10 +2105,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="27"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1817,10 +2124,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="25"/>
+      <c r="C45" s="50"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1836,10 +2143,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="25"/>
+      <c r="C46" s="50"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1855,10 +2162,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="25"/>
+      <c r="C47" s="50"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1874,10 +2181,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="27"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1893,10 +2200,10 @@
       <c r="A49" s="1">
         <v>34</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="23"/>
+      <c r="C49" s="45"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1912,10 +2219,10 @@
       <c r="A50" s="1">
         <v>35</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="23"/>
+      <c r="C50" s="45"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -1931,10 +2238,10 @@
       <c r="A51" s="1">
         <v>36</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="23"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -1950,10 +2257,10 @@
       <c r="A52" s="1">
         <v>37</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="23"/>
+      <c r="C52" s="45"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -1964,44 +2271,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -2012,8 +2319,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2027,10 +2334,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="31"/>
+      <c r="C57" s="46"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2060,10 +2367,10 @@
       <c r="A58" s="1">
         <v>26</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="23"/>
+      <c r="C58" s="45"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2077,10 +2384,10 @@
       <c r="A59" s="1">
         <v>27</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="23"/>
+      <c r="C59" s="45"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2094,10 +2401,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="27"/>
+      <c r="C60" s="54"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2111,10 +2418,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="27"/>
+      <c r="C61" s="54"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2128,10 +2435,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="25"/>
+      <c r="C62" s="50"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2145,10 +2452,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="25"/>
+      <c r="C63" s="50"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2162,10 +2469,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="25"/>
+      <c r="C64" s="50"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2179,10 +2486,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="27"/>
+      <c r="C65" s="54"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2196,10 +2503,10 @@
       <c r="A66" s="1">
         <v>34</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="23"/>
+      <c r="C66" s="45"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -2213,10 +2520,10 @@
       <c r="A67" s="1">
         <v>35</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="23"/>
+      <c r="C67" s="45"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -2230,10 +2537,10 @@
       <c r="A68" s="1">
         <v>36</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="23"/>
+      <c r="C68" s="45"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -2245,8 +2552,8 @@
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
@@ -2257,47 +2564,49 @@
       <c r="K69" s="9"/>
     </row>
     <row r="70" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="33"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="33"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="44"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="33" t="s">
+      <c r="A71" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="34"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="33"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="51">
-        <v>44844</v>
-      </c>
-      <c r="C72" s="52"/>
+      <c r="B72" s="37">
+        <f>D74</f>
+        <v>44879</v>
+      </c>
+      <c r="C72" s="38"/>
       <c r="D72" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E72" s="41">
-        <v>44850</v>
-      </c>
-      <c r="F72" s="41"/>
-      <c r="G72" s="42"/>
+      <c r="E72" s="82">
+        <f>J74</f>
+        <v>44885</v>
+      </c>
+      <c r="F72" s="82"/>
+      <c r="G72" s="83"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -2305,8 +2614,8 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="29"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="42"/>
       <c r="D73" s="13"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -2318,30 +2627,30 @@
     </row>
     <row r="74" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="36"/>
+      <c r="C74" s="70"/>
       <c r="D74" s="15">
-        <v>44844</v>
+        <v>44879</v>
       </c>
       <c r="E74" s="15">
-        <v>44845</v>
+        <v>44880</v>
       </c>
       <c r="F74" s="15">
-        <v>44846</v>
+        <v>44881</v>
       </c>
       <c r="G74" s="15">
-        <v>44847</v>
+        <v>44882</v>
       </c>
       <c r="H74" s="15">
-        <v>44848</v>
+        <v>44883</v>
       </c>
       <c r="I74" s="15">
-        <v>44849</v>
+        <v>44884</v>
       </c>
       <c r="J74" s="15">
-        <v>44850</v>
+        <v>44885</v>
       </c>
       <c r="K74" s="16" t="s">
         <v>71</v>
@@ -2351,34 +2660,33 @@
     </row>
     <row r="75" spans="1:13" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="18"/>
-      <c r="B75" s="37" t="s">
+      <c r="B75" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="38"/>
-      <c r="D75" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E75" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G75" s="19" t="s">
-        <v>75</v>
-      </c>
+      <c r="C75" s="72"/>
+      <c r="D75" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="E75" s="86"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
       <c r="H75" s="20"/>
       <c r="I75" s="20"/>
       <c r="J75" s="20"/>
       <c r="K75" s="18"/>
+      <c r="L75" s="36"/>
       <c r="M75" s="9"/>
     </row>
-    <row r="76" spans="1:13" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A76" s="18"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="38"/>
+      <c r="B76" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="74"/>
       <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
+      <c r="E76" s="88" t="s">
+        <v>78</v>
+      </c>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
@@ -2388,164 +2696,170 @@
       <c r="L76" s="21"/>
       <c r="M76" s="9"/>
     </row>
-    <row r="77" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="12"/>
+    <row r="77" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="1">
+      <c r="A77" s="32"/>
+      <c r="B77" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" s="76"/>
+      <c r="D77" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="32"/>
+      <c r="L77" s="21"/>
       <c r="M77" s="9"/>
     </row>
-    <row r="78" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="40"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-    </row>
-    <row r="84" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
+    <row r="78" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="24"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="18"/>
+    </row>
+    <row r="79" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="28"/>
+      <c r="B79" s="79"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="18"/>
+    </row>
+    <row r="80" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="31"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="30"/>
+    </row>
+    <row r="81" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="18"/>
+      <c r="B81" s="79"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="18"/>
+    </row>
+    <row r="82" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="30"/>
+      <c r="B82" s="80"/>
+      <c r="C82" s="81"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="30"/>
+    </row>
+    <row r="83" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="18"/>
+      <c r="B83" s="79"/>
+      <c r="C83" s="78"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="18"/>
+    </row>
+    <row r="84" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="26"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="18"/>
+    </row>
+    <row r="85" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="27"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="32"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
-      <c r="K87" s="28"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="63"/>
+      <c r="H87" s="63"/>
+      <c r="I87" s="63"/>
+      <c r="J87" s="63"/>
+      <c r="K87" s="64"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="29" t="s">
+      <c r="A88" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="29"/>
-      <c r="K88" s="29"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="65"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="65"/>
+      <c r="H88" s="65"/>
+      <c r="I88" s="65"/>
+      <c r="J88" s="65"/>
+      <c r="K88" s="52"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="66"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
         <v>3</v>
@@ -2556,8 +2870,8 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="42"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2571,10 +2885,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="31"/>
+      <c r="C91" s="46"/>
       <c r="D91" s="11" t="s">
         <v>25</v>
       </c>
@@ -2604,8 +2918,8 @@
       <c r="A92" s="1">
         <v>26</v>
       </c>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
+      <c r="B92" s="45"/>
+      <c r="C92" s="45"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2619,8 +2933,8 @@
       <c r="A93" s="1">
         <v>27</v>
       </c>
-      <c r="B93" s="23"/>
-      <c r="C93" s="23"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="45"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2634,8 +2948,8 @@
       <c r="A94" s="1">
         <v>28</v>
       </c>
-      <c r="B94" s="26"/>
-      <c r="C94" s="27"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="54"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2649,8 +2963,8 @@
       <c r="A95" s="1">
         <v>29</v>
       </c>
-      <c r="B95" s="26"/>
-      <c r="C95" s="27"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="54"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2664,8 +2978,8 @@
       <c r="A96" s="1">
         <v>30</v>
       </c>
-      <c r="B96" s="24"/>
-      <c r="C96" s="25"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="50"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2679,8 +2993,8 @@
       <c r="A97" s="1">
         <v>31</v>
       </c>
-      <c r="B97" s="24"/>
-      <c r="C97" s="25"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="50"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2694,8 +3008,8 @@
       <c r="A98" s="1">
         <v>32</v>
       </c>
-      <c r="B98" s="24"/>
-      <c r="C98" s="25"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="50"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2709,8 +3023,8 @@
       <c r="A99" s="1">
         <v>33</v>
       </c>
-      <c r="B99" s="26"/>
-      <c r="C99" s="27"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="54"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2724,8 +3038,8 @@
       <c r="A100" s="1">
         <v>34</v>
       </c>
-      <c r="B100" s="23"/>
-      <c r="C100" s="23"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="45"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -2739,8 +3053,8 @@
       <c r="A101" s="1">
         <v>35</v>
       </c>
-      <c r="B101" s="23"/>
-      <c r="C101" s="23"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="45"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -2754,8 +3068,8 @@
       <c r="A102" s="1">
         <v>36</v>
       </c>
-      <c r="B102" s="23"/>
-      <c r="C102" s="23"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="45"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -2767,6 +3081,84 @@
     </row>
   </sheetData>
   <mergeCells count="102">
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="A87:K87"/>
+    <mergeCell ref="A88:K88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="A1:K1"/>
@@ -2791,98 +3183,115 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="A87:K87"/>
-    <mergeCell ref="A88:K88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="A71:K71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
   </mergeCells>
-  <pageMargins left="0.47" right="0.25" top="7.24" bottom="0.18" header="0.27" footer="8.2200000000000006"/>
+  <pageMargins left="0.47" right="0.25" top="0.3" bottom="0.18" header="0.27" footer="8.2200000000000006"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="23">
+        <v>44851</v>
+      </c>
+      <c r="B1" s="23">
+        <v>44857</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>44858</v>
+      </c>
+      <c r="B2" s="23">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>44865</v>
+      </c>
+      <c r="B3" s="23">
+        <v>44871</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>44872</v>
+      </c>
+      <c r="B4" s="23">
+        <v>44878</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>44879</v>
+      </c>
+      <c r="B5" s="23">
+        <v>44885</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>44886</v>
+      </c>
+      <c r="B6" s="23">
+        <v>44892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>44893</v>
+      </c>
+      <c r="B7" s="23">
+        <v>44899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>44900</v>
+      </c>
+      <c r="B8" s="23">
+        <v>44906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>44907</v>
+      </c>
+      <c r="B9" s="23">
+        <v>44913</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>44914</v>
+      </c>
+      <c r="B10" s="23">
+        <v>44920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>44921</v>
+      </c>
+      <c r="B11" s="23">
+        <v>44927</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
   <si>
     <t>Norma Ledo Parra</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Domingo 21</t>
   </si>
   <si>
-    <t>Lista de Asistencia Semanal nuevo Ingreso</t>
-  </si>
-  <si>
     <t>Aguilar Días Porfirio Arturo</t>
   </si>
   <si>
@@ -246,22 +243,19 @@
     <t>al</t>
   </si>
   <si>
-    <t>SEMANA 46</t>
-  </si>
-  <si>
-    <t>Juarez Garcia Lucia</t>
-  </si>
-  <si>
-    <t>Romano Velazco Jesus</t>
-  </si>
-  <si>
-    <t>Vargas Rosas Lizeth</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>D</t>
+    <t>SEMANA 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Escandon Rosales Ian Jose</t>
+  </si>
+  <si>
+    <t>Hernandez Coba Esteban de Jesus</t>
+  </si>
+  <si>
+    <t>Lista de Nuevo Ingreso</t>
   </si>
 </sst>
 </file>
@@ -387,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -437,15 +431,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -470,14 +455,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -486,21 +473,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -519,19 +491,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -543,19 +502,6 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -601,21 +547,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -667,19 +598,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -733,7 +651,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -741,22 +670,13 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -781,53 +701,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -839,9 +737,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -896,83 +791,95 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,8 +889,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFADADAD"/>
       <color rgb="FF909090"/>
-      <color rgb="FFADADAD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1294,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:K77"/>
+      <selection activeCell="A69" sqref="A69:K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,44 +1222,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -1363,8 +1270,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1378,10 +1285,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1411,10 +1318,10 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1428,10 +1335,10 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="45"/>
+      <c r="B7" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="32"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1445,10 +1352,10 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1462,10 +1369,10 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="45"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1479,10 +1386,10 @@
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="45"/>
+      <c r="B10" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="32"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1496,10 +1403,10 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="45"/>
+      <c r="B11" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="32"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1513,10 +1420,10 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1530,10 +1437,10 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="45"/>
+      <c r="B13" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="32"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1547,10 +1454,10 @@
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="45"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1564,10 +1471,10 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="45"/>
+      <c r="B15" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="32"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1581,10 +1488,10 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="45"/>
+      <c r="B16" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="32"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1598,10 +1505,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="48"/>
+      <c r="B17" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="35"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1612,44 +1519,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1660,8 +1567,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1675,10 +1582,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="46"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1708,10 +1615,10 @@
       <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B23" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="45"/>
+      <c r="B23" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="32"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1727,10 +1634,10 @@
       <c r="A24" s="1">
         <v>14</v>
       </c>
-      <c r="B24" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="45"/>
+      <c r="B24" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="32"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1746,10 +1653,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="49"/>
+      <c r="B25" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="36"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1765,10 +1672,10 @@
       <c r="A26" s="1">
         <v>16</v>
       </c>
-      <c r="B26" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="50"/>
+      <c r="B26" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="37"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1784,10 +1691,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="50"/>
+      <c r="B27" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="37"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1803,10 +1710,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="57"/>
+      <c r="B28" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="44"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1822,10 +1729,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="57"/>
+      <c r="B29" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="44"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1841,10 +1748,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="50"/>
+      <c r="B30" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="37"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1860,10 +1767,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="50"/>
+      <c r="B31" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="37"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1879,10 +1786,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="59"/>
+      <c r="B32" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="46"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1898,10 +1805,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="61"/>
+      <c r="B33" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="48"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1917,10 +1824,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="52"/>
+      <c r="B34" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="39"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1936,10 +1843,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="52"/>
+      <c r="B35" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="39"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1952,44 +1859,44 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -2000,8 +1907,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2015,10 +1922,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="46"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -2048,10 +1955,10 @@
       <c r="A41" s="1">
         <v>26</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="45"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2067,10 +1974,10 @@
       <c r="A42" s="1">
         <v>27</v>
       </c>
-      <c r="B42" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="45"/>
+      <c r="B42" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="32"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2086,10 +1993,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="54"/>
+      <c r="B43" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="41"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2105,10 +2012,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="54"/>
+      <c r="B44" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="41"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2124,10 +2031,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="50"/>
+      <c r="B45" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="37"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2143,10 +2050,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="50"/>
+      <c r="B46" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="37"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2162,10 +2069,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="50"/>
+      <c r="B47" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="37"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2181,10 +2088,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="54"/>
+      <c r="B48" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="41"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2200,10 +2107,10 @@
       <c r="A49" s="1">
         <v>34</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="45"/>
+      <c r="C49" s="32"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2219,10 +2126,10 @@
       <c r="A50" s="1">
         <v>35</v>
       </c>
-      <c r="B50" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="45"/>
+      <c r="B50" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="32"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2238,10 +2145,10 @@
       <c r="A51" s="1">
         <v>36</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="45"/>
+      <c r="C51" s="32"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2257,10 +2164,10 @@
       <c r="A52" s="1">
         <v>37</v>
       </c>
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="45"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2271,44 +2178,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42" t="s">
+      <c r="A54" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -2319,8 +2226,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2334,10 +2241,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="46"/>
+      <c r="C57" s="33"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2367,10 +2274,10 @@
       <c r="A58" s="1">
         <v>26</v>
       </c>
-      <c r="B58" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="45"/>
+      <c r="B58" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="32"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2384,10 +2291,10 @@
       <c r="A59" s="1">
         <v>27</v>
       </c>
-      <c r="B59" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="45"/>
+      <c r="B59" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="32"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2401,10 +2308,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="54"/>
+      <c r="B60" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="41"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2418,10 +2325,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="54"/>
+      <c r="B61" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="41"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2435,10 +2342,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" s="50"/>
+      <c r="B62" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="37"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2452,10 +2359,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="50"/>
+      <c r="B63" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="37"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2469,10 +2376,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="50"/>
+      <c r="B64" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="37"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2486,10 +2393,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="54"/>
+      <c r="B65" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="41"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2503,10 +2410,10 @@
       <c r="A66" s="1">
         <v>34</v>
       </c>
-      <c r="B66" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" s="45"/>
+      <c r="B66" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="32"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -2520,10 +2427,10 @@
       <c r="A67" s="1">
         <v>35</v>
       </c>
-      <c r="B67" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" s="45"/>
+      <c r="B67" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="32"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -2533,336 +2440,330 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+    <row r="68" spans="1:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="12">
         <v>36</v>
       </c>
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="45"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" s="67"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-    </row>
-    <row r="70" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="44"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="44"/>
-      <c r="K70" s="44"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B71" s="68"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="44"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="37">
-        <f>D74</f>
-        <v>44879</v>
-      </c>
-      <c r="C72" s="38"/>
-      <c r="D72" s="14" t="s">
+      <c r="C68" s="61"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+    </row>
+    <row r="69" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="62"/>
+    </row>
+    <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="63"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="63"/>
+    </row>
+    <row r="71" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="13"/>
+      <c r="B71" s="64">
+        <f>D73</f>
+        <v>44886</v>
+      </c>
+      <c r="C71" s="64"/>
+      <c r="D71" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" s="66">
+        <f>J73</f>
+        <v>44892</v>
+      </c>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+    </row>
+    <row r="72" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="13"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+    </row>
+    <row r="73" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="13"/>
+      <c r="B73" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="E72" s="82">
-        <f>J74</f>
-        <v>44885</v>
-      </c>
-      <c r="F72" s="82"/>
-      <c r="G72" s="83"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="69"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="17"/>
-      <c r="B74" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" s="70"/>
-      <c r="D74" s="15">
-        <v>44879</v>
-      </c>
-      <c r="E74" s="15">
-        <v>44880</v>
-      </c>
-      <c r="F74" s="15">
-        <v>44881</v>
-      </c>
-      <c r="G74" s="15">
-        <v>44882</v>
-      </c>
-      <c r="H74" s="15">
-        <v>44883</v>
-      </c>
-      <c r="I74" s="15">
-        <v>44884</v>
-      </c>
-      <c r="J74" s="15">
-        <v>44885</v>
-      </c>
-      <c r="K74" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="L74" s="12"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="69">
+        <v>44886</v>
+      </c>
+      <c r="E73" s="69">
+        <v>44887</v>
+      </c>
+      <c r="F73" s="69">
+        <v>44888</v>
+      </c>
+      <c r="G73" s="69">
+        <v>44889</v>
+      </c>
+      <c r="H73" s="69">
+        <v>44890</v>
+      </c>
+      <c r="I73" s="69">
+        <v>44891</v>
+      </c>
+      <c r="J73" s="69">
+        <v>44892</v>
+      </c>
+      <c r="K73" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="L73" s="14"/>
+      <c r="M73" s="9"/>
+    </row>
+    <row r="74" spans="1:13" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="13"/>
+      <c r="B74" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" s="71"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="74"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="9"/>
       <c r="M74" s="9"/>
     </row>
-    <row r="75" spans="1:13" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="18"/>
+    <row r="75" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A75" s="13"/>
       <c r="B75" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" s="72"/>
-      <c r="D75" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="E75" s="86"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="36"/>
+        <v>75</v>
+      </c>
+      <c r="C75" s="71"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="75"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="14"/>
       <c r="M75" s="9"/>
     </row>
-    <row r="76" spans="1:13" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A76" s="18"/>
-      <c r="B76" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="C76" s="74"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="21"/>
+    <row r="76" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="1">
+      <c r="A76" s="13"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="14"/>
       <c r="M76" s="9"/>
     </row>
-    <row r="77" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="1">
-      <c r="A77" s="32"/>
-      <c r="B77" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="C77" s="76"/>
-      <c r="D77" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="E77" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="32"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="32"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="9"/>
-    </row>
-    <row r="78" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="24"/>
-      <c r="B78" s="77"/>
+    <row r="77" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="13"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="78"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+    </row>
+    <row r="78" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="13"/>
+      <c r="B78" s="78"/>
       <c r="C78" s="78"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="18"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
     </row>
     <row r="79" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="28"/>
-      <c r="B79" s="79"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="18"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="60"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="24"/>
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
       <c r="J79" s="22"/>
-      <c r="K79" s="18"/>
+      <c r="K79" s="22"/>
     </row>
     <row r="80" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="31"/>
-      <c r="B80" s="80"/>
-      <c r="C80" s="81"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="30"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="22"/>
     </row>
     <row r="81" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="18"/>
-      <c r="B81" s="79"/>
-      <c r="C81" s="78"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="18"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="21"/>
     </row>
     <row r="82" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="30"/>
-      <c r="B82" s="80"/>
-      <c r="C82" s="81"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="30"/>
-    </row>
-    <row r="83" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="13"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="13"/>
+    </row>
+    <row r="83" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="18"/>
-      <c r="B83" s="79"/>
-      <c r="C83" s="78"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="18"/>
-    </row>
-    <row r="84" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="26"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="18"/>
-    </row>
-    <row r="85" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="27"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="22"/>
-      <c r="J85" s="33"/>
-      <c r="K85" s="32"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="13"/>
+    </row>
+    <row r="84" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="19"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="22"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="50"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="50"/>
+      <c r="J86" s="50"/>
+      <c r="K86" s="51"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" s="63"/>
-      <c r="C87" s="63"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="63"/>
-      <c r="F87" s="63"/>
-      <c r="G87" s="63"/>
-      <c r="H87" s="63"/>
-      <c r="I87" s="63"/>
-      <c r="J87" s="63"/>
-      <c r="K87" s="64"/>
+      <c r="A87" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="52"/>
+      <c r="J87" s="52"/>
+      <c r="K87" s="39"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="65"/>
-      <c r="F88" s="65"/>
-      <c r="G88" s="65"/>
-      <c r="H88" s="65"/>
-      <c r="I88" s="65"/>
-      <c r="J88" s="65"/>
-      <c r="K88" s="52"/>
+      <c r="A88" s="1"/>
+      <c r="B88" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="38"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="66"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -2870,56 +2771,56 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
+      <c r="B90" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="33"/>
+      <c r="D90" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K90" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="46"/>
-      <c r="D91" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E91" s="11" t="s">
+      <c r="A91" s="1">
         <v>26</v>
       </c>
-      <c r="F91" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I91" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J91" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K91" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>26</v>
-      </c>
-      <c r="B92" s="45"/>
-      <c r="C92" s="45"/>
+        <v>27</v>
+      </c>
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2931,10 +2832,10 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>27</v>
-      </c>
-      <c r="B93" s="45"/>
-      <c r="C93" s="45"/>
+        <v>28</v>
+      </c>
+      <c r="B93" s="40"/>
+      <c r="C93" s="41"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2946,10 +2847,10 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>28</v>
-      </c>
-      <c r="B94" s="53"/>
-      <c r="C94" s="54"/>
+        <v>29</v>
+      </c>
+      <c r="B94" s="40"/>
+      <c r="C94" s="41"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2961,10 +2862,10 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>29</v>
-      </c>
-      <c r="B95" s="53"/>
-      <c r="C95" s="54"/>
+        <v>30</v>
+      </c>
+      <c r="B95" s="42"/>
+      <c r="C95" s="37"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2976,10 +2877,10 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>30</v>
-      </c>
-      <c r="B96" s="55"/>
-      <c r="C96" s="50"/>
+        <v>31</v>
+      </c>
+      <c r="B96" s="42"/>
+      <c r="C96" s="37"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2991,10 +2892,10 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>31</v>
-      </c>
-      <c r="B97" s="55"/>
-      <c r="C97" s="50"/>
+        <v>32</v>
+      </c>
+      <c r="B97" s="42"/>
+      <c r="C97" s="37"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -3006,10 +2907,10 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>32</v>
-      </c>
-      <c r="B98" s="55"/>
-      <c r="C98" s="50"/>
+        <v>33</v>
+      </c>
+      <c r="B98" s="40"/>
+      <c r="C98" s="41"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -3021,10 +2922,10 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>33</v>
-      </c>
-      <c r="B99" s="53"/>
-      <c r="C99" s="54"/>
+        <v>34</v>
+      </c>
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -3036,10 +2937,10 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>34</v>
-      </c>
-      <c r="B100" s="45"/>
-      <c r="C100" s="45"/>
+        <v>35</v>
+      </c>
+      <c r="B100" s="32"/>
+      <c r="C100" s="32"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -3051,10 +2952,10 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>35</v>
-      </c>
-      <c r="B101" s="45"/>
-      <c r="C101" s="45"/>
+        <v>36</v>
+      </c>
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -3064,45 +2965,31 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>36</v>
-      </c>
-      <c r="B102" s="45"/>
-      <c r="C102" s="45"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="102">
-    <mergeCell ref="B102:C102"/>
+  <mergeCells count="101">
+    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B96:C96"/>
     <mergeCell ref="B97:C97"/>
     <mergeCell ref="B98:C98"/>
     <mergeCell ref="B99:C99"/>
     <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B91:C91"/>
     <mergeCell ref="B92:C92"/>
     <mergeCell ref="B93:C93"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="A86:K86"/>
     <mergeCell ref="A87:K87"/>
-    <mergeCell ref="A88:K88"/>
-    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:C89"/>
     <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="A70:K70"/>
+    <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B75:C75"/>
@@ -3114,8 +3001,7 @@
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E71:G71"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
@@ -3159,13 +3045,12 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="A36:K36"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B84:C84"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A70:K70"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
@@ -3199,95 +3084,95 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="23">
+      <c r="A1" s="16">
         <v>44851</v>
       </c>
-      <c r="B1" s="23">
+      <c r="B1" s="16">
         <v>44857</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+      <c r="A2" s="16">
         <v>44858</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="16">
         <v>44864</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="16">
         <v>44865</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="16">
         <v>44871</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="A4" s="16">
         <v>44872</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="16">
         <v>44878</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="A5" s="16">
         <v>44879</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="16">
         <v>44885</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="16">
         <v>44886</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="16">
         <v>44892</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="16">
         <v>44893</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="16">
         <v>44899</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="16">
         <v>44900</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="16">
         <v>44906</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="16">
         <v>44907</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="16">
         <v>44913</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="16">
         <v>44914</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="16">
         <v>44920</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="16">
         <v>44921</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="16">
         <v>44927</v>
       </c>
     </row>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
   <si>
     <t>Norma Ledo Parra</t>
   </si>
@@ -243,19 +243,13 @@
     <t>al</t>
   </si>
   <si>
-    <t>SEMANA 47</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Escandon Rosales Ian Jose</t>
-  </si>
-  <si>
-    <t>Hernandez Coba Esteban de Jesus</t>
-  </si>
-  <si>
     <t>Lista de Nuevo Ingreso</t>
+  </si>
+  <si>
+    <t>Garcia Lucas Orlando</t>
+  </si>
+  <si>
+    <t>SEMANA 51</t>
   </si>
 </sst>
 </file>
@@ -676,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -716,170 +710,167 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1201,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:K78"/>
+      <selection activeCell="A72" sqref="A72:K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,44 +1213,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -1270,8 +1261,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1285,10 +1276,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1318,10 +1309,10 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="32"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1335,10 +1326,10 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="32"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1352,10 +1343,10 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="32"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1369,10 +1360,10 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1386,10 +1377,10 @@
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1403,10 +1394,10 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="32"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1420,10 +1411,10 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1437,10 +1428,10 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1454,10 +1445,10 @@
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="32"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1471,10 +1462,10 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="32"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1488,10 +1479,10 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="32"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1505,10 +1496,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="35"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1519,44 +1510,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1567,8 +1558,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1582,10 +1573,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="33"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1615,10 +1606,10 @@
       <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="32"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1634,10 +1625,10 @@
       <c r="A24" s="1">
         <v>14</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="32"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1653,10 +1644,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="36"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1672,10 +1663,10 @@
       <c r="A26" s="1">
         <v>16</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="37"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1691,10 +1682,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="37"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1710,10 +1701,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="44"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1729,10 +1720,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="44"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1748,10 +1739,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="37"/>
+      <c r="C30" s="41"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1767,10 +1758,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="37"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1786,10 +1777,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="46"/>
+      <c r="C32" s="48"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1805,10 +1796,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="48"/>
+      <c r="C33" s="50"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1824,10 +1815,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="39"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1843,10 +1834,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="39"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1859,44 +1850,44 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1907,8 +1898,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1922,10 +1913,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="33"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1955,10 +1946,10 @@
       <c r="A41" s="1">
         <v>26</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="32"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1974,10 +1965,10 @@
       <c r="A42" s="1">
         <v>27</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="32"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1993,10 +1984,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="41"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2012,10 +2003,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="41"/>
+      <c r="C44" s="52"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2031,10 +2022,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="37"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2050,10 +2041,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="37"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2069,10 +2060,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="37"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2088,10 +2079,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="41"/>
+      <c r="C48" s="52"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2107,10 +2098,10 @@
       <c r="A49" s="1">
         <v>34</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="32"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2126,10 +2117,10 @@
       <c r="A50" s="1">
         <v>35</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="32"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2145,10 +2136,10 @@
       <c r="A51" s="1">
         <v>36</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="32"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2164,10 +2155,10 @@
       <c r="A52" s="1">
         <v>37</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="32"/>
+      <c r="C52" s="36"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2178,44 +2169,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -2226,8 +2217,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2241,10 +2232,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="37"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2274,10 +2265,10 @@
       <c r="A58" s="1">
         <v>26</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="32"/>
+      <c r="C58" s="36"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2291,10 +2282,10 @@
       <c r="A59" s="1">
         <v>27</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="32"/>
+      <c r="C59" s="36"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2308,10 +2299,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="41"/>
+      <c r="C60" s="52"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2325,10 +2316,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="41"/>
+      <c r="C61" s="52"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2342,10 +2333,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="37"/>
+      <c r="C62" s="41"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2359,10 +2350,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="37"/>
+      <c r="C63" s="41"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2376,10 +2367,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="37"/>
+      <c r="C64" s="41"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2393,10 +2384,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="41"/>
+      <c r="C65" s="52"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2410,10 +2401,10 @@
       <c r="A66" s="1">
         <v>34</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="32"/>
+      <c r="C66" s="36"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -2427,10 +2418,10 @@
       <c r="A67" s="1">
         <v>35</v>
       </c>
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="32"/>
+      <c r="C67" s="36"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -2444,10 +2435,10 @@
       <c r="A68" s="12">
         <v>36</v>
       </c>
-      <c r="B68" s="61" t="s">
+      <c r="B68" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="61"/>
+      <c r="C68" s="67"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -2458,127 +2449,125 @@
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="62"/>
-      <c r="K69" s="62"/>
+      <c r="A69" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="78"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="78"/>
+      <c r="E69" s="78"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="78"/>
+      <c r="H69" s="78"/>
+      <c r="I69" s="78"/>
+      <c r="J69" s="78"/>
+      <c r="K69" s="78"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="63"/>
-      <c r="C70" s="63"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="63"/>
-      <c r="F70" s="63"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="63"/>
-      <c r="K70" s="63"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="66">
+        <f>D72</f>
+        <v>44914</v>
+      </c>
+      <c r="C70" s="66"/>
+      <c r="D70" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" s="65">
+        <f>J72</f>
+        <v>44920</v>
+      </c>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
-      <c r="B71" s="64">
-        <f>D73</f>
-        <v>44886</v>
-      </c>
-      <c r="C71" s="64"/>
-      <c r="D71" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="E71" s="66">
-        <f>J73</f>
-        <v>44892</v>
-      </c>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
+      <c r="B71" s="75"/>
+      <c r="C71" s="75"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
       <c r="J71" s="13"/>
       <c r="K71" s="13"/>
     </row>
-    <row r="72" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
-      <c r="B72" s="67"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-    </row>
-    <row r="73" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="76"/>
+      <c r="D72" s="26">
+        <v>44914</v>
+      </c>
+      <c r="E72" s="26">
+        <v>44915</v>
+      </c>
+      <c r="F72" s="26">
+        <v>44916</v>
+      </c>
+      <c r="G72" s="26">
+        <v>44917</v>
+      </c>
+      <c r="H72" s="26">
+        <v>44918</v>
+      </c>
+      <c r="I72" s="26">
+        <v>44919</v>
+      </c>
+      <c r="J72" s="26">
+        <v>44920</v>
+      </c>
+      <c r="K72" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L72" s="14"/>
+      <c r="M72" s="9"/>
+    </row>
+    <row r="73" spans="1:13" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="13"/>
-      <c r="B73" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="68"/>
-      <c r="D73" s="69">
-        <v>44886</v>
-      </c>
-      <c r="E73" s="69">
-        <v>44887</v>
-      </c>
-      <c r="F73" s="69">
-        <v>44888</v>
-      </c>
-      <c r="G73" s="69">
-        <v>44889</v>
-      </c>
-      <c r="H73" s="69">
-        <v>44890</v>
-      </c>
-      <c r="I73" s="69">
-        <v>44891</v>
-      </c>
-      <c r="J73" s="69">
-        <v>44892</v>
-      </c>
-      <c r="K73" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="L73" s="14"/>
+      <c r="B73" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="77"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="9"/>
       <c r="M73" s="9"/>
     </row>
-    <row r="74" spans="1:13" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A74" s="13"/>
-      <c r="B74" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" s="71"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="74"/>
+      <c r="B74" s="77"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
       <c r="K74" s="13"/>
-      <c r="L74" s="9"/>
+      <c r="L74" s="14"/>
       <c r="M74" s="9"/>
     </row>
-    <row r="75" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="1">
       <c r="A75" s="13"/>
-      <c r="B75" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" s="71"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="75"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
@@ -2588,25 +2577,23 @@
       <c r="L75" s="14"/>
       <c r="M75" s="9"/>
     </row>
-    <row r="76" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="1">
+    <row r="76" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
-      <c r="B76" s="76"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="77"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
       <c r="K76" s="13"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="9"/>
-    </row>
-    <row r="77" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
-      <c r="B77" s="78"/>
-      <c r="C77" s="78"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="56"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
@@ -2617,61 +2604,61 @@
       <c r="K77" s="13"/>
     </row>
     <row r="78" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="13"/>
-      <c r="B78" s="78"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
     </row>
     <row r="79" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="22"/>
-      <c r="B79" s="60"/>
-      <c r="C79" s="79"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="60"/>
       <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
       <c r="K79" s="22"/>
     </row>
     <row r="80" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="22"/>
-      <c r="B80" s="54"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="23"/>
-      <c r="K80" s="22"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="21"/>
     </row>
     <row r="81" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="21"/>
-      <c r="B81" s="58"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="21"/>
-    </row>
-    <row r="82" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="13"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="56"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="13"/>
+    </row>
+    <row r="82" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="18"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="54"/>
       <c r="D82" s="13"/>
       <c r="E82" s="17"/>
       <c r="F82" s="13"/>
@@ -2681,74 +2668,76 @@
       <c r="J82" s="15"/>
       <c r="K82" s="13"/>
     </row>
-    <row r="83" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="18"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="28"/>
+    <row r="83" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="19"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="54"/>
       <c r="D83" s="13"/>
       <c r="E83" s="17"/>
       <c r="F83" s="13"/>
-      <c r="G83" s="15"/>
+      <c r="G83" s="13"/>
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="13"/>
-    </row>
-    <row r="84" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="19"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="23"/>
-      <c r="K84" s="22"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="22"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="69"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="69"/>
+      <c r="F85" s="69"/>
+      <c r="G85" s="69"/>
+      <c r="H85" s="69"/>
+      <c r="I85" s="69"/>
+      <c r="J85" s="69"/>
+      <c r="K85" s="70"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="50"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="50"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="50"/>
-      <c r="J86" s="50"/>
-      <c r="K86" s="51"/>
+      <c r="A86" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="71"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="71"/>
+      <c r="I86" s="71"/>
+      <c r="J86" s="71"/>
+      <c r="K86" s="43"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B87" s="52"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="52"/>
-      <c r="E87" s="52"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="52"/>
-      <c r="I87" s="52"/>
-      <c r="J87" s="52"/>
-      <c r="K87" s="39"/>
+      <c r="A87" s="1"/>
+      <c r="B87" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="73"/>
+      <c r="D87" s="73"/>
+      <c r="E87" s="73"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="53"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -2756,56 +2745,56 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
+      <c r="B89" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="37"/>
+      <c r="D89" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K89" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" s="33"/>
-      <c r="D90" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E90" s="11" t="s">
+      <c r="A90" s="1">
         <v>26</v>
       </c>
-      <c r="F90" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H90" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I90" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J90" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K90" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>26</v>
-      </c>
-      <c r="B91" s="32"/>
-      <c r="C91" s="32"/>
+        <v>27</v>
+      </c>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2817,10 +2806,10 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>27</v>
-      </c>
-      <c r="B92" s="32"/>
-      <c r="C92" s="32"/>
+        <v>28</v>
+      </c>
+      <c r="B92" s="51"/>
+      <c r="C92" s="52"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2832,10 +2821,10 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>28</v>
-      </c>
-      <c r="B93" s="40"/>
-      <c r="C93" s="41"/>
+        <v>29</v>
+      </c>
+      <c r="B93" s="51"/>
+      <c r="C93" s="52"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2847,9 +2836,9 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>29</v>
-      </c>
-      <c r="B94" s="40"/>
+        <v>30</v>
+      </c>
+      <c r="B94" s="46"/>
       <c r="C94" s="41"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -2862,10 +2851,10 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>30</v>
-      </c>
-      <c r="B95" s="42"/>
-      <c r="C95" s="37"/>
+        <v>31</v>
+      </c>
+      <c r="B95" s="46"/>
+      <c r="C95" s="41"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2877,10 +2866,10 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>31</v>
-      </c>
-      <c r="B96" s="42"/>
-      <c r="C96" s="37"/>
+        <v>32</v>
+      </c>
+      <c r="B96" s="46"/>
+      <c r="C96" s="41"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2892,10 +2881,10 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>32</v>
-      </c>
-      <c r="B97" s="42"/>
-      <c r="C97" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="B97" s="51"/>
+      <c r="C97" s="52"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2907,10 +2896,10 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>33</v>
-      </c>
-      <c r="B98" s="40"/>
-      <c r="C98" s="41"/>
+        <v>34</v>
+      </c>
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2922,10 +2911,10 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>34</v>
-      </c>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
+        <v>35</v>
+      </c>
+      <c r="B99" s="36"/>
+      <c r="C99" s="36"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2937,10 +2926,10 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>35</v>
-      </c>
-      <c r="B100" s="32"/>
-      <c r="C100" s="32"/>
+        <v>36</v>
+      </c>
+      <c r="B100" s="36"/>
+      <c r="C100" s="36"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -2950,48 +2939,45 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>36</v>
-      </c>
-      <c r="B101" s="32"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="101">
+  <mergeCells count="100">
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
     <mergeCell ref="A69:K69"/>
-    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B95:C95"/>
     <mergeCell ref="B96:C96"/>
     <mergeCell ref="B97:C97"/>
     <mergeCell ref="B98:C98"/>
     <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B90:C90"/>
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="B92:C92"/>
     <mergeCell ref="B93:C93"/>
     <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="A85:K85"/>
     <mergeCell ref="A86:K86"/>
-    <mergeCell ref="A87:K87"/>
-    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B88:C88"/>
     <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B70:C70"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A70:K70"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B83:C83"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
@@ -3000,20 +2986,6 @@
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:C59"/>
@@ -3021,9 +2993,6 @@
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B63:C63"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B35:C35"/>
@@ -3045,8 +3014,17 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="A36:K36"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:F3"/>
@@ -3063,13 +3041,8 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:K18"/>
   </mergeCells>
-  <pageMargins left="0.47" right="0.25" top="0.3" bottom="0.18" header="0.27" footer="8.2200000000000006"/>
+  <pageMargins left="0.47" right="0.25" top="3.67" bottom="0.17" header="0.27" footer="8.2200000000000006"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hydra999\Documents\GitHub\Cortes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC MASTER RACE\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -246,10 +246,10 @@
     <t>Lista de Nuevo Ingreso</t>
   </si>
   <si>
-    <t>Garcia Lucas Orlando</t>
-  </si>
-  <si>
-    <t>SEMANA 51</t>
+    <t>Villegas Urbina Izamary de Jesus</t>
+  </si>
+  <si>
+    <t>SEMANA 03</t>
   </si>
 </sst>
 </file>
@@ -734,46 +734,121 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -788,89 +863,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1194,7 +1194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:K75"/>
     </sheetView>
   </sheetViews>
@@ -1213,44 +1213,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -1261,8 +1261,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1276,10 +1276,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1309,10 +1309,10 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1326,10 +1326,10 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="36"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1343,10 +1343,10 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1360,10 +1360,10 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="36"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1377,10 +1377,10 @@
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="36"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1394,10 +1394,10 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="36"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1411,10 +1411,10 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="36"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1428,10 +1428,10 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1445,10 +1445,10 @@
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="36"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1462,10 +1462,10 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1479,10 +1479,10 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="36"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1496,10 +1496,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="39"/>
+      <c r="C17" s="77"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1510,44 +1510,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1558,8 +1558,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="37"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1606,10 +1606,10 @@
       <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="36"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1625,10 +1625,10 @@
       <c r="A24" s="1">
         <v>14</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="36"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1644,10 +1644,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="40"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1663,10 +1663,10 @@
       <c r="A26" s="1">
         <v>16</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="41"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1682,10 +1682,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1701,10 +1701,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="45"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1720,10 +1720,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="45"/>
+      <c r="C29" s="55"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1739,10 +1739,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="41"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1758,10 +1758,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="41"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1777,10 +1777,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="48"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1796,10 +1796,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="50"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1815,10 +1815,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="43"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1834,10 +1834,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="43"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1850,44 +1850,44 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1898,8 +1898,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1913,10 +1913,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="37"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1946,10 +1946,10 @@
       <c r="A41" s="1">
         <v>26</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="36"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1965,10 +1965,10 @@
       <c r="A42" s="1">
         <v>27</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="36"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1984,10 +1984,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="52"/>
+      <c r="C43" s="41"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2003,10 +2003,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="52"/>
+      <c r="C44" s="41"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2022,10 +2022,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="41"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2041,10 +2041,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="41"/>
+      <c r="C46" s="39"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2060,10 +2060,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="41"/>
+      <c r="C47" s="39"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2079,10 +2079,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="52"/>
+      <c r="C48" s="41"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2098,10 +2098,10 @@
       <c r="A49" s="1">
         <v>34</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="36"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2117,10 +2117,10 @@
       <c r="A50" s="1">
         <v>35</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="36"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2136,10 +2136,10 @@
       <c r="A51" s="1">
         <v>36</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="36"/>
+      <c r="C51" s="37"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2155,10 +2155,10 @@
       <c r="A52" s="1">
         <v>37</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="36"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2169,44 +2169,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="58"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -2217,8 +2217,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2232,10 +2232,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="37"/>
+      <c r="C57" s="52"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2265,10 +2265,10 @@
       <c r="A58" s="1">
         <v>26</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="36"/>
+      <c r="C58" s="37"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2282,10 +2282,10 @@
       <c r="A59" s="1">
         <v>27</v>
       </c>
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="36"/>
+      <c r="C59" s="37"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2299,10 +2299,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="52"/>
+      <c r="C60" s="41"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2316,10 +2316,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="51" t="s">
+      <c r="B61" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="52"/>
+      <c r="C61" s="41"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2333,10 +2333,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="41"/>
+      <c r="C62" s="39"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2350,10 +2350,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="41"/>
+      <c r="C63" s="39"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2367,10 +2367,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="41"/>
+      <c r="C64" s="39"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2384,10 +2384,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="51" t="s">
+      <c r="B65" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="52"/>
+      <c r="C65" s="41"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2401,10 +2401,10 @@
       <c r="A66" s="1">
         <v>34</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="36"/>
+      <c r="C66" s="37"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -2418,10 +2418,10 @@
       <c r="A67" s="1">
         <v>35</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="36"/>
+      <c r="C67" s="37"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -2435,10 +2435,10 @@
       <c r="A68" s="12">
         <v>36</v>
       </c>
-      <c r="B68" s="67" t="s">
+      <c r="B68" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="67"/>
+      <c r="C68" s="57"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -2449,36 +2449,36 @@
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="78" t="s">
+      <c r="A69" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="78"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="78"/>
-      <c r="E69" s="78"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="78"/>
-      <c r="H69" s="78"/>
-      <c r="I69" s="78"/>
-      <c r="J69" s="78"/>
-      <c r="K69" s="78"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
-      <c r="B70" s="66">
+      <c r="B70" s="56">
         <f>D72</f>
-        <v>44914</v>
-      </c>
-      <c r="C70" s="66"/>
+        <v>44942</v>
+      </c>
+      <c r="C70" s="56"/>
       <c r="D70" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="65">
+      <c r="E70" s="53">
         <f>J72</f>
-        <v>44920</v>
-      </c>
-      <c r="F70" s="65"/>
-      <c r="G70" s="65"/>
+        <v>44948</v>
+      </c>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
@@ -2486,8 +2486,8 @@
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
-      <c r="B71" s="75"/>
-      <c r="C71" s="75"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
@@ -2499,30 +2499,30 @@
     </row>
     <row r="72" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
-      <c r="B72" s="76" t="s">
+      <c r="B72" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="76"/>
+      <c r="C72" s="34"/>
       <c r="D72" s="26">
-        <v>44914</v>
+        <v>44942</v>
       </c>
       <c r="E72" s="26">
-        <v>44915</v>
+        <v>44943</v>
       </c>
       <c r="F72" s="26">
-        <v>44916</v>
+        <v>44944</v>
       </c>
       <c r="G72" s="26">
-        <v>44917</v>
+        <v>44945</v>
       </c>
       <c r="H72" s="26">
-        <v>44918</v>
+        <v>44946</v>
       </c>
       <c r="I72" s="26">
-        <v>44919</v>
+        <v>44947</v>
       </c>
       <c r="J72" s="26">
-        <v>44920</v>
+        <v>44948</v>
       </c>
       <c r="K72" s="27" t="s">
         <v>70</v>
@@ -2532,10 +2532,10 @@
     </row>
     <row r="73" spans="1:13" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="13"/>
-      <c r="B73" s="77" t="s">
+      <c r="B73" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="77"/>
+      <c r="C73" s="35"/>
       <c r="D73" s="28"/>
       <c r="E73" s="29"/>
       <c r="F73" s="30"/>
@@ -2549,8 +2549,8 @@
     </row>
     <row r="74" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A74" s="13"/>
-      <c r="B74" s="77"/>
-      <c r="C74" s="77"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
       <c r="D74" s="13"/>
       <c r="E74" s="31"/>
       <c r="F74" s="13"/>
@@ -2564,8 +2564,8 @@
     </row>
     <row r="75" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="1">
       <c r="A75" s="13"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="55"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="62"/>
       <c r="D75" s="32"/>
       <c r="E75" s="32"/>
       <c r="F75" s="13"/>
@@ -2579,8 +2579,8 @@
     </row>
     <row r="76" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
-      <c r="B76" s="56"/>
-      <c r="C76" s="56"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="63"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
@@ -2592,8 +2592,8 @@
     </row>
     <row r="77" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
-      <c r="B77" s="56"/>
-      <c r="C77" s="56"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="63"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
@@ -2605,8 +2605,8 @@
     </row>
     <row r="78" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="22"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="58"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="65"/>
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
       <c r="F78" s="24"/>
@@ -2618,8 +2618,8 @@
     </row>
     <row r="79" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="22"/>
-      <c r="B79" s="59"/>
-      <c r="C79" s="60"/>
+      <c r="B79" s="66"/>
+      <c r="C79" s="67"/>
       <c r="D79" s="22"/>
       <c r="E79" s="24"/>
       <c r="F79" s="22"/>
@@ -2631,8 +2631,8 @@
     </row>
     <row r="80" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="21"/>
-      <c r="B80" s="61"/>
-      <c r="C80" s="62"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="69"/>
       <c r="D80" s="20"/>
       <c r="E80" s="9"/>
       <c r="F80" s="21"/>
@@ -2644,8 +2644,8 @@
     </row>
     <row r="81" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="13"/>
-      <c r="B81" s="63"/>
-      <c r="C81" s="64"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="71"/>
       <c r="D81" s="13"/>
       <c r="E81" s="17"/>
       <c r="F81" s="13"/>
@@ -2657,8 +2657,8 @@
     </row>
     <row r="82" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="18"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="54"/>
+      <c r="B82" s="60"/>
+      <c r="C82" s="61"/>
       <c r="D82" s="13"/>
       <c r="E82" s="17"/>
       <c r="F82" s="13"/>
@@ -2670,8 +2670,8 @@
     </row>
     <row r="83" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="19"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="54"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="61"/>
       <c r="D83" s="13"/>
       <c r="E83" s="17"/>
       <c r="F83" s="13"/>
@@ -2682,44 +2682,44 @@
       <c r="K83" s="22"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="68" t="s">
+      <c r="A85" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="69"/>
-      <c r="C85" s="69"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="69"/>
-      <c r="F85" s="69"/>
-      <c r="G85" s="69"/>
-      <c r="H85" s="69"/>
-      <c r="I85" s="69"/>
-      <c r="J85" s="69"/>
-      <c r="K85" s="70"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="43"/>
+      <c r="K85" s="44"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="42" t="s">
+      <c r="A86" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B86" s="71"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="71"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="71"/>
-      <c r="I86" s="71"/>
-      <c r="J86" s="71"/>
-      <c r="K86" s="43"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="46"/>
+      <c r="K86" s="47"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="72" t="s">
+      <c r="B87" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="73"/>
-      <c r="D87" s="73"/>
-      <c r="E87" s="73"/>
-      <c r="F87" s="74"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="50"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
         <v>3</v>
@@ -2730,8 +2730,8 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="34"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="51"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -2745,10 +2745,10 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="37" t="s">
+      <c r="B89" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C89" s="37"/>
+      <c r="C89" s="52"/>
       <c r="D89" s="11" t="s">
         <v>25</v>
       </c>
@@ -2778,8 +2778,8 @@
       <c r="A90" s="1">
         <v>26</v>
       </c>
-      <c r="B90" s="36"/>
-      <c r="C90" s="36"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2793,8 +2793,8 @@
       <c r="A91" s="1">
         <v>27</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2808,8 +2808,8 @@
       <c r="A92" s="1">
         <v>28</v>
       </c>
-      <c r="B92" s="51"/>
-      <c r="C92" s="52"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="41"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2823,8 +2823,8 @@
       <c r="A93" s="1">
         <v>29</v>
       </c>
-      <c r="B93" s="51"/>
-      <c r="C93" s="52"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="41"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2838,8 +2838,8 @@
       <c r="A94" s="1">
         <v>30</v>
       </c>
-      <c r="B94" s="46"/>
-      <c r="C94" s="41"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="39"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2853,8 +2853,8 @@
       <c r="A95" s="1">
         <v>31</v>
       </c>
-      <c r="B95" s="46"/>
-      <c r="C95" s="41"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="39"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2868,8 +2868,8 @@
       <c r="A96" s="1">
         <v>32</v>
       </c>
-      <c r="B96" s="46"/>
-      <c r="C96" s="41"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="39"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2883,8 +2883,8 @@
       <c r="A97" s="1">
         <v>33</v>
       </c>
-      <c r="B97" s="51"/>
-      <c r="C97" s="52"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="41"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2898,8 +2898,8 @@
       <c r="A98" s="1">
         <v>34</v>
       </c>
-      <c r="B98" s="36"/>
-      <c r="C98" s="36"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="37"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2913,8 +2913,8 @@
       <c r="A99" s="1">
         <v>35</v>
       </c>
-      <c r="B99" s="36"/>
-      <c r="C99" s="36"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="37"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2928,8 +2928,8 @@
       <c r="A100" s="1">
         <v>36</v>
       </c>
-      <c r="B100" s="36"/>
-      <c r="C100" s="36"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="37"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -2941,58 +2941,38 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="A69:K69"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="A85:K85"/>
-    <mergeCell ref="A86:K86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B35:C35"/>
@@ -3009,40 +2989,60 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B38:F38"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="A85:K85"/>
+    <mergeCell ref="A86:K86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="E70:G70"/>
   </mergeCells>
-  <pageMargins left="0.47" right="0.25" top="3.67" bottom="0.17" header="0.27" footer="8.2200000000000006"/>
+  <pageMargins left="0.47" right="0.25" top="5.89" bottom="0.17" header="0.27" footer="8.2200000000000006"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -246,10 +246,10 @@
     <t>Lista de Nuevo Ingreso</t>
   </si>
   <si>
-    <t>Villegas Urbina Izamary de Jesus</t>
-  </si>
-  <si>
-    <t>SEMANA 03</t>
+    <t>SEMANA 06</t>
+  </si>
+  <si>
+    <t>Melchor Garcia Victor</t>
   </si>
 </sst>
 </file>
@@ -734,6 +734,129 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -746,131 +869,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1194,7 +1194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:K75"/>
     </sheetView>
   </sheetViews>
@@ -1213,44 +1213,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -1261,8 +1261,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1276,10 +1276,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1309,10 +1309,10 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1326,10 +1326,10 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1343,10 +1343,10 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1360,10 +1360,10 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1377,10 +1377,10 @@
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1394,10 +1394,10 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1411,10 +1411,10 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1428,10 +1428,10 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1445,10 +1445,10 @@
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1462,10 +1462,10 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1479,10 +1479,10 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1496,10 +1496,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="77"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1510,44 +1510,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1558,8 +1558,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="52"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1606,10 +1606,10 @@
       <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="37"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1625,10 +1625,10 @@
       <c r="A24" s="1">
         <v>14</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="37"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1644,10 +1644,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="78"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1663,10 +1663,10 @@
       <c r="A26" s="1">
         <v>16</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="39"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1682,10 +1682,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="39"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1701,10 +1701,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="55"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1720,10 +1720,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="55"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1739,10 +1739,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="39"/>
+      <c r="C30" s="41"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1758,10 +1758,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="39"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1777,10 +1777,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="73"/>
+      <c r="C32" s="48"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1796,10 +1796,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="50"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1815,10 +1815,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="47"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1834,10 +1834,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="47"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1850,44 +1850,44 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1898,8 +1898,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1913,10 +1913,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="52"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1946,10 +1946,10 @@
       <c r="A41" s="1">
         <v>26</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="37"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1965,10 +1965,10 @@
       <c r="A42" s="1">
         <v>27</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="37"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1984,10 +1984,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="41"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2003,10 +2003,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="41"/>
+      <c r="C44" s="52"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2022,10 +2022,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="39"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2041,10 +2041,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="39"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2060,10 +2060,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="39"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2079,10 +2079,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="41"/>
+      <c r="C48" s="52"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2098,10 +2098,10 @@
       <c r="A49" s="1">
         <v>34</v>
       </c>
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="37"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2117,10 +2117,10 @@
       <c r="A50" s="1">
         <v>35</v>
       </c>
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="37"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2136,10 +2136,10 @@
       <c r="A51" s="1">
         <v>36</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="37"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2155,10 +2155,10 @@
       <c r="A52" s="1">
         <v>37</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="37"/>
+      <c r="C52" s="36"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2169,44 +2169,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="51" t="s">
+      <c r="A54" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="51"/>
-      <c r="K54" s="51"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="59" t="s">
+      <c r="B55" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -2217,8 +2217,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2232,10 +2232,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="52"/>
+      <c r="C57" s="37"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2265,10 +2265,10 @@
       <c r="A58" s="1">
         <v>26</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="37"/>
+      <c r="C58" s="36"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2282,10 +2282,10 @@
       <c r="A59" s="1">
         <v>27</v>
       </c>
-      <c r="B59" s="37" t="s">
+      <c r="B59" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="37"/>
+      <c r="C59" s="36"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2299,10 +2299,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="41"/>
+      <c r="C60" s="52"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2316,10 +2316,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="41"/>
+      <c r="C61" s="52"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2333,10 +2333,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="39"/>
+      <c r="C62" s="41"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2350,10 +2350,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="39"/>
+      <c r="C63" s="41"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2367,10 +2367,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="39"/>
+      <c r="C64" s="41"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2384,10 +2384,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="41"/>
+      <c r="C65" s="52"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2401,10 +2401,10 @@
       <c r="A66" s="1">
         <v>34</v>
       </c>
-      <c r="B66" s="37" t="s">
+      <c r="B66" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="37"/>
+      <c r="C66" s="36"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -2418,10 +2418,10 @@
       <c r="A67" s="1">
         <v>35</v>
       </c>
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="37"/>
+      <c r="C67" s="36"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -2435,10 +2435,10 @@
       <c r="A68" s="12">
         <v>36</v>
       </c>
-      <c r="B68" s="57" t="s">
+      <c r="B68" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="57"/>
+      <c r="C68" s="66"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -2449,36 +2449,36 @@
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="36" t="s">
+      <c r="A69" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="77"/>
+      <c r="J69" s="77"/>
+      <c r="K69" s="77"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
-      <c r="B70" s="56">
+      <c r="B70" s="65">
         <f>D72</f>
-        <v>44942</v>
-      </c>
-      <c r="C70" s="56"/>
+        <v>44963</v>
+      </c>
+      <c r="C70" s="65"/>
       <c r="D70" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="53">
+      <c r="E70" s="78">
         <f>J72</f>
-        <v>44948</v>
-      </c>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
+        <v>44969</v>
+      </c>
+      <c r="F70" s="78"/>
+      <c r="G70" s="78"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
@@ -2486,8 +2486,8 @@
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="74"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
@@ -2499,30 +2499,30 @@
     </row>
     <row r="72" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
-      <c r="B72" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C72" s="34"/>
+      <c r="B72" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="75"/>
       <c r="D72" s="26">
-        <v>44942</v>
+        <v>44963</v>
       </c>
       <c r="E72" s="26">
-        <v>44943</v>
+        <v>44964</v>
       </c>
       <c r="F72" s="26">
-        <v>44944</v>
+        <v>44965</v>
       </c>
       <c r="G72" s="26">
-        <v>44945</v>
+        <v>44966</v>
       </c>
       <c r="H72" s="26">
-        <v>44946</v>
+        <v>44967</v>
       </c>
       <c r="I72" s="26">
-        <v>44947</v>
+        <v>44968</v>
       </c>
       <c r="J72" s="26">
-        <v>44948</v>
+        <v>44969</v>
       </c>
       <c r="K72" s="27" t="s">
         <v>70</v>
@@ -2532,10 +2532,10 @@
     </row>
     <row r="73" spans="1:13" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="13"/>
-      <c r="B73" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" s="35"/>
+      <c r="B73" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="76"/>
       <c r="D73" s="28"/>
       <c r="E73" s="29"/>
       <c r="F73" s="30"/>
@@ -2549,8 +2549,8 @@
     </row>
     <row r="74" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A74" s="13"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
+      <c r="B74" s="76"/>
+      <c r="C74" s="76"/>
       <c r="D74" s="13"/>
       <c r="E74" s="31"/>
       <c r="F74" s="13"/>
@@ -2564,8 +2564,8 @@
     </row>
     <row r="75" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="1">
       <c r="A75" s="13"/>
-      <c r="B75" s="62"/>
-      <c r="C75" s="62"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="55"/>
       <c r="D75" s="32"/>
       <c r="E75" s="32"/>
       <c r="F75" s="13"/>
@@ -2579,8 +2579,8 @@
     </row>
     <row r="76" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
-      <c r="B76" s="63"/>
-      <c r="C76" s="63"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="56"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
@@ -2592,8 +2592,8 @@
     </row>
     <row r="77" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="63"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="56"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
@@ -2605,8 +2605,8 @@
     </row>
     <row r="78" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="22"/>
-      <c r="B78" s="64"/>
-      <c r="C78" s="65"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="58"/>
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
       <c r="F78" s="24"/>
@@ -2618,8 +2618,8 @@
     </row>
     <row r="79" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="22"/>
-      <c r="B79" s="66"/>
-      <c r="C79" s="67"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="60"/>
       <c r="D79" s="22"/>
       <c r="E79" s="24"/>
       <c r="F79" s="22"/>
@@ -2631,8 +2631,8 @@
     </row>
     <row r="80" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="21"/>
-      <c r="B80" s="68"/>
-      <c r="C80" s="69"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="62"/>
       <c r="D80" s="20"/>
       <c r="E80" s="9"/>
       <c r="F80" s="21"/>
@@ -2644,8 +2644,8 @@
     </row>
     <row r="81" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="13"/>
-      <c r="B81" s="70"/>
-      <c r="C81" s="71"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="64"/>
       <c r="D81" s="13"/>
       <c r="E81" s="17"/>
       <c r="F81" s="13"/>
@@ -2657,8 +2657,8 @@
     </row>
     <row r="82" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="18"/>
-      <c r="B82" s="60"/>
-      <c r="C82" s="61"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="54"/>
       <c r="D82" s="13"/>
       <c r="E82" s="17"/>
       <c r="F82" s="13"/>
@@ -2670,8 +2670,8 @@
     </row>
     <row r="83" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="19"/>
-      <c r="B83" s="60"/>
-      <c r="C83" s="61"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="54"/>
       <c r="D83" s="13"/>
       <c r="E83" s="17"/>
       <c r="F83" s="13"/>
@@ -2682,44 +2682,44 @@
       <c r="K83" s="22"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="42" t="s">
+      <c r="A85" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="43"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="43"/>
-      <c r="J85" s="43"/>
-      <c r="K85" s="44"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="68"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="69"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="45" t="s">
+      <c r="A86" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B86" s="46"/>
-      <c r="C86" s="46"/>
-      <c r="D86" s="46"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="46"/>
-      <c r="J86" s="46"/>
-      <c r="K86" s="47"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="70"/>
+      <c r="D86" s="70"/>
+      <c r="E86" s="70"/>
+      <c r="F86" s="70"/>
+      <c r="G86" s="70"/>
+      <c r="H86" s="70"/>
+      <c r="I86" s="70"/>
+      <c r="J86" s="70"/>
+      <c r="K86" s="43"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="48" t="s">
+      <c r="B87" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49"/>
-      <c r="E87" s="49"/>
-      <c r="F87" s="50"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="73"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
         <v>3</v>
@@ -2730,8 +2730,8 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="51"/>
-      <c r="C88" s="51"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -2745,10 +2745,10 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="52" t="s">
+      <c r="B89" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C89" s="52"/>
+      <c r="C89" s="37"/>
       <c r="D89" s="11" t="s">
         <v>25</v>
       </c>
@@ -2778,8 +2778,8 @@
       <c r="A90" s="1">
         <v>26</v>
       </c>
-      <c r="B90" s="37"/>
-      <c r="C90" s="37"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2793,8 +2793,8 @@
       <c r="A91" s="1">
         <v>27</v>
       </c>
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2808,8 +2808,8 @@
       <c r="A92" s="1">
         <v>28</v>
       </c>
-      <c r="B92" s="40"/>
-      <c r="C92" s="41"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="52"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2823,8 +2823,8 @@
       <c r="A93" s="1">
         <v>29</v>
       </c>
-      <c r="B93" s="40"/>
-      <c r="C93" s="41"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="52"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2838,8 +2838,8 @@
       <c r="A94" s="1">
         <v>30</v>
       </c>
-      <c r="B94" s="38"/>
-      <c r="C94" s="39"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="41"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2853,8 +2853,8 @@
       <c r="A95" s="1">
         <v>31</v>
       </c>
-      <c r="B95" s="38"/>
-      <c r="C95" s="39"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="41"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2868,8 +2868,8 @@
       <c r="A96" s="1">
         <v>32</v>
       </c>
-      <c r="B96" s="38"/>
-      <c r="C96" s="39"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="41"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2883,8 +2883,8 @@
       <c r="A97" s="1">
         <v>33</v>
       </c>
-      <c r="B97" s="40"/>
-      <c r="C97" s="41"/>
+      <c r="B97" s="51"/>
+      <c r="C97" s="52"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2898,8 +2898,8 @@
       <c r="A98" s="1">
         <v>34</v>
       </c>
-      <c r="B98" s="37"/>
-      <c r="C98" s="37"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2913,8 +2913,8 @@
       <c r="A99" s="1">
         <v>35</v>
       </c>
-      <c r="B99" s="37"/>
-      <c r="C99" s="37"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="36"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2928,8 +2928,8 @@
       <c r="A100" s="1">
         <v>36</v>
       </c>
-      <c r="B100" s="37"/>
-      <c r="C100" s="37"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="36"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -2941,6 +2941,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="A85:K85"/>
+    <mergeCell ref="A86:K86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:F3"/>
@@ -2957,92 +3041,8 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A85:K85"/>
-    <mergeCell ref="A86:K86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="A69:K69"/>
-    <mergeCell ref="E70:G70"/>
   </mergeCells>
-  <pageMargins left="0.47" right="0.25" top="5.89" bottom="0.17" header="0.27" footer="8.2200000000000006"/>
+  <pageMargins left="0.47" right="0.25" top="5.82" bottom="0.17" header="0.27" footer="8.2200000000000006"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>Norma Ledo Parra</t>
   </si>
@@ -246,10 +246,7 @@
     <t>Lista de Nuevo Ingreso</t>
   </si>
   <si>
-    <t>SEMANA 06</t>
-  </si>
-  <si>
-    <t>Melchor Garcia Victor</t>
+    <t>SEMANA 09</t>
   </si>
 </sst>
 </file>
@@ -734,46 +731,121 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -788,89 +860,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1195,7 +1192,7 @@
   <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:K75"/>
+      <selection activeCell="L78" sqref="L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,44 +1210,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -1261,8 +1258,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1276,10 +1273,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1309,10 +1306,10 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1326,10 +1323,10 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="36"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1343,10 +1340,10 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1360,10 +1357,10 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="36"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1377,10 +1374,10 @@
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="36"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1394,10 +1391,10 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="36"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1411,10 +1408,10 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="36"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1428,10 +1425,10 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1445,10 +1442,10 @@
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="36"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1462,10 +1459,10 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1479,10 +1476,10 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="36"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1496,10 +1493,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="39"/>
+      <c r="C17" s="77"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1510,44 +1507,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1558,8 +1555,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1573,10 +1570,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="37"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1606,10 +1603,10 @@
       <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="36"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1625,10 +1622,10 @@
       <c r="A24" s="1">
         <v>14</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="36"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1644,10 +1641,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="40"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1663,10 +1660,10 @@
       <c r="A26" s="1">
         <v>16</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="41"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1682,10 +1679,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1701,10 +1698,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="45"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1720,10 +1717,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="45"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1739,10 +1736,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="41"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1758,10 +1755,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="41"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1777,10 +1774,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="48"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1796,10 +1793,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="50"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1815,10 +1812,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="43"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1834,10 +1831,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="43"/>
+      <c r="C35" s="48"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1850,44 +1847,44 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1898,8 +1895,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1913,10 +1910,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="37"/>
+      <c r="C40" s="53"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1946,10 +1943,10 @@
       <c r="A41" s="1">
         <v>26</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="36"/>
+      <c r="C41" s="38"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1965,10 +1962,10 @@
       <c r="A42" s="1">
         <v>27</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="36"/>
+      <c r="C42" s="38"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1984,10 +1981,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="52"/>
+      <c r="C43" s="42"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2003,10 +2000,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="52"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2022,10 +2019,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="41"/>
+      <c r="C45" s="40"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2041,10 +2038,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="41"/>
+      <c r="C46" s="40"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2060,10 +2057,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="41"/>
+      <c r="C47" s="40"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2079,10 +2076,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="52"/>
+      <c r="C48" s="42"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2098,10 +2095,10 @@
       <c r="A49" s="1">
         <v>34</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="36"/>
+      <c r="C49" s="38"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2117,10 +2114,10 @@
       <c r="A50" s="1">
         <v>35</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="36"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2136,10 +2133,10 @@
       <c r="A51" s="1">
         <v>36</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="36"/>
+      <c r="C51" s="38"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2155,10 +2152,10 @@
       <c r="A52" s="1">
         <v>37</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="36"/>
+      <c r="C52" s="38"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2169,44 +2166,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -2217,8 +2214,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2232,10 +2229,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="37"/>
+      <c r="C57" s="53"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2265,10 +2262,10 @@
       <c r="A58" s="1">
         <v>26</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="36"/>
+      <c r="C58" s="38"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2282,10 +2279,10 @@
       <c r="A59" s="1">
         <v>27</v>
       </c>
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="36"/>
+      <c r="C59" s="38"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2299,10 +2296,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="52"/>
+      <c r="C60" s="42"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2316,10 +2313,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="51" t="s">
+      <c r="B61" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="52"/>
+      <c r="C61" s="42"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2333,10 +2330,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="41"/>
+      <c r="C62" s="40"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2350,10 +2347,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="41"/>
+      <c r="C63" s="40"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2367,10 +2364,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="41"/>
+      <c r="C64" s="40"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2384,10 +2381,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="51" t="s">
+      <c r="B65" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="52"/>
+      <c r="C65" s="42"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2401,10 +2398,10 @@
       <c r="A66" s="1">
         <v>34</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="36"/>
+      <c r="C66" s="38"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -2418,10 +2415,10 @@
       <c r="A67" s="1">
         <v>35</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="36"/>
+      <c r="C67" s="38"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -2435,10 +2432,10 @@
       <c r="A68" s="12">
         <v>36</v>
       </c>
-      <c r="B68" s="66" t="s">
+      <c r="B68" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="66"/>
+      <c r="C68" s="57"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -2449,36 +2446,36 @@
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="77" t="s">
+      <c r="A69" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="77"/>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="77"/>
-      <c r="H69" s="77"/>
-      <c r="I69" s="77"/>
-      <c r="J69" s="77"/>
-      <c r="K69" s="77"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
-      <c r="B70" s="65">
+      <c r="B70" s="56">
         <f>D72</f>
-        <v>44963</v>
-      </c>
-      <c r="C70" s="65"/>
+        <v>44984</v>
+      </c>
+      <c r="C70" s="56"/>
       <c r="D70" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="78">
+      <c r="E70" s="37">
         <f>J72</f>
-        <v>44969</v>
-      </c>
-      <c r="F70" s="78"/>
-      <c r="G70" s="78"/>
+        <v>44990</v>
+      </c>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
@@ -2486,8 +2483,8 @@
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
-      <c r="B71" s="74"/>
-      <c r="C71" s="74"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
@@ -2499,30 +2496,30 @@
     </row>
     <row r="72" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
-      <c r="B72" s="75" t="s">
+      <c r="B72" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="75"/>
+      <c r="C72" s="34"/>
       <c r="D72" s="26">
-        <v>44963</v>
+        <v>44984</v>
       </c>
       <c r="E72" s="26">
-        <v>44964</v>
+        <v>44985</v>
       </c>
       <c r="F72" s="26">
-        <v>44965</v>
+        <v>44986</v>
       </c>
       <c r="G72" s="26">
-        <v>44966</v>
+        <v>44987</v>
       </c>
       <c r="H72" s="26">
-        <v>44967</v>
+        <v>44988</v>
       </c>
       <c r="I72" s="26">
-        <v>44968</v>
+        <v>44989</v>
       </c>
       <c r="J72" s="26">
-        <v>44969</v>
+        <v>44990</v>
       </c>
       <c r="K72" s="27" t="s">
         <v>70</v>
@@ -2532,10 +2529,8 @@
     </row>
     <row r="73" spans="1:13" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="13"/>
-      <c r="B73" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="C73" s="76"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
       <c r="D73" s="28"/>
       <c r="E73" s="29"/>
       <c r="F73" s="30"/>
@@ -2549,8 +2544,8 @@
     </row>
     <row r="74" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A74" s="13"/>
-      <c r="B74" s="76"/>
-      <c r="C74" s="76"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
       <c r="D74" s="13"/>
       <c r="E74" s="31"/>
       <c r="F74" s="13"/>
@@ -2564,8 +2559,8 @@
     </row>
     <row r="75" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="1">
       <c r="A75" s="13"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="55"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="60"/>
       <c r="D75" s="32"/>
       <c r="E75" s="32"/>
       <c r="F75" s="13"/>
@@ -2579,8 +2574,8 @@
     </row>
     <row r="76" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
-      <c r="B76" s="56"/>
-      <c r="C76" s="56"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="61"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
@@ -2592,8 +2587,8 @@
     </row>
     <row r="77" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
-      <c r="B77" s="56"/>
-      <c r="C77" s="56"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="61"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
@@ -2605,8 +2600,8 @@
     </row>
     <row r="78" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="22"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="58"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="63"/>
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
       <c r="F78" s="24"/>
@@ -2618,8 +2613,8 @@
     </row>
     <row r="79" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="22"/>
-      <c r="B79" s="59"/>
-      <c r="C79" s="60"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="65"/>
       <c r="D79" s="22"/>
       <c r="E79" s="24"/>
       <c r="F79" s="22"/>
@@ -2631,8 +2626,8 @@
     </row>
     <row r="80" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="21"/>
-      <c r="B80" s="61"/>
-      <c r="C80" s="62"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="67"/>
       <c r="D80" s="20"/>
       <c r="E80" s="9"/>
       <c r="F80" s="21"/>
@@ -2644,8 +2639,8 @@
     </row>
     <row r="81" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="13"/>
-      <c r="B81" s="63"/>
-      <c r="C81" s="64"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="69"/>
       <c r="D81" s="13"/>
       <c r="E81" s="17"/>
       <c r="F81" s="13"/>
@@ -2657,8 +2652,8 @@
     </row>
     <row r="82" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="18"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="54"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="59"/>
       <c r="D82" s="13"/>
       <c r="E82" s="17"/>
       <c r="F82" s="13"/>
@@ -2670,8 +2665,8 @@
     </row>
     <row r="83" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="19"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="54"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="59"/>
       <c r="D83" s="13"/>
       <c r="E83" s="17"/>
       <c r="F83" s="13"/>
@@ -2682,44 +2677,44 @@
       <c r="K83" s="22"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="67" t="s">
+      <c r="A85" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="68"/>
-      <c r="H85" s="68"/>
-      <c r="I85" s="68"/>
-      <c r="J85" s="68"/>
-      <c r="K85" s="69"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="45"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="42" t="s">
+      <c r="A86" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B86" s="70"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="70"/>
-      <c r="G86" s="70"/>
-      <c r="H86" s="70"/>
-      <c r="I86" s="70"/>
-      <c r="J86" s="70"/>
-      <c r="K86" s="43"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="47"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="47"/>
+      <c r="K86" s="48"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="71" t="s">
+      <c r="B87" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="72"/>
-      <c r="D87" s="72"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="73"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="51"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
         <v>3</v>
@@ -2730,8 +2725,8 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="34"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="52"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -2745,10 +2740,10 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="37" t="s">
+      <c r="B89" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C89" s="37"/>
+      <c r="C89" s="53"/>
       <c r="D89" s="11" t="s">
         <v>25</v>
       </c>
@@ -2778,8 +2773,8 @@
       <c r="A90" s="1">
         <v>26</v>
       </c>
-      <c r="B90" s="36"/>
-      <c r="C90" s="36"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2793,8 +2788,8 @@
       <c r="A91" s="1">
         <v>27</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2808,8 +2803,8 @@
       <c r="A92" s="1">
         <v>28</v>
       </c>
-      <c r="B92" s="51"/>
-      <c r="C92" s="52"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="42"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2823,8 +2818,8 @@
       <c r="A93" s="1">
         <v>29</v>
       </c>
-      <c r="B93" s="51"/>
-      <c r="C93" s="52"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="42"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2838,8 +2833,8 @@
       <c r="A94" s="1">
         <v>30</v>
       </c>
-      <c r="B94" s="46"/>
-      <c r="C94" s="41"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="40"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2853,8 +2848,8 @@
       <c r="A95" s="1">
         <v>31</v>
       </c>
-      <c r="B95" s="46"/>
-      <c r="C95" s="41"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="40"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2868,8 +2863,8 @@
       <c r="A96" s="1">
         <v>32</v>
       </c>
-      <c r="B96" s="46"/>
-      <c r="C96" s="41"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="40"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2883,8 +2878,8 @@
       <c r="A97" s="1">
         <v>33</v>
       </c>
-      <c r="B97" s="51"/>
-      <c r="C97" s="52"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="42"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2898,8 +2893,8 @@
       <c r="A98" s="1">
         <v>34</v>
       </c>
-      <c r="B98" s="36"/>
-      <c r="C98" s="36"/>
+      <c r="B98" s="38"/>
+      <c r="C98" s="38"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2913,8 +2908,8 @@
       <c r="A99" s="1">
         <v>35</v>
       </c>
-      <c r="B99" s="36"/>
-      <c r="C99" s="36"/>
+      <c r="B99" s="38"/>
+      <c r="C99" s="38"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2928,8 +2923,8 @@
       <c r="A100" s="1">
         <v>36</v>
       </c>
-      <c r="B100" s="36"/>
-      <c r="C100" s="36"/>
+      <c r="B100" s="38"/>
+      <c r="C100" s="38"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -2941,54 +2936,42 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="A69:K69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="A85:K85"/>
-    <mergeCell ref="A86:K86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B41:C41"/>
@@ -3005,44 +2988,56 @@
     <mergeCell ref="B38:F38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A85:K85"/>
+    <mergeCell ref="A86:K86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="B70:C70"/>
   </mergeCells>
-  <pageMargins left="0.47" right="0.25" top="5.82" bottom="0.17" header="0.27" footer="8.2200000000000006"/>
+  <pageMargins left="0.47" right="0.25" top="5.51" bottom="0.17" header="0.27" footer="8.2200000000000006"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC MASTER RACE\Documents\GitHub\Cortes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programas\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -246,7 +246,7 @@
     <t>Lista de Nuevo Ingreso</t>
   </si>
   <si>
-    <t>SEMANA 09</t>
+    <t>Semana 41</t>
   </si>
 </sst>
 </file>
@@ -258,7 +258,7 @@
     <numFmt numFmtId="165" formatCode="dddd\ mm"/>
     <numFmt numFmtId="166" formatCode="dddd\ dd"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,20 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -372,7 +358,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -543,46 +529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -641,33 +587,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -705,34 +629,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -746,20 +750,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -770,104 +762,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1189,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L78" sqref="L78"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,7 +1097,7 @@
     <col min="2" max="2" width="5.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
@@ -1210,44 +1106,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -1258,8 +1154,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1273,10 +1169,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="53"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1306,10 +1202,10 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1323,10 +1219,10 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="38"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1340,10 +1236,10 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="38"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1357,10 +1253,10 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="38"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1374,10 +1270,10 @@
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="38"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1391,10 +1287,10 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1408,10 +1304,10 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="38"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1425,10 +1321,10 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1442,10 +1338,10 @@
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="38"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1459,10 +1355,10 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="38"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1476,10 +1372,10 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1493,10 +1389,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="77"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1507,44 +1403,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1555,8 +1451,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1570,10 +1466,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="53"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1603,10 +1499,10 @@
       <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="38"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1622,10 +1518,10 @@
       <c r="A24" s="1">
         <v>14</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="38"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1641,10 +1537,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="78"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1660,10 +1556,10 @@
       <c r="A26" s="1">
         <v>16</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="40"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1679,10 +1575,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="40"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1698,10 +1594,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="71"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1717,10 +1613,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="71"/>
+      <c r="C29" s="42"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1736,10 +1632,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="40"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1755,10 +1651,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="40"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1774,10 +1670,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="73"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1793,10 +1689,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1812,10 +1708,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="48"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1831,10 +1727,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="48"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1847,44 +1743,44 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1895,8 +1791,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1910,10 +1806,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="53"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1943,10 +1839,10 @@
       <c r="A41" s="1">
         <v>26</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="38"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1962,10 +1858,10 @@
       <c r="A42" s="1">
         <v>27</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="38"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1981,10 +1877,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="42"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2000,10 +1896,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="42"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2019,10 +1915,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="40"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2038,10 +1934,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="40"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2057,10 +1953,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="40"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2076,10 +1972,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="42"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2095,10 +1991,10 @@
       <c r="A49" s="1">
         <v>34</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="38"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2114,10 +2010,10 @@
       <c r="A50" s="1">
         <v>35</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="38"/>
+      <c r="C50" s="33"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2133,10 +2029,10 @@
       <c r="A51" s="1">
         <v>36</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="38"/>
+      <c r="C51" s="33"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2152,10 +2048,10 @@
       <c r="A52" s="1">
         <v>37</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="38"/>
+      <c r="C52" s="33"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2166,44 +2062,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="52" t="s">
+      <c r="A54" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="52"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -2214,8 +2110,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="52"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2229,10 +2125,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="53"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2262,10 +2158,10 @@
       <c r="A58" s="1">
         <v>26</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="38"/>
+      <c r="C58" s="33"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2279,10 +2175,10 @@
       <c r="A59" s="1">
         <v>27</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="38"/>
+      <c r="C59" s="33"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2296,10 +2192,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="42"/>
+      <c r="C60" s="49"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2313,10 +2209,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="42"/>
+      <c r="C61" s="49"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2330,10 +2226,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="40"/>
+      <c r="C62" s="38"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2347,10 +2243,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="40"/>
+      <c r="C63" s="38"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2364,10 +2260,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="39" t="s">
+      <c r="B64" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="40"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2381,10 +2277,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="41" t="s">
+      <c r="B65" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="42"/>
+      <c r="C65" s="49"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2398,10 +2294,10 @@
       <c r="A66" s="1">
         <v>34</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="38"/>
+      <c r="C66" s="33"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -2415,10 +2311,10 @@
       <c r="A67" s="1">
         <v>35</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="38"/>
+      <c r="C67" s="33"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -2432,10 +2328,10 @@
       <c r="A68" s="12">
         <v>36</v>
       </c>
-      <c r="B68" s="57" t="s">
+      <c r="B68" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="57"/>
+      <c r="C68" s="50"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -2446,108 +2342,117 @@
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="36" t="s">
+      <c r="A69" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="62"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
-      <c r="B70" s="56">
-        <f>D72</f>
-        <v>44984</v>
-      </c>
-      <c r="C70" s="56"/>
-      <c r="D70" s="25" t="s">
+      <c r="B70" s="64">
+        <f>D71</f>
+        <v>45208</v>
+      </c>
+      <c r="C70" s="64"/>
+      <c r="D70" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="37">
-        <f>J72</f>
-        <v>44990</v>
-      </c>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
+      <c r="E70" s="63">
+        <f>J71</f>
+        <v>45214</v>
+      </c>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
     </row>
-    <row r="71" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
-    </row>
-    <row r="72" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="60"/>
+      <c r="D71" s="23">
+        <f>DATE(2023,10,9)</f>
+        <v>45208</v>
+      </c>
+      <c r="E71" s="23">
+        <f t="shared" ref="E71:J71" si="0">D71+1</f>
+        <v>45209</v>
+      </c>
+      <c r="F71" s="23">
+        <f t="shared" si="0"/>
+        <v>45210</v>
+      </c>
+      <c r="G71" s="23">
+        <f t="shared" si="0"/>
+        <v>45211</v>
+      </c>
+      <c r="H71" s="23">
+        <f t="shared" si="0"/>
+        <v>45212</v>
+      </c>
+      <c r="I71" s="23">
+        <f t="shared" si="0"/>
+        <v>45213</v>
+      </c>
+      <c r="J71" s="23">
+        <f t="shared" si="0"/>
+        <v>45214</v>
+      </c>
+      <c r="K71" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L71" s="14"/>
+      <c r="M71" s="9"/>
+    </row>
+    <row r="72" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
-      <c r="B72" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="34"/>
-      <c r="D72" s="26">
-        <v>44984</v>
-      </c>
-      <c r="E72" s="26">
-        <v>44985</v>
-      </c>
-      <c r="F72" s="26">
-        <v>44986</v>
-      </c>
-      <c r="G72" s="26">
-        <v>44987</v>
-      </c>
-      <c r="H72" s="26">
-        <v>44988</v>
-      </c>
-      <c r="I72" s="26">
-        <v>44989</v>
-      </c>
-      <c r="J72" s="26">
-        <v>44990</v>
-      </c>
-      <c r="K72" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="L72" s="14"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="9"/>
       <c r="M72" s="9"/>
     </row>
-    <row r="73" spans="1:13" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A73" s="13"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
       <c r="H73" s="13"/>
       <c r="I73" s="13"/>
       <c r="J73" s="13"/>
       <c r="K73" s="13"/>
-      <c r="L73" s="9"/>
+      <c r="L73" s="14"/>
       <c r="M73" s="9"/>
     </row>
-    <row r="74" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="1">
       <c r="A74" s="13"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="31"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
@@ -2557,25 +2462,23 @@
       <c r="L74" s="14"/>
       <c r="M74" s="9"/>
     </row>
-    <row r="75" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="1">
+    <row r="75" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
       <c r="I75" s="13"/>
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="9"/>
-    </row>
-    <row r="76" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="61"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
@@ -2585,10 +2488,10 @@
       <c r="J76" s="13"/>
       <c r="K76" s="13"/>
     </row>
-    <row r="77" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
-      <c r="B77" s="61"/>
-      <c r="C77" s="61"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
@@ -2599,48 +2502,48 @@
       <c r="K77" s="13"/>
     </row>
     <row r="78" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="22"/>
-      <c r="B78" s="62"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="22"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
     </row>
     <row r="79" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="22"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="23"/>
-      <c r="K79" s="22"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
     </row>
     <row r="80" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="21"/>
-      <c r="B80" s="66"/>
-      <c r="C80" s="67"/>
+      <c r="A80" s="20"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="59"/>
       <c r="D80" s="20"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="20"/>
-      <c r="K80" s="21"/>
-    </row>
-    <row r="81" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="13"/>
-      <c r="B81" s="68"/>
-      <c r="C81" s="69"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="20"/>
+    </row>
+    <row r="81" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="18"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="55"/>
       <c r="D81" s="13"/>
       <c r="E81" s="17"/>
       <c r="F81" s="13"/>
@@ -2650,74 +2553,76 @@
       <c r="J81" s="15"/>
       <c r="K81" s="13"/>
     </row>
-    <row r="82" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="18"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="59"/>
+    <row r="82" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="19"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="55"/>
       <c r="D82" s="13"/>
       <c r="E82" s="17"/>
       <c r="F82" s="13"/>
-      <c r="G82" s="15"/>
+      <c r="G82" s="13"/>
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="13"/>
-    </row>
-    <row r="83" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="19"/>
-      <c r="B83" s="58"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="23"/>
-      <c r="K83" s="22"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="20"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="66"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="66"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="66"/>
+      <c r="K84" s="67"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="44"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="44"/>
-      <c r="K85" s="45"/>
+      <c r="A85" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="68"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="40"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B86" s="47"/>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="47"/>
-      <c r="J86" s="47"/>
-      <c r="K86" s="48"/>
+      <c r="A86" s="1"/>
+      <c r="B86" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="50"/>
-      <c r="D87" s="50"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="51"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -2725,56 +2630,56 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="52"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
+      <c r="B88" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="34"/>
+      <c r="D88" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C89" s="53"/>
-      <c r="D89" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E89" s="11" t="s">
+      <c r="A89" s="1">
         <v>26</v>
       </c>
-      <c r="F89" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H89" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I89" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J89" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K89" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>26</v>
-      </c>
-      <c r="B90" s="38"/>
-      <c r="C90" s="38"/>
+        <v>27</v>
+      </c>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2786,10 +2691,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>27</v>
-      </c>
-      <c r="B91" s="38"/>
-      <c r="C91" s="38"/>
+        <v>28</v>
+      </c>
+      <c r="B91" s="48"/>
+      <c r="C91" s="49"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2801,10 +2706,10 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>28</v>
-      </c>
-      <c r="B92" s="41"/>
-      <c r="C92" s="42"/>
+        <v>29</v>
+      </c>
+      <c r="B92" s="48"/>
+      <c r="C92" s="49"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2816,10 +2721,10 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>29</v>
-      </c>
-      <c r="B93" s="41"/>
-      <c r="C93" s="42"/>
+        <v>30</v>
+      </c>
+      <c r="B93" s="43"/>
+      <c r="C93" s="38"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2831,10 +2736,10 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>30</v>
-      </c>
-      <c r="B94" s="39"/>
-      <c r="C94" s="40"/>
+        <v>31</v>
+      </c>
+      <c r="B94" s="43"/>
+      <c r="C94" s="38"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2846,10 +2751,10 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>31</v>
-      </c>
-      <c r="B95" s="39"/>
-      <c r="C95" s="40"/>
+        <v>32</v>
+      </c>
+      <c r="B95" s="43"/>
+      <c r="C95" s="38"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2861,10 +2766,10 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>32</v>
-      </c>
-      <c r="B96" s="39"/>
-      <c r="C96" s="40"/>
+        <v>33</v>
+      </c>
+      <c r="B96" s="48"/>
+      <c r="C96" s="49"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2876,10 +2781,10 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>33</v>
-      </c>
-      <c r="B97" s="41"/>
-      <c r="C97" s="42"/>
+        <v>34</v>
+      </c>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2891,10 +2796,10 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>34</v>
-      </c>
-      <c r="B98" s="38"/>
-      <c r="C98" s="38"/>
+        <v>35</v>
+      </c>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2906,10 +2811,10 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>35</v>
-      </c>
-      <c r="B99" s="38"/>
-      <c r="C99" s="38"/>
+        <v>36</v>
+      </c>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2919,23 +2824,91 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>36</v>
-      </c>
-      <c r="B100" s="38"/>
-      <c r="C100" s="38"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="100">
+  <mergeCells count="99">
+    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="A84:K84"/>
+    <mergeCell ref="A85:K85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:F3"/>
@@ -2952,197 +2925,26 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="A85:K85"/>
-    <mergeCell ref="A86:K86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="A69:K69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="B70:C70"/>
   </mergeCells>
-  <pageMargins left="0.47" right="0.25" top="5.51" bottom="0.17" header="0.27" footer="8.2200000000000006"/>
+  <pageMargins left="0.41" right="0" top="4.26" bottom="0" header="0.28999999999999998" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="16">
-        <v>44851</v>
-      </c>
-      <c r="B1" s="16">
-        <v>44857</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>44858</v>
-      </c>
-      <c r="B2" s="16">
-        <v>44864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <v>44865</v>
-      </c>
-      <c r="B3" s="16">
-        <v>44871</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>44872</v>
-      </c>
-      <c r="B4" s="16">
-        <v>44878</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>44879</v>
-      </c>
-      <c r="B5" s="16">
-        <v>44885</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>44886</v>
-      </c>
-      <c r="B6" s="16">
-        <v>44892</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>44893</v>
-      </c>
-      <c r="B7" s="16">
-        <v>44899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>44900</v>
-      </c>
-      <c r="B8" s="16">
-        <v>44906</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>44907</v>
-      </c>
-      <c r="B9" s="16">
-        <v>44913</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>44914</v>
-      </c>
-      <c r="B10" s="16">
-        <v>44920</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <v>44921</v>
-      </c>
-      <c r="B11" s="16">
-        <v>44927</v>
-      </c>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
   <si>
     <t>Norma Ledo Parra</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>Semana 41</t>
+  </si>
+  <si>
+    <t>Araus Avedaño Luis Felix</t>
   </si>
 </sst>
 </file>
@@ -648,20 +651,113 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -671,99 +767,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1088,7 +1091,7 @@
   <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:K76"/>
+      <selection activeCell="B72" sqref="B72:K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,44 +1109,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -1154,8 +1157,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1169,10 +1172,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1389,10 +1392,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1403,44 +1406,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1451,8 +1454,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1466,10 +1469,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="34"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1537,10 +1540,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1559,7 +1562,7 @@
       <c r="B26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="38"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1575,10 +1578,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="38"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1594,10 +1597,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="42"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1613,10 +1616,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="42"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1632,10 +1635,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="38"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1651,10 +1654,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="38"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1670,10 +1673,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="45"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1689,10 +1692,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="47"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1708,10 +1711,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="40"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1727,10 +1730,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="40"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1743,44 +1746,44 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1791,8 +1794,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1806,10 +1809,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="34"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1877,10 +1880,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="49"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1896,10 +1899,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="49"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1915,10 +1918,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="38"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1934,10 +1937,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="38"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1953,10 +1956,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="38"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1972,10 +1975,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="49"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2062,44 +2065,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -2110,8 +2113,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2125,10 +2128,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="34"/>
+      <c r="C57" s="48"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2192,10 +2195,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="49"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2209,10 +2212,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="49"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2226,10 +2229,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="38"/>
+      <c r="C62" s="35"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2243,10 +2246,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="38"/>
+      <c r="C63" s="35"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2260,10 +2263,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="38"/>
+      <c r="C64" s="35"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2277,10 +2280,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="49"/>
+      <c r="C65" s="37"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2328,10 +2331,10 @@
       <c r="A68" s="12">
         <v>36</v>
       </c>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="50"/>
+      <c r="C68" s="59"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -2342,36 +2345,36 @@
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="62"/>
-      <c r="K69" s="62"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
-      <c r="B70" s="64">
+      <c r="B70" s="32">
         <f>D71</f>
-        <v>45208</v>
-      </c>
-      <c r="C70" s="64"/>
+        <v>45222</v>
+      </c>
+      <c r="C70" s="32"/>
       <c r="D70" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="63">
+      <c r="E70" s="31">
         <f>J71</f>
-        <v>45214</v>
-      </c>
-      <c r="F70" s="63"/>
-      <c r="G70" s="63"/>
+        <v>45228</v>
+      </c>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
@@ -2379,37 +2382,37 @@
     </row>
     <row r="71" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
-      <c r="B71" s="60" t="s">
+      <c r="B71" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="60"/>
+      <c r="C71" s="55"/>
       <c r="D71" s="23">
-        <f>DATE(2023,10,9)</f>
-        <v>45208</v>
+        <f>DATE(2023,10,23)</f>
+        <v>45222</v>
       </c>
       <c r="E71" s="23">
         <f t="shared" ref="E71:J71" si="0">D71+1</f>
-        <v>45209</v>
+        <v>45223</v>
       </c>
       <c r="F71" s="23">
         <f t="shared" si="0"/>
-        <v>45210</v>
+        <v>45224</v>
       </c>
       <c r="G71" s="23">
         <f t="shared" si="0"/>
-        <v>45211</v>
+        <v>45225</v>
       </c>
       <c r="H71" s="23">
         <f t="shared" si="0"/>
-        <v>45212</v>
+        <v>45226</v>
       </c>
       <c r="I71" s="23">
         <f t="shared" si="0"/>
-        <v>45213</v>
+        <v>45227</v>
       </c>
       <c r="J71" s="23">
         <f t="shared" si="0"/>
-        <v>45214</v>
+        <v>45228</v>
       </c>
       <c r="K71" s="24" t="s">
         <v>70</v>
@@ -2419,8 +2422,10 @@
     </row>
     <row r="72" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="61"/>
+      <c r="B72" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="56"/>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
@@ -2434,8 +2439,8 @@
     </row>
     <row r="73" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A73" s="13"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="61"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="56"/>
       <c r="D73" s="13"/>
       <c r="E73" s="26"/>
       <c r="F73" s="13"/>
@@ -2449,8 +2454,8 @@
     </row>
     <row r="74" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="1">
       <c r="A74" s="13"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="56"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="51"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="13"/>
@@ -2464,8 +2469,8 @@
     </row>
     <row r="75" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="52"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
@@ -2477,8 +2482,8 @@
     </row>
     <row r="76" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
@@ -2490,8 +2495,8 @@
     </row>
     <row r="77" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="57"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="52"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
@@ -2503,8 +2508,8 @@
     </row>
     <row r="78" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="52"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
@@ -2516,8 +2521,8 @@
     </row>
     <row r="79" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="57"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="52"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
@@ -2529,8 +2534,8 @@
     </row>
     <row r="80" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="59"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="54"/>
       <c r="D80" s="20"/>
       <c r="E80" s="22"/>
       <c r="F80" s="20"/>
@@ -2542,8 +2547,8 @@
     </row>
     <row r="81" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="55"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="50"/>
       <c r="D81" s="13"/>
       <c r="E81" s="17"/>
       <c r="F81" s="13"/>
@@ -2555,8 +2560,8 @@
     </row>
     <row r="82" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="55"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="50"/>
       <c r="D82" s="13"/>
       <c r="E82" s="17"/>
       <c r="F82" s="13"/>
@@ -2567,44 +2572,44 @@
       <c r="K82" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="65" t="s">
+      <c r="A84" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="66"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="66"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="66"/>
-      <c r="J84" s="66"/>
-      <c r="K84" s="67"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="40"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="39" t="s">
+      <c r="A85" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="68"/>
-      <c r="H85" s="68"/>
-      <c r="I85" s="68"/>
-      <c r="J85" s="68"/>
-      <c r="K85" s="40"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="43"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="51" t="s">
+      <c r="B86" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="52"/>
-      <c r="D86" s="52"/>
-      <c r="E86" s="52"/>
-      <c r="F86" s="53"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="46"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
         <v>3</v>
@@ -2615,8 +2620,8 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="47"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -2630,10 +2635,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="34" t="s">
+      <c r="B88" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="34"/>
+      <c r="C88" s="48"/>
       <c r="D88" s="11" t="s">
         <v>25</v>
       </c>
@@ -2693,8 +2698,8 @@
       <c r="A91" s="1">
         <v>28</v>
       </c>
-      <c r="B91" s="48"/>
-      <c r="C91" s="49"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="37"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2708,8 +2713,8 @@
       <c r="A92" s="1">
         <v>29</v>
       </c>
-      <c r="B92" s="48"/>
-      <c r="C92" s="49"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="37"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2723,8 +2728,8 @@
       <c r="A93" s="1">
         <v>30</v>
       </c>
-      <c r="B93" s="43"/>
-      <c r="C93" s="38"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="35"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2738,8 +2743,8 @@
       <c r="A94" s="1">
         <v>31</v>
       </c>
-      <c r="B94" s="43"/>
-      <c r="C94" s="38"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="35"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2753,8 +2758,8 @@
       <c r="A95" s="1">
         <v>32</v>
       </c>
-      <c r="B95" s="43"/>
-      <c r="C95" s="38"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="35"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2768,8 +2773,8 @@
       <c r="A96" s="1">
         <v>33</v>
       </c>
-      <c r="B96" s="48"/>
-      <c r="C96" s="49"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="37"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2826,6 +2831,89 @@
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B72:C72"/>
     <mergeCell ref="A69:K69"/>
     <mergeCell ref="E70:G70"/>
     <mergeCell ref="B70:C70"/>
@@ -2842,91 +2930,8 @@
     <mergeCell ref="B93:C93"/>
     <mergeCell ref="A84:K84"/>
     <mergeCell ref="A85:K85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
-  <pageMargins left="0.41" right="0" top="4.26" bottom="0" header="0.28999999999999998" footer="0"/>
+  <pageMargins left="0.41" right="0" top="5.61" bottom="0" header="0.28999999999999998" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -246,10 +246,10 @@
     <t>Lista de Nuevo Ingreso</t>
   </si>
   <si>
-    <t>Semana 41</t>
-  </si>
-  <si>
-    <t>Araus Avedaño Luis Felix</t>
+    <t>Villanueva Flores Job</t>
+  </si>
+  <si>
+    <t>Semana 42</t>
   </si>
 </sst>
 </file>
@@ -651,6 +651,102 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -660,21 +756,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -684,89 +765,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1090,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72:K75"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,44 +1109,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -1157,8 +1157,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1172,10 +1172,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="48"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1392,10 +1392,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1406,44 +1406,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1454,8 +1454,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1469,10 +1469,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="48"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1540,10 +1540,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="68"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1562,7 +1562,7 @@
       <c r="B26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="35"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1578,10 +1578,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="35"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1597,10 +1597,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1616,10 +1616,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="61"/>
+      <c r="C29" s="42"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1635,10 +1635,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="35"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1654,10 +1654,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="35"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1673,10 +1673,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="63"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1692,10 +1692,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="65"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1711,10 +1711,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="43"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1730,10 +1730,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="43"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1746,44 +1746,44 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1794,8 +1794,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1809,10 +1809,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="48"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1880,10 +1880,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="37"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1899,10 +1899,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="37"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1918,10 +1918,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="35"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1937,10 +1937,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="35"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1956,10 +1956,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="35"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1975,10 +1975,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="37"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2065,44 +2065,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="57" t="s">
+      <c r="A53" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -2113,8 +2113,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2128,10 +2128,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="48" t="s">
+      <c r="B57" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="48"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2195,10 +2195,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="37"/>
+      <c r="C60" s="49"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2212,10 +2212,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="37"/>
+      <c r="C61" s="49"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2229,10 +2229,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="35"/>
+      <c r="C62" s="38"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2246,10 +2246,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="35"/>
+      <c r="C63" s="38"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2263,10 +2263,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="35"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2280,10 +2280,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="37"/>
+      <c r="C65" s="49"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2331,10 +2331,10 @@
       <c r="A68" s="12">
         <v>36</v>
       </c>
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="59"/>
+      <c r="C68" s="50"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -2345,36 +2345,36 @@
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="62"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
-      <c r="B70" s="32">
+      <c r="B70" s="64">
         <f>D71</f>
-        <v>45222</v>
-      </c>
-      <c r="C70" s="32"/>
+        <v>45215</v>
+      </c>
+      <c r="C70" s="64"/>
       <c r="D70" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="31">
+      <c r="E70" s="63">
         <f>J71</f>
-        <v>45228</v>
-      </c>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
+        <v>45221</v>
+      </c>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
@@ -2382,37 +2382,37 @@
     </row>
     <row r="71" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
-      <c r="B71" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" s="55"/>
+      <c r="B71" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="60"/>
       <c r="D71" s="23">
-        <f>DATE(2023,10,23)</f>
-        <v>45222</v>
+        <f>DATE(2023,10,16)</f>
+        <v>45215</v>
       </c>
       <c r="E71" s="23">
         <f t="shared" ref="E71:J71" si="0">D71+1</f>
-        <v>45223</v>
+        <v>45216</v>
       </c>
       <c r="F71" s="23">
         <f t="shared" si="0"/>
-        <v>45224</v>
+        <v>45217</v>
       </c>
       <c r="G71" s="23">
         <f t="shared" si="0"/>
-        <v>45225</v>
+        <v>45218</v>
       </c>
       <c r="H71" s="23">
         <f t="shared" si="0"/>
-        <v>45226</v>
+        <v>45219</v>
       </c>
       <c r="I71" s="23">
         <f t="shared" si="0"/>
-        <v>45227</v>
+        <v>45220</v>
       </c>
       <c r="J71" s="23">
         <f t="shared" si="0"/>
-        <v>45228</v>
+        <v>45221</v>
       </c>
       <c r="K71" s="24" t="s">
         <v>70</v>
@@ -2422,10 +2422,10 @@
     </row>
     <row r="72" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
-      <c r="B72" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C72" s="56"/>
+      <c r="B72" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="61"/>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
@@ -2439,8 +2439,8 @@
     </row>
     <row r="73" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A73" s="13"/>
-      <c r="B73" s="56"/>
-      <c r="C73" s="56"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="61"/>
       <c r="D73" s="13"/>
       <c r="E73" s="26"/>
       <c r="F73" s="13"/>
@@ -2454,8 +2454,8 @@
     </row>
     <row r="74" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="1">
       <c r="A74" s="13"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="51"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="13"/>
@@ -2469,8 +2469,8 @@
     </row>
     <row r="75" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="52"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
@@ -2482,8 +2482,8 @@
     </row>
     <row r="76" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="52"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
@@ -2495,8 +2495,8 @@
     </row>
     <row r="77" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="52"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
@@ -2508,8 +2508,8 @@
     </row>
     <row r="78" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
-      <c r="B78" s="52"/>
-      <c r="C78" s="52"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="57"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
@@ -2521,8 +2521,8 @@
     </row>
     <row r="79" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="52"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
@@ -2534,8 +2534,8 @@
     </row>
     <row r="80" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="54"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="59"/>
       <c r="D80" s="20"/>
       <c r="E80" s="22"/>
       <c r="F80" s="20"/>
@@ -2547,8 +2547,8 @@
     </row>
     <row r="81" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="50"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="55"/>
       <c r="D81" s="13"/>
       <c r="E81" s="17"/>
       <c r="F81" s="13"/>
@@ -2560,8 +2560,8 @@
     </row>
     <row r="82" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="50"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="55"/>
       <c r="D82" s="13"/>
       <c r="E82" s="17"/>
       <c r="F82" s="13"/>
@@ -2572,44 +2572,44 @@
       <c r="K82" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="38" t="s">
+      <c r="A84" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="40"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="66"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="66"/>
+      <c r="K84" s="67"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
-      <c r="K85" s="43"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="68"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="40"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="44" t="s">
+      <c r="B86" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="46"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="53"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
         <v>3</v>
@@ -2620,8 +2620,8 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="47"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -2635,10 +2635,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="48" t="s">
+      <c r="B88" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="48"/>
+      <c r="C88" s="34"/>
       <c r="D88" s="11" t="s">
         <v>25</v>
       </c>
@@ -2698,8 +2698,8 @@
       <c r="A91" s="1">
         <v>28</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="37"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="49"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2713,8 +2713,8 @@
       <c r="A92" s="1">
         <v>29</v>
       </c>
-      <c r="B92" s="36"/>
-      <c r="C92" s="37"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="49"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2728,8 +2728,8 @@
       <c r="A93" s="1">
         <v>30</v>
       </c>
-      <c r="B93" s="34"/>
-      <c r="C93" s="35"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="38"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2743,8 +2743,8 @@
       <c r="A94" s="1">
         <v>31</v>
       </c>
-      <c r="B94" s="34"/>
-      <c r="C94" s="35"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="38"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2758,8 +2758,8 @@
       <c r="A95" s="1">
         <v>32</v>
       </c>
-      <c r="B95" s="34"/>
-      <c r="C95" s="35"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="38"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2773,8 +2773,8 @@
       <c r="A96" s="1">
         <v>33</v>
       </c>
-      <c r="B96" s="36"/>
-      <c r="C96" s="37"/>
+      <c r="B96" s="48"/>
+      <c r="C96" s="49"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2831,6 +2831,89 @@
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="A84:K84"/>
+    <mergeCell ref="A85:K85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:F3"/>
@@ -2847,89 +2930,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A69:K69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="A84:K84"/>
-    <mergeCell ref="A85:K85"/>
   </mergeCells>
   <pageMargins left="0.41" right="0" top="5.61" bottom="0" header="0.28999999999999998" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
   <si>
     <t>Norma Ledo Parra</t>
   </si>
@@ -246,10 +246,13 @@
     <t>Lista de Nuevo Ingreso</t>
   </si>
   <si>
-    <t>Villanueva Flores Job</t>
-  </si>
-  <si>
     <t>Semana 42</t>
+  </si>
+  <si>
+    <t>Rojas Sorcia Diana Itzel</t>
+  </si>
+  <si>
+    <t>Herrera García Yovanny</t>
   </si>
 </sst>
 </file>
@@ -651,20 +654,113 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -674,99 +770,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1091,7 +1094,7 @@
   <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L72" sqref="L72"/>
+      <selection activeCell="A69" sqref="A69:K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,44 +1112,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -1157,8 +1160,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1172,10 +1175,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1392,10 +1395,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1406,44 +1409,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1454,8 +1457,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1469,10 +1472,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="34"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1540,10 +1543,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1562,7 +1565,7 @@
       <c r="B26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="38"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1578,10 +1581,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="38"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1597,10 +1600,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="42"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1616,10 +1619,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="42"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1635,10 +1638,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="38"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1654,10 +1657,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="38"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1673,10 +1676,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="45"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1692,10 +1695,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="47"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1711,10 +1714,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="40"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1730,10 +1733,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="40"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1746,44 +1749,44 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1794,8 +1797,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1809,10 +1812,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="34"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1880,10 +1883,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="49"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1899,10 +1902,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="49"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1918,10 +1921,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="38"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1937,10 +1940,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="38"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1956,10 +1959,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="38"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1975,10 +1978,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="49"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2065,44 +2068,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -2113,8 +2116,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2128,10 +2131,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="34"/>
+      <c r="C57" s="48"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2195,10 +2198,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="49"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2212,10 +2215,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="49"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2229,10 +2232,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="38"/>
+      <c r="C62" s="35"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2246,10 +2249,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="38"/>
+      <c r="C63" s="35"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2263,10 +2266,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="38"/>
+      <c r="C64" s="35"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2280,10 +2283,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="49"/>
+      <c r="C65" s="37"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2331,10 +2334,10 @@
       <c r="A68" s="12">
         <v>36</v>
       </c>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="50"/>
+      <c r="C68" s="59"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -2345,36 +2348,36 @@
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="62"/>
-      <c r="K69" s="62"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
-      <c r="B70" s="64">
+      <c r="B70" s="32">
         <f>D71</f>
         <v>45215</v>
       </c>
-      <c r="C70" s="64"/>
+      <c r="C70" s="32"/>
       <c r="D70" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="63">
+      <c r="E70" s="31">
         <f>J71</f>
         <v>45221</v>
       </c>
-      <c r="F70" s="63"/>
-      <c r="G70" s="63"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
@@ -2382,10 +2385,10 @@
     </row>
     <row r="71" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
-      <c r="B71" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71" s="60"/>
+      <c r="B71" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="55"/>
       <c r="D71" s="23">
         <f>DATE(2023,10,16)</f>
         <v>45215</v>
@@ -2422,10 +2425,10 @@
     </row>
     <row r="72" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
-      <c r="B72" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="61"/>
+      <c r="B72" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="56"/>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
@@ -2439,8 +2442,10 @@
     </row>
     <row r="73" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A73" s="13"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="61"/>
+      <c r="B73" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="56"/>
       <c r="D73" s="13"/>
       <c r="E73" s="26"/>
       <c r="F73" s="13"/>
@@ -2454,8 +2459,8 @@
     </row>
     <row r="74" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="1">
       <c r="A74" s="13"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="56"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="51"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="13"/>
@@ -2469,8 +2474,8 @@
     </row>
     <row r="75" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="52"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
@@ -2482,8 +2487,8 @@
     </row>
     <row r="76" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
@@ -2495,8 +2500,8 @@
     </row>
     <row r="77" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="57"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="52"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
@@ -2508,8 +2513,8 @@
     </row>
     <row r="78" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="52"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
@@ -2521,8 +2526,8 @@
     </row>
     <row r="79" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="57"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="52"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
@@ -2534,8 +2539,8 @@
     </row>
     <row r="80" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="59"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="54"/>
       <c r="D80" s="20"/>
       <c r="E80" s="22"/>
       <c r="F80" s="20"/>
@@ -2547,8 +2552,8 @@
     </row>
     <row r="81" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="55"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="50"/>
       <c r="D81" s="13"/>
       <c r="E81" s="17"/>
       <c r="F81" s="13"/>
@@ -2560,8 +2565,8 @@
     </row>
     <row r="82" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="55"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="50"/>
       <c r="D82" s="13"/>
       <c r="E82" s="17"/>
       <c r="F82" s="13"/>
@@ -2572,44 +2577,44 @@
       <c r="K82" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="65" t="s">
+      <c r="A84" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="66"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="66"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="66"/>
-      <c r="J84" s="66"/>
-      <c r="K84" s="67"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="40"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="39" t="s">
+      <c r="A85" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="68"/>
-      <c r="H85" s="68"/>
-      <c r="I85" s="68"/>
-      <c r="J85" s="68"/>
-      <c r="K85" s="40"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="43"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="51" t="s">
+      <c r="B86" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="52"/>
-      <c r="D86" s="52"/>
-      <c r="E86" s="52"/>
-      <c r="F86" s="53"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="46"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
         <v>3</v>
@@ -2620,8 +2625,8 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="47"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -2635,10 +2640,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="34" t="s">
+      <c r="B88" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="34"/>
+      <c r="C88" s="48"/>
       <c r="D88" s="11" t="s">
         <v>25</v>
       </c>
@@ -2698,8 +2703,8 @@
       <c r="A91" s="1">
         <v>28</v>
       </c>
-      <c r="B91" s="48"/>
-      <c r="C91" s="49"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="37"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2713,8 +2718,8 @@
       <c r="A92" s="1">
         <v>29</v>
       </c>
-      <c r="B92" s="48"/>
-      <c r="C92" s="49"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="37"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2728,8 +2733,8 @@
       <c r="A93" s="1">
         <v>30</v>
       </c>
-      <c r="B93" s="43"/>
-      <c r="C93" s="38"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="35"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2743,8 +2748,8 @@
       <c r="A94" s="1">
         <v>31</v>
       </c>
-      <c r="B94" s="43"/>
-      <c r="C94" s="38"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="35"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2758,8 +2763,8 @@
       <c r="A95" s="1">
         <v>32</v>
       </c>
-      <c r="B95" s="43"/>
-      <c r="C95" s="38"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="35"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2773,8 +2778,8 @@
       <c r="A96" s="1">
         <v>33</v>
       </c>
-      <c r="B96" s="48"/>
-      <c r="C96" s="49"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="37"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2831,6 +2836,89 @@
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B72:C72"/>
     <mergeCell ref="A69:K69"/>
     <mergeCell ref="E70:G70"/>
     <mergeCell ref="B70:C70"/>
@@ -2847,91 +2935,8 @@
     <mergeCell ref="B93:C93"/>
     <mergeCell ref="A84:K84"/>
     <mergeCell ref="A85:K85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
-  <pageMargins left="0.41" right="0" top="5.61" bottom="0" header="0.28999999999999998" footer="0"/>
+  <pageMargins left="0.41" right="0" top="3.96" bottom="0" header="0.28999999999999998" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -246,13 +246,13 @@
     <t>Lista de Nuevo Ingreso</t>
   </si>
   <si>
-    <t>Semana 42</t>
-  </si>
-  <si>
-    <t>Rojas Sorcia Diana Itzel</t>
-  </si>
-  <si>
-    <t>Herrera García Yovanny</t>
+    <t>Semana 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Vázquez Mendoza Estefany Bandera</t>
   </si>
 </sst>
 </file>
@@ -654,6 +654,102 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -663,21 +759,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,89 +768,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1093,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:K76"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,44 +1112,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -1160,8 +1160,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1175,10 +1175,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="48"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1395,10 +1395,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1409,44 +1409,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1457,8 +1457,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1472,10 +1472,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="48"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1543,10 +1543,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="68"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1565,7 +1565,7 @@
       <c r="B26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="35"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1581,10 +1581,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="35"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1600,10 +1600,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1619,10 +1619,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="61"/>
+      <c r="C29" s="42"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1638,10 +1638,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="35"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1657,10 +1657,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="35"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1676,10 +1676,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="63"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1695,10 +1695,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="65"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1714,10 +1714,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="43"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1733,10 +1733,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="43"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1749,44 +1749,44 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1797,8 +1797,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="48"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1883,10 +1883,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="37"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1902,10 +1902,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="37"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1921,10 +1921,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="35"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1940,10 +1940,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="35"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1959,10 +1959,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="35"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1978,10 +1978,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="37"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2068,44 +2068,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="57" t="s">
+      <c r="A53" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -2116,8 +2116,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="48" t="s">
+      <c r="B57" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="48"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2198,10 +2198,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="37"/>
+      <c r="C60" s="49"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2215,10 +2215,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="37"/>
+      <c r="C61" s="49"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2232,10 +2232,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="35"/>
+      <c r="C62" s="38"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2249,10 +2249,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="35"/>
+      <c r="C63" s="38"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2266,10 +2266,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="35"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2283,10 +2283,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="37"/>
+      <c r="C65" s="49"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2334,10 +2334,10 @@
       <c r="A68" s="12">
         <v>36</v>
       </c>
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="59"/>
+      <c r="C68" s="50"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -2348,36 +2348,36 @@
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="62"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
-      <c r="B70" s="32">
+      <c r="B70" s="64">
         <f>D71</f>
-        <v>45215</v>
-      </c>
-      <c r="C70" s="32"/>
+        <v>45222</v>
+      </c>
+      <c r="C70" s="64"/>
       <c r="D70" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="31">
+      <c r="E70" s="63">
         <f>J71</f>
-        <v>45221</v>
-      </c>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
+        <v>45228</v>
+      </c>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
@@ -2385,37 +2385,37 @@
     </row>
     <row r="71" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="55"/>
+      <c r="C71" s="60"/>
       <c r="D71" s="23">
-        <f>DATE(2023,10,16)</f>
-        <v>45215</v>
+        <f>DATE(2023,10,23)</f>
+        <v>45222</v>
       </c>
       <c r="E71" s="23">
         <f t="shared" ref="E71:J71" si="0">D71+1</f>
-        <v>45216</v>
+        <v>45223</v>
       </c>
       <c r="F71" s="23">
         <f t="shared" si="0"/>
-        <v>45217</v>
+        <v>45224</v>
       </c>
       <c r="G71" s="23">
         <f t="shared" si="0"/>
-        <v>45218</v>
+        <v>45225</v>
       </c>
       <c r="H71" s="23">
         <f t="shared" si="0"/>
-        <v>45219</v>
+        <v>45226</v>
       </c>
       <c r="I71" s="23">
         <f t="shared" si="0"/>
-        <v>45220</v>
+        <v>45227</v>
       </c>
       <c r="J71" s="23">
         <f t="shared" si="0"/>
-        <v>45221</v>
+        <v>45228</v>
       </c>
       <c r="K71" s="24" t="s">
         <v>70</v>
@@ -2425,10 +2425,10 @@
     </row>
     <row r="72" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
-      <c r="B72" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C72" s="56"/>
+      <c r="B72" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" s="61"/>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
@@ -2442,11 +2442,11 @@
     </row>
     <row r="73" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A73" s="13"/>
-      <c r="B73" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" s="56"/>
-      <c r="D73" s="13"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="E73" s="26"/>
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
@@ -2459,8 +2459,8 @@
     </row>
     <row r="74" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="1">
       <c r="A74" s="13"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="51"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="13"/>
@@ -2474,8 +2474,8 @@
     </row>
     <row r="75" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="52"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
@@ -2487,8 +2487,8 @@
     </row>
     <row r="76" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="52"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
@@ -2500,8 +2500,8 @@
     </row>
     <row r="77" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="52"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
@@ -2513,8 +2513,8 @@
     </row>
     <row r="78" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
-      <c r="B78" s="52"/>
-      <c r="C78" s="52"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="57"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
@@ -2526,8 +2526,8 @@
     </row>
     <row r="79" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="52"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
@@ -2539,8 +2539,8 @@
     </row>
     <row r="80" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="54"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="59"/>
       <c r="D80" s="20"/>
       <c r="E80" s="22"/>
       <c r="F80" s="20"/>
@@ -2552,8 +2552,8 @@
     </row>
     <row r="81" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="50"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="55"/>
       <c r="D81" s="13"/>
       <c r="E81" s="17"/>
       <c r="F81" s="13"/>
@@ -2565,8 +2565,8 @@
     </row>
     <row r="82" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="50"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="55"/>
       <c r="D82" s="13"/>
       <c r="E82" s="17"/>
       <c r="F82" s="13"/>
@@ -2577,44 +2577,44 @@
       <c r="K82" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="38" t="s">
+      <c r="A84" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="40"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="66"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="66"/>
+      <c r="K84" s="67"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
-      <c r="K85" s="43"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="68"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="40"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="44" t="s">
+      <c r="B86" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="46"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="53"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
         <v>3</v>
@@ -2625,8 +2625,8 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="47"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -2640,10 +2640,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="48" t="s">
+      <c r="B88" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="48"/>
+      <c r="C88" s="34"/>
       <c r="D88" s="11" t="s">
         <v>25</v>
       </c>
@@ -2703,8 +2703,8 @@
       <c r="A91" s="1">
         <v>28</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="37"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="49"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2718,8 +2718,8 @@
       <c r="A92" s="1">
         <v>29</v>
       </c>
-      <c r="B92" s="36"/>
-      <c r="C92" s="37"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="49"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2733,8 +2733,8 @@
       <c r="A93" s="1">
         <v>30</v>
       </c>
-      <c r="B93" s="34"/>
-      <c r="C93" s="35"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="38"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2748,8 +2748,8 @@
       <c r="A94" s="1">
         <v>31</v>
       </c>
-      <c r="B94" s="34"/>
-      <c r="C94" s="35"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="38"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2763,8 +2763,8 @@
       <c r="A95" s="1">
         <v>32</v>
       </c>
-      <c r="B95" s="34"/>
-      <c r="C95" s="35"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="38"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2778,8 +2778,8 @@
       <c r="A96" s="1">
         <v>33</v>
       </c>
-      <c r="B96" s="36"/>
-      <c r="C96" s="37"/>
+      <c r="B96" s="48"/>
+      <c r="C96" s="49"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2836,6 +2836,89 @@
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="A84:K84"/>
+    <mergeCell ref="A85:K85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:F3"/>
@@ -2852,91 +2935,8 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A69:K69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="A84:K84"/>
-    <mergeCell ref="A85:K85"/>
   </mergeCells>
-  <pageMargins left="0.41" right="0" top="3.96" bottom="0" header="0.28999999999999998" footer="0"/>
+  <pageMargins left="0.41" right="0" top="5.6" bottom="0" header="0.28999999999999998" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
   <si>
     <t>Norma Ledo Parra</t>
   </si>
@@ -246,13 +246,16 @@
     <t>Lista de Nuevo Ingreso</t>
   </si>
   <si>
-    <t>Semana 43</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Vázquez Mendoza Estefany Bandera</t>
+    <t>Semana 44</t>
+  </si>
+  <si>
+    <t>Amador Zepeda Aurora</t>
+  </si>
+  <si>
+    <t>Reyes Landa Armando</t>
   </si>
 </sst>
 </file>
@@ -654,20 +657,113 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -677,99 +773,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1093,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:K84"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,44 +1115,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -1160,8 +1163,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1175,10 +1178,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1395,10 +1398,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1409,44 +1412,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1457,8 +1460,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1472,10 +1475,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="34"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1543,10 +1546,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1565,7 +1568,7 @@
       <c r="B26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="38"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1581,10 +1584,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="38"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1600,10 +1603,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="42"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1619,10 +1622,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="42"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1638,10 +1641,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="38"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1657,10 +1660,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="38"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1676,10 +1679,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="45"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1695,10 +1698,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="47"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1714,10 +1717,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="40"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1733,10 +1736,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="40"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1749,44 +1752,44 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1797,8 +1800,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1812,10 +1815,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="34"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1883,10 +1886,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="49"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1902,10 +1905,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="49"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1921,10 +1924,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="38"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1940,10 +1943,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="38"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1959,10 +1962,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="38"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1978,10 +1981,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="49"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2068,44 +2071,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -2116,8 +2119,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2131,10 +2134,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="34"/>
+      <c r="C57" s="48"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2198,10 +2201,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="49"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2215,10 +2218,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="49"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2232,10 +2235,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="38"/>
+      <c r="C62" s="35"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2249,10 +2252,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="38"/>
+      <c r="C63" s="35"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2266,10 +2269,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="38"/>
+      <c r="C64" s="35"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2283,10 +2286,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="49"/>
+      <c r="C65" s="37"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2334,10 +2337,10 @@
       <c r="A68" s="12">
         <v>36</v>
       </c>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="50"/>
+      <c r="C68" s="59"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -2348,36 +2351,36 @@
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="62"/>
-      <c r="K69" s="62"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
-      <c r="B70" s="64">
+      <c r="B70" s="32">
         <f>D71</f>
-        <v>45222</v>
-      </c>
-      <c r="C70" s="64"/>
+        <v>45229</v>
+      </c>
+      <c r="C70" s="32"/>
       <c r="D70" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="63">
+      <c r="E70" s="31">
         <f>J71</f>
-        <v>45228</v>
-      </c>
-      <c r="F70" s="63"/>
-      <c r="G70" s="63"/>
+        <v>45235</v>
+      </c>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
@@ -2385,37 +2388,37 @@
     </row>
     <row r="71" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
-      <c r="B71" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" s="60"/>
+      <c r="B71" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="55"/>
       <c r="D71" s="23">
-        <f>DATE(2023,10,23)</f>
-        <v>45222</v>
+        <f>DATE(2023,10,30)</f>
+        <v>45229</v>
       </c>
       <c r="E71" s="23">
         <f t="shared" ref="E71:J71" si="0">D71+1</f>
-        <v>45223</v>
+        <v>45230</v>
       </c>
       <c r="F71" s="23">
         <f t="shared" si="0"/>
-        <v>45224</v>
+        <v>45231</v>
       </c>
       <c r="G71" s="23">
         <f t="shared" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="H71" s="23">
         <f t="shared" si="0"/>
-        <v>45226</v>
+        <v>45233</v>
       </c>
       <c r="I71" s="23">
         <f t="shared" si="0"/>
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="J71" s="23">
         <f t="shared" si="0"/>
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="K71" s="24" t="s">
         <v>70</v>
@@ -2423,12 +2426,12 @@
       <c r="L71" s="14"/>
       <c r="M71" s="9"/>
     </row>
-    <row r="72" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
-      <c r="B72" s="61" t="s">
+      <c r="B72" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="61"/>
+      <c r="C72" s="56"/>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
@@ -2440,12 +2443,14 @@
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
     </row>
-    <row r="73" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A73" s="13"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="61"/>
+      <c r="B73" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="56"/>
       <c r="D73" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E73" s="26"/>
       <c r="F73" s="13"/>
@@ -2457,10 +2462,10 @@
       <c r="L73" s="14"/>
       <c r="M73" s="9"/>
     </row>
-    <row r="74" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="1">
+    <row r="74" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="1">
       <c r="A74" s="13"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="56"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="51"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="13"/>
@@ -2472,10 +2477,10 @@
       <c r="L74" s="14"/>
       <c r="M74" s="9"/>
     </row>
-    <row r="75" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="52"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
@@ -2485,10 +2490,10 @@
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
     </row>
-    <row r="76" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
@@ -2498,10 +2503,10 @@
       <c r="J76" s="13"/>
       <c r="K76" s="13"/>
     </row>
-    <row r="77" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="57"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="52"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
@@ -2511,10 +2516,10 @@
       <c r="J77" s="13"/>
       <c r="K77" s="13"/>
     </row>
-    <row r="78" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="52"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
@@ -2524,10 +2529,10 @@
       <c r="J78" s="13"/>
       <c r="K78" s="13"/>
     </row>
-    <row r="79" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="57"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="52"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
@@ -2537,10 +2542,10 @@
       <c r="J79" s="13"/>
       <c r="K79" s="13"/>
     </row>
-    <row r="80" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="59"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="54"/>
       <c r="D80" s="20"/>
       <c r="E80" s="22"/>
       <c r="F80" s="20"/>
@@ -2550,10 +2555,10 @@
       <c r="J80" s="21"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="55"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="50"/>
       <c r="D81" s="13"/>
       <c r="E81" s="17"/>
       <c r="F81" s="13"/>
@@ -2563,10 +2568,10 @@
       <c r="J81" s="15"/>
       <c r="K81" s="13"/>
     </row>
-    <row r="82" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="55"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="50"/>
       <c r="D82" s="13"/>
       <c r="E82" s="17"/>
       <c r="F82" s="13"/>
@@ -2577,44 +2582,44 @@
       <c r="K82" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="65" t="s">
+      <c r="A84" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="66"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="66"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="66"/>
-      <c r="J84" s="66"/>
-      <c r="K84" s="67"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="40"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="39" t="s">
+      <c r="A85" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="68"/>
-      <c r="H85" s="68"/>
-      <c r="I85" s="68"/>
-      <c r="J85" s="68"/>
-      <c r="K85" s="40"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="43"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="51" t="s">
+      <c r="B86" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="52"/>
-      <c r="D86" s="52"/>
-      <c r="E86" s="52"/>
-      <c r="F86" s="53"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="46"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
         <v>3</v>
@@ -2625,8 +2630,8 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="47"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -2640,10 +2645,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="34" t="s">
+      <c r="B88" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="34"/>
+      <c r="C88" s="48"/>
       <c r="D88" s="11" t="s">
         <v>25</v>
       </c>
@@ -2703,8 +2708,8 @@
       <c r="A91" s="1">
         <v>28</v>
       </c>
-      <c r="B91" s="48"/>
-      <c r="C91" s="49"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="37"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2718,8 +2723,8 @@
       <c r="A92" s="1">
         <v>29</v>
       </c>
-      <c r="B92" s="48"/>
-      <c r="C92" s="49"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="37"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2733,8 +2738,8 @@
       <c r="A93" s="1">
         <v>30</v>
       </c>
-      <c r="B93" s="43"/>
-      <c r="C93" s="38"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="35"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2748,8 +2753,8 @@
       <c r="A94" s="1">
         <v>31</v>
       </c>
-      <c r="B94" s="43"/>
-      <c r="C94" s="38"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="35"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2763,8 +2768,8 @@
       <c r="A95" s="1">
         <v>32</v>
       </c>
-      <c r="B95" s="43"/>
-      <c r="C95" s="38"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="35"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2778,8 +2783,8 @@
       <c r="A96" s="1">
         <v>33</v>
       </c>
-      <c r="B96" s="48"/>
-      <c r="C96" s="49"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="37"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2836,6 +2841,89 @@
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B72:C72"/>
     <mergeCell ref="A69:K69"/>
     <mergeCell ref="E70:G70"/>
     <mergeCell ref="B70:C70"/>
@@ -2852,91 +2940,8 @@
     <mergeCell ref="B93:C93"/>
     <mergeCell ref="A84:K84"/>
     <mergeCell ref="A85:K85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
-  <pageMargins left="0.41" right="0" top="5.6" bottom="0" header="0.28999999999999998" footer="0"/>
+  <pageMargins left="0.41" right="0" top="5.45" bottom="0" header="0.28999999999999998" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -249,13 +249,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Semana 44</t>
-  </si>
-  <si>
-    <t>Amador Zepeda Aurora</t>
-  </si>
-  <si>
-    <t>Reyes Landa Armando</t>
+    <t>Jose de Jesus Hernandez Romero</t>
+  </si>
+  <si>
+    <t>Daniel Alejandro Aguilar</t>
+  </si>
+  <si>
+    <t>Semana 45</t>
   </si>
 </sst>
 </file>
@@ -657,6 +657,102 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -666,21 +762,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,89 +771,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:K75"/>
+      <selection activeCell="A69" sqref="A69:K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,44 +1115,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -1163,8 +1163,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="48"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1398,10 +1398,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1412,44 +1412,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1460,8 +1460,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="48"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1546,10 +1546,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="68"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1568,7 +1568,7 @@
       <c r="B26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="35"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1584,10 +1584,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="35"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1603,10 +1603,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1622,10 +1622,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="61"/>
+      <c r="C29" s="42"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1641,10 +1641,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="35"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1660,10 +1660,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="35"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1679,10 +1679,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="63"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1698,10 +1698,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="65"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1717,10 +1717,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="43"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1736,10 +1736,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="43"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1752,44 +1752,44 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1800,8 +1800,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="48"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1886,10 +1886,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="37"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1905,10 +1905,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="37"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1924,10 +1924,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="35"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1943,10 +1943,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="35"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1962,10 +1962,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="35"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1981,10 +1981,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="37"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2071,44 +2071,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="57" t="s">
+      <c r="A53" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -2119,8 +2119,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2134,10 +2134,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="48" t="s">
+      <c r="B57" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="48"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2201,10 +2201,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="37"/>
+      <c r="C60" s="49"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2218,10 +2218,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="37"/>
+      <c r="C61" s="49"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2235,10 +2235,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="35"/>
+      <c r="C62" s="38"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2252,10 +2252,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="35"/>
+      <c r="C63" s="38"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2269,10 +2269,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="35"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2286,10 +2286,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="37"/>
+      <c r="C65" s="49"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2337,10 +2337,10 @@
       <c r="A68" s="12">
         <v>36</v>
       </c>
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="59"/>
+      <c r="C68" s="50"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -2351,36 +2351,36 @@
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="62"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
-      <c r="B70" s="32">
+      <c r="B70" s="64">
         <f>D71</f>
-        <v>45229</v>
-      </c>
-      <c r="C70" s="32"/>
+        <v>45236</v>
+      </c>
+      <c r="C70" s="64"/>
       <c r="D70" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="31">
+      <c r="E70" s="63">
         <f>J71</f>
-        <v>45235</v>
-      </c>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
+        <v>45242</v>
+      </c>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
@@ -2388,37 +2388,37 @@
     </row>
     <row r="71" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
-      <c r="B71" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71" s="55"/>
+      <c r="B71" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="60"/>
       <c r="D71" s="23">
-        <f>DATE(2023,10,30)</f>
-        <v>45229</v>
+        <f>DATE(2023,11,6)</f>
+        <v>45236</v>
       </c>
       <c r="E71" s="23">
         <f t="shared" ref="E71:J71" si="0">D71+1</f>
-        <v>45230</v>
+        <v>45237</v>
       </c>
       <c r="F71" s="23">
         <f t="shared" si="0"/>
-        <v>45231</v>
+        <v>45238</v>
       </c>
       <c r="G71" s="23">
         <f t="shared" si="0"/>
-        <v>45232</v>
+        <v>45239</v>
       </c>
       <c r="H71" s="23">
         <f t="shared" si="0"/>
-        <v>45233</v>
+        <v>45240</v>
       </c>
       <c r="I71" s="23">
         <f t="shared" si="0"/>
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="J71" s="23">
         <f t="shared" si="0"/>
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="K71" s="24" t="s">
         <v>70</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="72" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
-      <c r="B72" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="56"/>
+      <c r="B72" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="61"/>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
@@ -2445,10 +2445,10 @@
     </row>
     <row r="73" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A73" s="13"/>
-      <c r="B73" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C73" s="56"/>
+      <c r="B73" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="61"/>
       <c r="D73" s="13" t="s">
         <v>73</v>
       </c>
@@ -2464,8 +2464,8 @@
     </row>
     <row r="74" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="1">
       <c r="A74" s="13"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="51"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="13"/>
@@ -2479,8 +2479,8 @@
     </row>
     <row r="75" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="52"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
@@ -2492,8 +2492,8 @@
     </row>
     <row r="76" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="52"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
@@ -2505,8 +2505,8 @@
     </row>
     <row r="77" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="52"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
@@ -2518,8 +2518,8 @@
     </row>
     <row r="78" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
-      <c r="B78" s="52"/>
-      <c r="C78" s="52"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="57"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
@@ -2531,8 +2531,8 @@
     </row>
     <row r="79" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="52"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
@@ -2544,8 +2544,8 @@
     </row>
     <row r="80" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="54"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="59"/>
       <c r="D80" s="20"/>
       <c r="E80" s="22"/>
       <c r="F80" s="20"/>
@@ -2557,8 +2557,8 @@
     </row>
     <row r="81" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="50"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="55"/>
       <c r="D81" s="13"/>
       <c r="E81" s="17"/>
       <c r="F81" s="13"/>
@@ -2570,8 +2570,8 @@
     </row>
     <row r="82" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="50"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="55"/>
       <c r="D82" s="13"/>
       <c r="E82" s="17"/>
       <c r="F82" s="13"/>
@@ -2582,44 +2582,44 @@
       <c r="K82" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="38" t="s">
+      <c r="A84" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="40"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="66"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="66"/>
+      <c r="K84" s="67"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
-      <c r="K85" s="43"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="68"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="40"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="44" t="s">
+      <c r="B86" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="46"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="53"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
         <v>3</v>
@@ -2630,8 +2630,8 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="47"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -2645,10 +2645,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="48" t="s">
+      <c r="B88" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="48"/>
+      <c r="C88" s="34"/>
       <c r="D88" s="11" t="s">
         <v>25</v>
       </c>
@@ -2708,8 +2708,8 @@
       <c r="A91" s="1">
         <v>28</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="37"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="49"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2723,8 +2723,8 @@
       <c r="A92" s="1">
         <v>29</v>
       </c>
-      <c r="B92" s="36"/>
-      <c r="C92" s="37"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="49"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2738,8 +2738,8 @@
       <c r="A93" s="1">
         <v>30</v>
       </c>
-      <c r="B93" s="34"/>
-      <c r="C93" s="35"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="38"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2753,8 +2753,8 @@
       <c r="A94" s="1">
         <v>31</v>
       </c>
-      <c r="B94" s="34"/>
-      <c r="C94" s="35"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="38"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2768,8 +2768,8 @@
       <c r="A95" s="1">
         <v>32</v>
       </c>
-      <c r="B95" s="34"/>
-      <c r="C95" s="35"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="38"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2783,8 +2783,8 @@
       <c r="A96" s="1">
         <v>33</v>
       </c>
-      <c r="B96" s="36"/>
-      <c r="C96" s="37"/>
+      <c r="B96" s="48"/>
+      <c r="C96" s="49"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2841,6 +2841,89 @@
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="A84:K84"/>
+    <mergeCell ref="A85:K85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:F3"/>
@@ -2857,89 +2940,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A69:K69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="A84:K84"/>
-    <mergeCell ref="A85:K85"/>
   </mergeCells>
   <pageMargins left="0.41" right="0" top="5.45" bottom="0" header="0.28999999999999998" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
   <si>
     <t>Norma Ledo Parra</t>
   </si>
@@ -247,15 +247,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Jose de Jesus Hernandez Romero</t>
-  </si>
-  <si>
-    <t>Daniel Alejandro Aguilar</t>
-  </si>
-  <si>
-    <t>Semana 45</t>
   </si>
 </sst>
 </file>
@@ -657,20 +648,113 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -680,99 +764,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1115,44 +1106,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -1163,8 +1154,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1178,10 +1169,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1398,10 +1389,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1412,44 +1403,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1460,8 +1451,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1475,10 +1466,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="34"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1546,10 +1537,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1568,7 +1559,7 @@
       <c r="B26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="38"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1584,10 +1575,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="38"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1603,10 +1594,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="42"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1622,10 +1613,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="42"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1641,10 +1632,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="38"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1660,10 +1651,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="38"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1679,10 +1670,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="45"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1698,10 +1689,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="47"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1717,10 +1708,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="40"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1736,10 +1727,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="40"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1752,44 +1743,44 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1800,8 +1791,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1815,10 +1806,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="34"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1886,10 +1877,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="49"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1905,10 +1896,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="49"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1924,10 +1915,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="38"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1943,10 +1934,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="38"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1962,10 +1953,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="38"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1981,10 +1972,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="49"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2071,44 +2062,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -2119,8 +2110,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2134,10 +2125,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="34"/>
+      <c r="C57" s="48"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2201,10 +2192,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="49"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2218,10 +2209,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="49"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2235,10 +2226,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="38"/>
+      <c r="C62" s="35"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2252,10 +2243,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="38"/>
+      <c r="C63" s="35"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2269,10 +2260,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="38"/>
+      <c r="C64" s="35"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2286,10 +2277,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="49"/>
+      <c r="C65" s="37"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2337,10 +2328,10 @@
       <c r="A68" s="12">
         <v>36</v>
       </c>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="50"/>
+      <c r="C68" s="59"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -2351,36 +2342,36 @@
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="62"/>
-      <c r="K69" s="62"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
-      <c r="B70" s="64">
+      <c r="B70" s="32">
         <f>D71</f>
-        <v>45236</v>
-      </c>
-      <c r="C70" s="64"/>
+        <v>45243</v>
+      </c>
+      <c r="C70" s="32"/>
       <c r="D70" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="63">
+      <c r="E70" s="31">
         <f>J71</f>
-        <v>45242</v>
-      </c>
-      <c r="F70" s="63"/>
-      <c r="G70" s="63"/>
+        <v>45249</v>
+      </c>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
@@ -2388,37 +2379,37 @@
     </row>
     <row r="71" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
-      <c r="B71" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="C71" s="60"/>
+      <c r="B71" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="55"/>
       <c r="D71" s="23">
-        <f>DATE(2023,11,6)</f>
-        <v>45236</v>
+        <f>DATE(2023,11,13)</f>
+        <v>45243</v>
       </c>
       <c r="E71" s="23">
         <f t="shared" ref="E71:J71" si="0">D71+1</f>
-        <v>45237</v>
+        <v>45244</v>
       </c>
       <c r="F71" s="23">
         <f t="shared" si="0"/>
-        <v>45238</v>
+        <v>45245</v>
       </c>
       <c r="G71" s="23">
         <f t="shared" si="0"/>
-        <v>45239</v>
+        <v>45246</v>
       </c>
       <c r="H71" s="23">
         <f t="shared" si="0"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="I71" s="23">
         <f t="shared" si="0"/>
-        <v>45241</v>
+        <v>45248</v>
       </c>
       <c r="J71" s="23">
         <f t="shared" si="0"/>
-        <v>45242</v>
+        <v>45249</v>
       </c>
       <c r="K71" s="24" t="s">
         <v>70</v>
@@ -2428,10 +2419,8 @@
     </row>
     <row r="72" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
-      <c r="B72" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="C72" s="61"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="56"/>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
@@ -2445,10 +2434,8 @@
     </row>
     <row r="73" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A73" s="13"/>
-      <c r="B73" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" s="61"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="56"/>
       <c r="D73" s="13" t="s">
         <v>73</v>
       </c>
@@ -2464,8 +2451,8 @@
     </row>
     <row r="74" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="1">
       <c r="A74" s="13"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="56"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="51"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="13"/>
@@ -2479,8 +2466,8 @@
     </row>
     <row r="75" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="52"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
@@ -2492,8 +2479,8 @@
     </row>
     <row r="76" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
@@ -2505,8 +2492,8 @@
     </row>
     <row r="77" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="57"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="52"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
@@ -2518,8 +2505,8 @@
     </row>
     <row r="78" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="52"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
@@ -2531,8 +2518,8 @@
     </row>
     <row r="79" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="57"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="52"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
@@ -2544,8 +2531,8 @@
     </row>
     <row r="80" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="59"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="54"/>
       <c r="D80" s="20"/>
       <c r="E80" s="22"/>
       <c r="F80" s="20"/>
@@ -2557,8 +2544,8 @@
     </row>
     <row r="81" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="55"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="50"/>
       <c r="D81" s="13"/>
       <c r="E81" s="17"/>
       <c r="F81" s="13"/>
@@ -2570,8 +2557,8 @@
     </row>
     <row r="82" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="55"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="50"/>
       <c r="D82" s="13"/>
       <c r="E82" s="17"/>
       <c r="F82" s="13"/>
@@ -2582,44 +2569,44 @@
       <c r="K82" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="65" t="s">
+      <c r="A84" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="66"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="66"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="66"/>
-      <c r="J84" s="66"/>
-      <c r="K84" s="67"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="40"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="39" t="s">
+      <c r="A85" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="68"/>
-      <c r="H85" s="68"/>
-      <c r="I85" s="68"/>
-      <c r="J85" s="68"/>
-      <c r="K85" s="40"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="43"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="51" t="s">
+      <c r="B86" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="52"/>
-      <c r="D86" s="52"/>
-      <c r="E86" s="52"/>
-      <c r="F86" s="53"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="46"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
         <v>3</v>
@@ -2630,8 +2617,8 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="47"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -2645,10 +2632,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="34" t="s">
+      <c r="B88" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="34"/>
+      <c r="C88" s="48"/>
       <c r="D88" s="11" t="s">
         <v>25</v>
       </c>
@@ -2708,8 +2695,8 @@
       <c r="A91" s="1">
         <v>28</v>
       </c>
-      <c r="B91" s="48"/>
-      <c r="C91" s="49"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="37"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2723,8 +2710,8 @@
       <c r="A92" s="1">
         <v>29</v>
       </c>
-      <c r="B92" s="48"/>
-      <c r="C92" s="49"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="37"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2738,8 +2725,8 @@
       <c r="A93" s="1">
         <v>30</v>
       </c>
-      <c r="B93" s="43"/>
-      <c r="C93" s="38"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="35"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2753,8 +2740,8 @@
       <c r="A94" s="1">
         <v>31</v>
       </c>
-      <c r="B94" s="43"/>
-      <c r="C94" s="38"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="35"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2768,8 +2755,8 @@
       <c r="A95" s="1">
         <v>32</v>
       </c>
-      <c r="B95" s="43"/>
-      <c r="C95" s="38"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="35"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2783,8 +2770,8 @@
       <c r="A96" s="1">
         <v>33</v>
       </c>
-      <c r="B96" s="48"/>
-      <c r="C96" s="49"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="37"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2841,6 +2828,89 @@
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B72:C72"/>
     <mergeCell ref="A69:K69"/>
     <mergeCell ref="E70:G70"/>
     <mergeCell ref="B70:C70"/>
@@ -2857,89 +2927,6 @@
     <mergeCell ref="B93:C93"/>
     <mergeCell ref="A84:K84"/>
     <mergeCell ref="A85:K85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.41" right="0" top="5.45" bottom="0" header="0.28999999999999998" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
   <si>
     <t>Norma Ledo Parra</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Semana 48</t>
   </si>
 </sst>
 </file>
@@ -648,6 +651,102 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -657,21 +756,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -681,89 +765,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1087,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:K74"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,44 +1109,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -1154,8 +1157,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1169,10 +1172,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="48"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1389,10 +1392,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1403,44 +1406,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1451,8 +1454,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1466,10 +1469,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="48"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1537,10 +1540,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="68"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1559,7 +1562,7 @@
       <c r="B26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="35"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1575,10 +1578,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="35"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1594,10 +1597,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1613,10 +1616,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="61"/>
+      <c r="C29" s="42"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1632,10 +1635,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="35"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1651,10 +1654,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="35"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1670,10 +1673,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="63"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1689,10 +1692,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="65"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1708,10 +1711,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="43"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1727,10 +1730,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="43"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1743,44 +1746,44 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1791,8 +1794,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1806,10 +1809,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="48"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1877,10 +1880,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="37"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1896,10 +1899,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="37"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1915,10 +1918,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="35"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1934,10 +1937,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="35"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1953,10 +1956,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="35"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1972,10 +1975,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="37"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2062,44 +2065,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="57" t="s">
+      <c r="A53" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -2110,8 +2113,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2125,10 +2128,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="48" t="s">
+      <c r="B57" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="48"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2192,10 +2195,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="37"/>
+      <c r="C60" s="49"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2209,10 +2212,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="37"/>
+      <c r="C61" s="49"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2226,10 +2229,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="35"/>
+      <c r="C62" s="38"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2243,10 +2246,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="35"/>
+      <c r="C63" s="38"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2260,10 +2263,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="35"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2277,10 +2280,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="37"/>
+      <c r="C65" s="49"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2328,10 +2331,10 @@
       <c r="A68" s="12">
         <v>36</v>
       </c>
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="59"/>
+      <c r="C68" s="50"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -2342,36 +2345,36 @@
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="62"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
-      <c r="B70" s="32">
+      <c r="B70" s="64">
         <f>D71</f>
-        <v>45243</v>
-      </c>
-      <c r="C70" s="32"/>
+        <v>45257</v>
+      </c>
+      <c r="C70" s="64"/>
       <c r="D70" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="31">
+      <c r="E70" s="63">
         <f>J71</f>
-        <v>45249</v>
-      </c>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
+        <v>45263</v>
+      </c>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
@@ -2379,37 +2382,37 @@
     </row>
     <row r="71" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
-      <c r="B71" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="55"/>
+      <c r="B71" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="60"/>
       <c r="D71" s="23">
-        <f>DATE(2023,11,13)</f>
-        <v>45243</v>
+        <f>DATE(2023,11,27)</f>
+        <v>45257</v>
       </c>
       <c r="E71" s="23">
         <f t="shared" ref="E71:J71" si="0">D71+1</f>
-        <v>45244</v>
+        <v>45258</v>
       </c>
       <c r="F71" s="23">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>45259</v>
       </c>
       <c r="G71" s="23">
         <f t="shared" si="0"/>
-        <v>45246</v>
+        <v>45260</v>
       </c>
       <c r="H71" s="23">
         <f t="shared" si="0"/>
-        <v>45247</v>
+        <v>45261</v>
       </c>
       <c r="I71" s="23">
         <f t="shared" si="0"/>
-        <v>45248</v>
+        <v>45262</v>
       </c>
       <c r="J71" s="23">
         <f t="shared" si="0"/>
-        <v>45249</v>
+        <v>45263</v>
       </c>
       <c r="K71" s="24" t="s">
         <v>70</v>
@@ -2419,8 +2422,8 @@
     </row>
     <row r="72" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
-      <c r="B72" s="56"/>
-      <c r="C72" s="56"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="61"/>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
@@ -2434,8 +2437,8 @@
     </row>
     <row r="73" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A73" s="13"/>
-      <c r="B73" s="56"/>
-      <c r="C73" s="56"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="61"/>
       <c r="D73" s="13" t="s">
         <v>73</v>
       </c>
@@ -2451,8 +2454,8 @@
     </row>
     <row r="74" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="1">
       <c r="A74" s="13"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="51"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="13"/>
@@ -2466,8 +2469,8 @@
     </row>
     <row r="75" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="52"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
@@ -2479,8 +2482,8 @@
     </row>
     <row r="76" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="52"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
@@ -2492,8 +2495,8 @@
     </row>
     <row r="77" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="52"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
@@ -2505,8 +2508,8 @@
     </row>
     <row r="78" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
-      <c r="B78" s="52"/>
-      <c r="C78" s="52"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="57"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
@@ -2518,8 +2521,8 @@
     </row>
     <row r="79" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="52"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
@@ -2531,8 +2534,8 @@
     </row>
     <row r="80" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="54"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="59"/>
       <c r="D80" s="20"/>
       <c r="E80" s="22"/>
       <c r="F80" s="20"/>
@@ -2544,8 +2547,8 @@
     </row>
     <row r="81" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="50"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="55"/>
       <c r="D81" s="13"/>
       <c r="E81" s="17"/>
       <c r="F81" s="13"/>
@@ -2557,8 +2560,8 @@
     </row>
     <row r="82" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="50"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="55"/>
       <c r="D82" s="13"/>
       <c r="E82" s="17"/>
       <c r="F82" s="13"/>
@@ -2569,44 +2572,44 @@
       <c r="K82" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="38" t="s">
+      <c r="A84" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="40"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="66"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="66"/>
+      <c r="K84" s="67"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
-      <c r="K85" s="43"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="68"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="40"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="44" t="s">
+      <c r="B86" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="46"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="53"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
         <v>3</v>
@@ -2617,8 +2620,8 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="47"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -2632,10 +2635,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="48" t="s">
+      <c r="B88" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="48"/>
+      <c r="C88" s="34"/>
       <c r="D88" s="11" t="s">
         <v>25</v>
       </c>
@@ -2695,8 +2698,8 @@
       <c r="A91" s="1">
         <v>28</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="37"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="49"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2710,8 +2713,8 @@
       <c r="A92" s="1">
         <v>29</v>
       </c>
-      <c r="B92" s="36"/>
-      <c r="C92" s="37"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="49"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2725,8 +2728,8 @@
       <c r="A93" s="1">
         <v>30</v>
       </c>
-      <c r="B93" s="34"/>
-      <c r="C93" s="35"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="38"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2740,8 +2743,8 @@
       <c r="A94" s="1">
         <v>31</v>
       </c>
-      <c r="B94" s="34"/>
-      <c r="C94" s="35"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="38"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2755,8 +2758,8 @@
       <c r="A95" s="1">
         <v>32</v>
       </c>
-      <c r="B95" s="34"/>
-      <c r="C95" s="35"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="38"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2770,8 +2773,8 @@
       <c r="A96" s="1">
         <v>33</v>
       </c>
-      <c r="B96" s="36"/>
-      <c r="C96" s="37"/>
+      <c r="B96" s="48"/>
+      <c r="C96" s="49"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2828,6 +2831,89 @@
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="A84:K84"/>
+    <mergeCell ref="A85:K85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:F3"/>
@@ -2844,89 +2930,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A69:K69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="A84:K84"/>
-    <mergeCell ref="A85:K85"/>
   </mergeCells>
   <pageMargins left="0.41" right="0" top="5.45" bottom="0" header="0.28999999999999998" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -249,7 +249,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Semana 48</t>
+    <t>Hernández Matínez Italiby</t>
   </si>
 </sst>
 </file>
@@ -651,20 +651,113 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -674,99 +767,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1090,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:XFD76"/>
+    <sheetView tabSelected="1" topLeftCell="B67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N75" sqref="N75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,44 +1109,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -1157,8 +1157,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1172,10 +1172,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1392,10 +1392,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1406,44 +1406,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1454,8 +1454,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1469,10 +1469,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="34"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1540,10 +1540,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1562,7 +1562,7 @@
       <c r="B26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="38"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1578,10 +1578,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="38"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1597,10 +1597,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="42"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1616,10 +1616,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="42"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1635,10 +1635,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="38"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1654,10 +1654,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="38"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1673,10 +1673,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="45"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1692,10 +1692,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="47"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1711,10 +1711,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="40"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1730,10 +1730,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="40"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1746,44 +1746,44 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1794,8 +1794,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1809,10 +1809,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="34"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1880,10 +1880,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="49"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1899,10 +1899,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="49"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1918,10 +1918,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="38"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1937,10 +1937,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="38"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1956,10 +1956,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="38"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1975,10 +1975,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="49"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2065,44 +2065,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -2113,8 +2113,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2128,10 +2128,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="34"/>
+      <c r="C57" s="48"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2195,10 +2195,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="49"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2212,10 +2212,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="49"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2229,10 +2229,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="38"/>
+      <c r="C62" s="35"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2246,10 +2246,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="38"/>
+      <c r="C63" s="35"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2263,10 +2263,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="38"/>
+      <c r="C64" s="35"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2280,10 +2280,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="49"/>
+      <c r="C65" s="37"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2331,10 +2331,10 @@
       <c r="A68" s="12">
         <v>36</v>
       </c>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="50"/>
+      <c r="C68" s="59"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -2345,36 +2345,36 @@
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="62"/>
-      <c r="K69" s="62"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
-      <c r="B70" s="64">
+      <c r="B70" s="32">
         <f>D71</f>
-        <v>45257</v>
-      </c>
-      <c r="C70" s="64"/>
+        <v>45306</v>
+      </c>
+      <c r="C70" s="32"/>
       <c r="D70" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="63">
+      <c r="E70" s="31">
         <f>J71</f>
-        <v>45263</v>
-      </c>
-      <c r="F70" s="63"/>
-      <c r="G70" s="63"/>
+        <v>45312</v>
+      </c>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
@@ -2382,37 +2382,35 @@
     </row>
     <row r="71" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
-      <c r="B71" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71" s="60"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="55"/>
       <c r="D71" s="23">
-        <f>DATE(2023,11,27)</f>
-        <v>45257</v>
+        <f>DATE(2024,1,15)</f>
+        <v>45306</v>
       </c>
       <c r="E71" s="23">
         <f t="shared" ref="E71:J71" si="0">D71+1</f>
-        <v>45258</v>
+        <v>45307</v>
       </c>
       <c r="F71" s="23">
         <f t="shared" si="0"/>
-        <v>45259</v>
+        <v>45308</v>
       </c>
       <c r="G71" s="23">
         <f t="shared" si="0"/>
-        <v>45260</v>
+        <v>45309</v>
       </c>
       <c r="H71" s="23">
         <f t="shared" si="0"/>
-        <v>45261</v>
+        <v>45310</v>
       </c>
       <c r="I71" s="23">
         <f t="shared" si="0"/>
-        <v>45262</v>
+        <v>45311</v>
       </c>
       <c r="J71" s="23">
         <f t="shared" si="0"/>
-        <v>45263</v>
+        <v>45312</v>
       </c>
       <c r="K71" s="24" t="s">
         <v>70</v>
@@ -2422,8 +2420,10 @@
     </row>
     <row r="72" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="61"/>
+      <c r="B72" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="56"/>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
@@ -2437,8 +2437,8 @@
     </row>
     <row r="73" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A73" s="13"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="61"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="56"/>
       <c r="D73" s="13" t="s">
         <v>73</v>
       </c>
@@ -2454,8 +2454,8 @@
     </row>
     <row r="74" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="1">
       <c r="A74" s="13"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="56"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="51"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="13"/>
@@ -2469,8 +2469,8 @@
     </row>
     <row r="75" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="52"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
@@ -2482,8 +2482,8 @@
     </row>
     <row r="76" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
@@ -2495,8 +2495,8 @@
     </row>
     <row r="77" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="57"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="52"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
@@ -2508,8 +2508,8 @@
     </row>
     <row r="78" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="52"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
@@ -2521,8 +2521,8 @@
     </row>
     <row r="79" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="57"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="52"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
@@ -2534,8 +2534,8 @@
     </row>
     <row r="80" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="59"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="54"/>
       <c r="D80" s="20"/>
       <c r="E80" s="22"/>
       <c r="F80" s="20"/>
@@ -2547,8 +2547,8 @@
     </row>
     <row r="81" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="55"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="50"/>
       <c r="D81" s="13"/>
       <c r="E81" s="17"/>
       <c r="F81" s="13"/>
@@ -2560,8 +2560,8 @@
     </row>
     <row r="82" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="55"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="50"/>
       <c r="D82" s="13"/>
       <c r="E82" s="17"/>
       <c r="F82" s="13"/>
@@ -2572,44 +2572,44 @@
       <c r="K82" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="65" t="s">
+      <c r="A84" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="66"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="66"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="66"/>
-      <c r="J84" s="66"/>
-      <c r="K84" s="67"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="40"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="39" t="s">
+      <c r="A85" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="68"/>
-      <c r="H85" s="68"/>
-      <c r="I85" s="68"/>
-      <c r="J85" s="68"/>
-      <c r="K85" s="40"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="43"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="51" t="s">
+      <c r="B86" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="52"/>
-      <c r="D86" s="52"/>
-      <c r="E86" s="52"/>
-      <c r="F86" s="53"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="46"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
         <v>3</v>
@@ -2620,8 +2620,8 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="47"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -2635,10 +2635,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="34" t="s">
+      <c r="B88" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="34"/>
+      <c r="C88" s="48"/>
       <c r="D88" s="11" t="s">
         <v>25</v>
       </c>
@@ -2698,8 +2698,8 @@
       <c r="A91" s="1">
         <v>28</v>
       </c>
-      <c r="B91" s="48"/>
-      <c r="C91" s="49"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="37"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2713,8 +2713,8 @@
       <c r="A92" s="1">
         <v>29</v>
       </c>
-      <c r="B92" s="48"/>
-      <c r="C92" s="49"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="37"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2728,8 +2728,8 @@
       <c r="A93" s="1">
         <v>30</v>
       </c>
-      <c r="B93" s="43"/>
-      <c r="C93" s="38"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="35"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2743,8 +2743,8 @@
       <c r="A94" s="1">
         <v>31</v>
       </c>
-      <c r="B94" s="43"/>
-      <c r="C94" s="38"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="35"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2758,8 +2758,8 @@
       <c r="A95" s="1">
         <v>32</v>
       </c>
-      <c r="B95" s="43"/>
-      <c r="C95" s="38"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="35"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2773,8 +2773,8 @@
       <c r="A96" s="1">
         <v>33</v>
       </c>
-      <c r="B96" s="48"/>
-      <c r="C96" s="49"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="37"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2831,6 +2831,89 @@
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B72:C72"/>
     <mergeCell ref="A69:K69"/>
     <mergeCell ref="E70:G70"/>
     <mergeCell ref="B70:C70"/>
@@ -2847,89 +2930,6 @@
     <mergeCell ref="B93:C93"/>
     <mergeCell ref="A84:K84"/>
     <mergeCell ref="A85:K85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.41" right="0" top="5.45" bottom="0" header="0.28999999999999998" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -249,7 +249,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Hernández Matínez Italiby</t>
+    <t>Lillo Tecox Guadalupe</t>
   </si>
 </sst>
 </file>
@@ -651,6 +651,102 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -660,21 +756,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -684,89 +765,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N75" sqref="N75"/>
+      <selection activeCell="B71" sqref="B71:K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,48 +1105,48 @@
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -1157,8 +1157,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1172,10 +1172,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="48"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1392,10 +1392,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1406,44 +1406,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1454,8 +1454,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1469,10 +1469,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="48"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1540,10 +1540,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="68"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1562,7 +1562,7 @@
       <c r="B26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="35"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1578,10 +1578,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="35"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1597,10 +1597,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1616,10 +1616,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="61"/>
+      <c r="C29" s="42"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1635,10 +1635,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="35"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1654,10 +1654,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="35"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1673,10 +1673,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="63"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1692,10 +1692,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="65"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1711,10 +1711,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="43"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1730,10 +1730,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="43"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1746,44 +1746,44 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1794,8 +1794,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1809,10 +1809,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="48"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1880,10 +1880,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="37"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1899,10 +1899,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="37"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1918,10 +1918,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="35"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1937,10 +1937,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="35"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1956,10 +1956,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="35"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1975,10 +1975,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="37"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2065,44 +2065,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="57" t="s">
+      <c r="A53" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -2113,8 +2113,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2128,10 +2128,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="48" t="s">
+      <c r="B57" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="48"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2195,10 +2195,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="37"/>
+      <c r="C60" s="49"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2212,10 +2212,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="37"/>
+      <c r="C61" s="49"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2229,10 +2229,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="35"/>
+      <c r="C62" s="38"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2246,10 +2246,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="35"/>
+      <c r="C63" s="38"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2263,10 +2263,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="35"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2280,10 +2280,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="37"/>
+      <c r="C65" s="49"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2331,10 +2331,10 @@
       <c r="A68" s="12">
         <v>36</v>
       </c>
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="59"/>
+      <c r="C68" s="50"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -2345,36 +2345,36 @@
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="62"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
-      <c r="B70" s="32">
+      <c r="B70" s="64">
         <f>D71</f>
-        <v>45306</v>
-      </c>
-      <c r="C70" s="32"/>
+        <v>45320</v>
+      </c>
+      <c r="C70" s="64"/>
       <c r="D70" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="31">
+      <c r="E70" s="63">
         <f>J71</f>
-        <v>45312</v>
-      </c>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
+        <v>45326</v>
+      </c>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
@@ -2382,35 +2382,35 @@
     </row>
     <row r="71" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="55"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="60"/>
       <c r="D71" s="23">
-        <f>DATE(2024,1,15)</f>
-        <v>45306</v>
+        <f>DATE(2024,1,29)</f>
+        <v>45320</v>
       </c>
       <c r="E71" s="23">
         <f t="shared" ref="E71:J71" si="0">D71+1</f>
-        <v>45307</v>
+        <v>45321</v>
       </c>
       <c r="F71" s="23">
         <f t="shared" si="0"/>
-        <v>45308</v>
+        <v>45322</v>
       </c>
       <c r="G71" s="23">
         <f t="shared" si="0"/>
-        <v>45309</v>
+        <v>45323</v>
       </c>
       <c r="H71" s="23">
         <f t="shared" si="0"/>
-        <v>45310</v>
+        <v>45324</v>
       </c>
       <c r="I71" s="23">
         <f t="shared" si="0"/>
-        <v>45311</v>
+        <v>45325</v>
       </c>
       <c r="J71" s="23">
         <f t="shared" si="0"/>
-        <v>45312</v>
+        <v>45326</v>
       </c>
       <c r="K71" s="24" t="s">
         <v>70</v>
@@ -2420,10 +2420,10 @@
     </row>
     <row r="72" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
-      <c r="B72" s="56" t="s">
+      <c r="B72" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="56"/>
+      <c r="C72" s="61"/>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
@@ -2437,8 +2437,8 @@
     </row>
     <row r="73" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A73" s="13"/>
-      <c r="B73" s="56"/>
-      <c r="C73" s="56"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="61"/>
       <c r="D73" s="13" t="s">
         <v>73</v>
       </c>
@@ -2454,8 +2454,8 @@
     </row>
     <row r="74" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="1">
       <c r="A74" s="13"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="51"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="13"/>
@@ -2469,8 +2469,8 @@
     </row>
     <row r="75" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="52"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
@@ -2482,8 +2482,8 @@
     </row>
     <row r="76" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="52"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
@@ -2495,8 +2495,8 @@
     </row>
     <row r="77" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="52"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
@@ -2508,8 +2508,8 @@
     </row>
     <row r="78" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
-      <c r="B78" s="52"/>
-      <c r="C78" s="52"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="57"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
@@ -2521,8 +2521,8 @@
     </row>
     <row r="79" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="52"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
@@ -2534,8 +2534,8 @@
     </row>
     <row r="80" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="54"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="59"/>
       <c r="D80" s="20"/>
       <c r="E80" s="22"/>
       <c r="F80" s="20"/>
@@ -2547,8 +2547,8 @@
     </row>
     <row r="81" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="50"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="55"/>
       <c r="D81" s="13"/>
       <c r="E81" s="17"/>
       <c r="F81" s="13"/>
@@ -2560,8 +2560,8 @@
     </row>
     <row r="82" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="50"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="55"/>
       <c r="D82" s="13"/>
       <c r="E82" s="17"/>
       <c r="F82" s="13"/>
@@ -2572,44 +2572,44 @@
       <c r="K82" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="38" t="s">
+      <c r="A84" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="40"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="66"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="66"/>
+      <c r="K84" s="67"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
-      <c r="K85" s="43"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="68"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="40"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="44" t="s">
+      <c r="B86" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="46"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="53"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
         <v>3</v>
@@ -2620,8 +2620,8 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="47"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -2635,10 +2635,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="48" t="s">
+      <c r="B88" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="48"/>
+      <c r="C88" s="34"/>
       <c r="D88" s="11" t="s">
         <v>25</v>
       </c>
@@ -2698,8 +2698,8 @@
       <c r="A91" s="1">
         <v>28</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="37"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="49"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2713,8 +2713,8 @@
       <c r="A92" s="1">
         <v>29</v>
       </c>
-      <c r="B92" s="36"/>
-      <c r="C92" s="37"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="49"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2728,8 +2728,8 @@
       <c r="A93" s="1">
         <v>30</v>
       </c>
-      <c r="B93" s="34"/>
-      <c r="C93" s="35"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="38"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2743,8 +2743,8 @@
       <c r="A94" s="1">
         <v>31</v>
       </c>
-      <c r="B94" s="34"/>
-      <c r="C94" s="35"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="38"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2758,8 +2758,8 @@
       <c r="A95" s="1">
         <v>32</v>
       </c>
-      <c r="B95" s="34"/>
-      <c r="C95" s="35"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="38"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2773,8 +2773,8 @@
       <c r="A96" s="1">
         <v>33</v>
       </c>
-      <c r="B96" s="36"/>
-      <c r="C96" s="37"/>
+      <c r="B96" s="48"/>
+      <c r="C96" s="49"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2831,6 +2831,89 @@
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="A84:K84"/>
+    <mergeCell ref="A85:K85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:F3"/>
@@ -2847,91 +2930,8 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A69:K69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="A84:K84"/>
-    <mergeCell ref="A85:K85"/>
   </mergeCells>
-  <pageMargins left="0.41" right="0" top="5.45" bottom="0" header="0.28999999999999998" footer="0"/>
+  <pageMargins left="0.41" right="0" top="6.95" bottom="0" header="0.28999999999999998" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -249,7 +249,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Lillo Tecox Guadalupe</t>
+    <t>García Méndez María Fernanda</t>
   </si>
 </sst>
 </file>
@@ -651,20 +651,113 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -674,99 +767,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71:K73"/>
+      <selection activeCell="A69" sqref="A69:K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,44 +1109,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -1157,8 +1157,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1172,10 +1172,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1392,10 +1392,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1406,44 +1406,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1454,8 +1454,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1469,10 +1469,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="34"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1540,10 +1540,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1562,7 +1562,7 @@
       <c r="B26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="38"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1578,10 +1578,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="38"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1597,10 +1597,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="42"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1616,10 +1616,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="42"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1635,10 +1635,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="38"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1654,10 +1654,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="38"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1673,10 +1673,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="45"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1692,10 +1692,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="47"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1711,10 +1711,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="40"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1730,10 +1730,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="40"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1746,44 +1746,44 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1794,8 +1794,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1809,10 +1809,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="34"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1880,10 +1880,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="49"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1899,10 +1899,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="49"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1918,10 +1918,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="38"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1937,10 +1937,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="38"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1956,10 +1956,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="38"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1975,10 +1975,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="49"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2065,44 +2065,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -2113,8 +2113,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2128,10 +2128,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="34"/>
+      <c r="C57" s="48"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2195,10 +2195,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="49"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2212,10 +2212,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="49"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2229,10 +2229,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="38"/>
+      <c r="C62" s="35"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2246,10 +2246,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="38"/>
+      <c r="C63" s="35"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2263,10 +2263,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="38"/>
+      <c r="C64" s="35"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2280,10 +2280,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="49"/>
+      <c r="C65" s="37"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2331,10 +2331,10 @@
       <c r="A68" s="12">
         <v>36</v>
       </c>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="50"/>
+      <c r="C68" s="59"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -2345,36 +2345,36 @@
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="62"/>
-      <c r="K69" s="62"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
-      <c r="B70" s="64">
+      <c r="B70" s="32">
         <f>D71</f>
         <v>45320</v>
       </c>
-      <c r="C70" s="64"/>
+      <c r="C70" s="32"/>
       <c r="D70" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="63">
+      <c r="E70" s="31">
         <f>J71</f>
         <v>45326</v>
       </c>
-      <c r="F70" s="63"/>
-      <c r="G70" s="63"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
@@ -2382,8 +2382,8 @@
     </row>
     <row r="71" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="55"/>
       <c r="D71" s="23">
         <f>DATE(2024,1,29)</f>
         <v>45320</v>
@@ -2420,10 +2420,10 @@
     </row>
     <row r="72" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
-      <c r="B72" s="61" t="s">
+      <c r="B72" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="61"/>
+      <c r="C72" s="56"/>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
@@ -2437,8 +2437,8 @@
     </row>
     <row r="73" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A73" s="13"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="61"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="56"/>
       <c r="D73" s="13" t="s">
         <v>73</v>
       </c>
@@ -2454,8 +2454,8 @@
     </row>
     <row r="74" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="1">
       <c r="A74" s="13"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="56"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="51"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="13"/>
@@ -2469,8 +2469,8 @@
     </row>
     <row r="75" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="52"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
@@ -2482,8 +2482,8 @@
     </row>
     <row r="76" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
@@ -2495,8 +2495,8 @@
     </row>
     <row r="77" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="57"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="52"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
@@ -2508,8 +2508,8 @@
     </row>
     <row r="78" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="52"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
@@ -2521,8 +2521,8 @@
     </row>
     <row r="79" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="57"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="52"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
@@ -2534,8 +2534,8 @@
     </row>
     <row r="80" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="59"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="54"/>
       <c r="D80" s="20"/>
       <c r="E80" s="22"/>
       <c r="F80" s="20"/>
@@ -2547,8 +2547,8 @@
     </row>
     <row r="81" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="55"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="50"/>
       <c r="D81" s="13"/>
       <c r="E81" s="17"/>
       <c r="F81" s="13"/>
@@ -2560,8 +2560,8 @@
     </row>
     <row r="82" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="55"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="50"/>
       <c r="D82" s="13"/>
       <c r="E82" s="17"/>
       <c r="F82" s="13"/>
@@ -2572,44 +2572,44 @@
       <c r="K82" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="65" t="s">
+      <c r="A84" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="66"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="66"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="66"/>
-      <c r="J84" s="66"/>
-      <c r="K84" s="67"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="40"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="39" t="s">
+      <c r="A85" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="68"/>
-      <c r="H85" s="68"/>
-      <c r="I85" s="68"/>
-      <c r="J85" s="68"/>
-      <c r="K85" s="40"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="43"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="51" t="s">
+      <c r="B86" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="52"/>
-      <c r="D86" s="52"/>
-      <c r="E86" s="52"/>
-      <c r="F86" s="53"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="46"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
         <v>3</v>
@@ -2620,8 +2620,8 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="47"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -2635,10 +2635,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="34" t="s">
+      <c r="B88" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="34"/>
+      <c r="C88" s="48"/>
       <c r="D88" s="11" t="s">
         <v>25</v>
       </c>
@@ -2698,8 +2698,8 @@
       <c r="A91" s="1">
         <v>28</v>
       </c>
-      <c r="B91" s="48"/>
-      <c r="C91" s="49"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="37"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2713,8 +2713,8 @@
       <c r="A92" s="1">
         <v>29</v>
       </c>
-      <c r="B92" s="48"/>
-      <c r="C92" s="49"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="37"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2728,8 +2728,8 @@
       <c r="A93" s="1">
         <v>30</v>
       </c>
-      <c r="B93" s="43"/>
-      <c r="C93" s="38"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="35"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2743,8 +2743,8 @@
       <c r="A94" s="1">
         <v>31</v>
       </c>
-      <c r="B94" s="43"/>
-      <c r="C94" s="38"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="35"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2758,8 +2758,8 @@
       <c r="A95" s="1">
         <v>32</v>
       </c>
-      <c r="B95" s="43"/>
-      <c r="C95" s="38"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="35"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2773,8 +2773,8 @@
       <c r="A96" s="1">
         <v>33</v>
       </c>
-      <c r="B96" s="48"/>
-      <c r="C96" s="49"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="37"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2831,6 +2831,89 @@
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B72:C72"/>
     <mergeCell ref="A69:K69"/>
     <mergeCell ref="E70:G70"/>
     <mergeCell ref="B70:C70"/>
@@ -2847,91 +2930,8 @@
     <mergeCell ref="B93:C93"/>
     <mergeCell ref="A84:K84"/>
     <mergeCell ref="A85:K85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
-  <pageMargins left="0.41" right="0" top="6.95" bottom="0" header="0.28999999999999998" footer="0"/>
+  <pageMargins left="0.41" right="0" top="6.4" bottom="0" header="0.28999999999999998" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>

--- a/PERSONAL DE OBRADOR.xlsx
+++ b/PERSONAL DE OBRADOR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programas\Cortes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Repositorios\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
   <si>
     <t>Norma Ledo Parra</t>
   </si>
@@ -249,7 +249,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>García Méndez María Fernanda</t>
+    <t>Ledo Luna Juan</t>
+  </si>
+  <si>
+    <t>Estrada Lopez Monica</t>
   </si>
 </sst>
 </file>
@@ -651,6 +654,102 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -660,21 +759,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -684,89 +768,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1091,7 +1094,7 @@
   <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:K74"/>
+      <selection activeCell="O79" sqref="O79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,44 +1112,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -1157,8 +1160,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1172,10 +1175,10 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="48"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1392,10 +1395,10 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1406,44 +1409,44 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>3</v>
@@ -1454,8 +1457,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1469,10 +1472,10 @@
     </row>
     <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="48"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1540,10 +1543,10 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="68"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1562,7 +1565,7 @@
       <c r="B26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="35"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1578,10 +1581,10 @@
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="35"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1597,10 +1600,10 @@
       <c r="A28" s="1">
         <v>18</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1616,10 +1619,10 @@
       <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="61"/>
+      <c r="C29" s="42"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1635,10 +1638,10 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="35"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1654,10 +1657,10 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="35"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1673,10 +1676,10 @@
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="63"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1692,10 +1695,10 @@
       <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="65"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1711,10 +1714,10 @@
       <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="43"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1730,10 +1733,10 @@
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="43"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1746,44 +1749,44 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
@@ -1794,8 +1797,8 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1809,10 +1812,10 @@
     </row>
     <row r="40" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="48"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1880,10 +1883,10 @@
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="37"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1899,10 +1902,10 @@
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="37"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1918,10 +1921,10 @@
       <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="35"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1937,10 +1940,10 @@
       <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="35"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1956,10 +1959,10 @@
       <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="35"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1975,10 +1978,10 @@
       <c r="A48" s="1">
         <v>33</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="37"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2065,44 +2068,44 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="57" t="s">
+      <c r="A53" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
@@ -2113,8 +2116,8 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2128,10 +2131,10 @@
     </row>
     <row r="57" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="48" t="s">
+      <c r="B57" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="48"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2195,10 +2198,10 @@
       <c r="A60" s="1">
         <v>28</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="37"/>
+      <c r="C60" s="49"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2212,10 +2215,10 @@
       <c r="A61" s="1">
         <v>29</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="37"/>
+      <c r="C61" s="49"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2229,10 +2232,10 @@
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="35"/>
+      <c r="C62" s="38"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2246,10 +2249,10 @@
       <c r="A63" s="1">
         <v>31</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="35"/>
+      <c r="C63" s="38"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2263,10 +2266,10 @@
       <c r="A64" s="1">
         <v>32</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="35"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2280,10 +2283,10 @@
       <c r="A65" s="1">
         <v>33</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="37"/>
+      <c r="C65" s="49"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2331,10 +2334,10 @@
       <c r="A68" s="12">
         <v>36</v>
       </c>
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="59"/>
+      <c r="C68" s="50"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -2345,36 +2348,36 @@
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="62"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
-      <c r="B70" s="32">
+      <c r="B70" s="64">
         <f>D71</f>
-        <v>45320</v>
-      </c>
-      <c r="C70" s="32"/>
+        <v>45327</v>
+      </c>
+      <c r="C70" s="64"/>
       <c r="D70" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="31">
+      <c r="E70" s="63">
         <f>J71</f>
-        <v>45326</v>
-      </c>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
+        <v>45333</v>
+      </c>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
@@ -2382,35 +2385,35 @@
     </row>
     <row r="71" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="55"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="60"/>
       <c r="D71" s="23">
-        <f>DATE(2024,1,29)</f>
-        <v>45320</v>
+        <f>DATE(2024,2,5)</f>
+        <v>45327</v>
       </c>
       <c r="E71" s="23">
         <f t="shared" ref="E71:J71" si="0">D71+1</f>
-        <v>45321</v>
+        <v>45328</v>
       </c>
       <c r="F71" s="23">
         <f t="shared" si="0"/>
-        <v>45322</v>
+        <v>45329</v>
       </c>
       <c r="G71" s="23">
         <f t="shared" si="0"/>
-        <v>45323</v>
+        <v>45330</v>
       </c>
       <c r="H71" s="23">
         <f t="shared" si="0"/>
-        <v>45324</v>
+        <v>45331</v>
       </c>
       <c r="I71" s="23">
         <f t="shared" si="0"/>
-        <v>45325</v>
+        <v>45332</v>
       </c>
       <c r="J71" s="23">
         <f t="shared" si="0"/>
-        <v>45326</v>
+        <v>45333</v>
       </c>
       <c r="K71" s="24" t="s">
         <v>70</v>
@@ -2420,10 +2423,10 @@
     </row>
     <row r="72" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
-      <c r="B72" s="56" t="s">
+      <c r="B72" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="56"/>
+      <c r="C72" s="61"/>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
@@ -2437,8 +2440,10 @@
     </row>
     <row r="73" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A73" s="13"/>
-      <c r="B73" s="56"/>
-      <c r="C73" s="56"/>
+      <c r="B73" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="61"/>
       <c r="D73" s="13" t="s">
         <v>73</v>
       </c>
@@ -2454,8 +2459,8 @@
     </row>
     <row r="74" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="1">
       <c r="A74" s="13"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="51"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="13"/>
@@ -2469,8 +2474,8 @@
     </row>
     <row r="75" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="52"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
@@ -2482,8 +2487,8 @@
     </row>
     <row r="76" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="52"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
@@ -2495,8 +2500,8 @@
     </row>
     <row r="77" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="52"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
@@ -2508,8 +2513,8 @@
     </row>
     <row r="78" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
-      <c r="B78" s="52"/>
-      <c r="C78" s="52"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="57"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
@@ -2521,8 +2526,8 @@
     </row>
     <row r="79" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="52"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
@@ -2534,8 +2539,8 @@
     </row>
     <row r="80" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="54"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="59"/>
       <c r="D80" s="20"/>
       <c r="E80" s="22"/>
       <c r="F80" s="20"/>
@@ -2547,8 +2552,8 @@
     </row>
     <row r="81" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="50"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="55"/>
       <c r="D81" s="13"/>
       <c r="E81" s="17"/>
       <c r="F81" s="13"/>
@@ -2560,8 +2565,8 @@
     </row>
     <row r="82" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="50"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="55"/>
       <c r="D82" s="13"/>
       <c r="E82" s="17"/>
       <c r="F82" s="13"/>
@@ -2572,44 +2577,44 @@
       <c r="K82" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="38" t="s">
+      <c r="A84" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="40"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="66"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="66"/>
+      <c r="K84" s="67"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
-      <c r="K85" s="43"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="68"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="40"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="44" t="s">
+      <c r="B86" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="46"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="53"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
         <v>3</v>
@@ -2620,8 +2625,8 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="47"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -2635,10 +2640,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="48" t="s">
+      <c r="B88" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="48"/>
+      <c r="C88" s="34"/>
       <c r="D88" s="11" t="s">
         <v>25</v>
       </c>
@@ -2698,8 +2703,8 @@
       <c r="A91" s="1">
         <v>28</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="37"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="49"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2713,8 +2718,8 @@
       <c r="A92" s="1">
         <v>29</v>
       </c>
-      <c r="B92" s="36"/>
-      <c r="C92" s="37"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="49"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2728,8 +2733,8 @@
       <c r="A93" s="1">
         <v>30</v>
       </c>
-      <c r="B93" s="34"/>
-      <c r="C93" s="35"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="38"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2743,8 +2748,8 @@
       <c r="A94" s="1">
         <v>31</v>
       </c>
-      <c r="B94" s="34"/>
-      <c r="C94" s="35"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="38"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2758,8 +2763,8 @@
       <c r="A95" s="1">
         <v>32</v>
       </c>
-      <c r="B95" s="34"/>
-      <c r="C95" s="35"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="38"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2773,8 +2778,8 @@
       <c r="A96" s="1">
         <v>33</v>
       </c>
-      <c r="B96" s="36"/>
-      <c r="C96" s="37"/>
+      <c r="B96" s="48"/>
+      <c r="C96" s="49"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2831,6 +2836,89 @@
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="A84:K84"/>
+    <mergeCell ref="A85:K85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <m